--- a/data/hotels_by_city/Dallas/Dallas_shard_658.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_658.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2353 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r580728774-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>223887</t>
+  </si>
+  <si>
+    <t>580728774</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay although we did encounter some issues. When we asked for disposable plates and utensils for the grill, they let us know that they did not have any. We had to bring down the plates from the room to grill outside. Elevator was also out of order while we were there. Apart from that, we enjoyed the hotel and the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Louie S, Front Office Manager at Residence Inn Dallas Park Central, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay although we did encounter some issues. When we asked for disposable plates and utensils for the grill, they let us know that they did not have any. We had to bring down the plates from the room to grill outside. Elevator was also out of order while we were there. Apart from that, we enjoyed the hotel and the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r564462682-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564462682</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Nice and convenient</t>
+  </si>
+  <si>
+    <t>We stayed here since it was so close to Medical City Dallas Hospital, and it didn't disappoint.  We booked a 2 bedroom suite since my mother in law was also staying with us.  We were very surprised to see that what we got was a 2 bedroom, 2 bathroom suite with a large living room with a fireplace.  It also had a kitchen with a full size refrigerator, full size glass top stove and oven, microwave, as well as silverware.  When we went to the complimentary breakfast the next morning, we were surprised to see how many items it had.  We enjoyed our stay.  Only one thing to warn you about, if you are going to have to cancel your reservations, you are required to do so at least 2 days in advance or you will be charged for the room.  I will post pictures of the breakfast so you can see some of what it had to offer.  It was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Louie S, Front Office Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here since it was so close to Medical City Dallas Hospital, and it didn't disappoint.  We booked a 2 bedroom suite since my mother in law was also staying with us.  We were very surprised to see that what we got was a 2 bedroom, 2 bathroom suite with a large living room with a fireplace.  It also had a kitchen with a full size refrigerator, full size glass top stove and oven, microwave, as well as silverware.  When we went to the complimentary breakfast the next morning, we were surprised to see how many items it had.  We enjoyed our stay.  Only one thing to warn you about, if you are going to have to cancel your reservations, you are required to do so at least 2 days in advance or you will be charged for the room.  I will post pictures of the breakfast so you can see some of what it had to offer.  It was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r564442871-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564442871</t>
+  </si>
+  <si>
+    <t>2 day stay for hospital visits</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom. The room has been recently renovated. The beds are super comfy. Great breakfast and lite dinner fare. Front office staff was very nice and helpful. We have been staying there for years and we love Reecey..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom. The room has been recently renovated. The beds are super comfy. Great breakfast and lite dinner fare. Front office staff was very nice and helpful. We have been staying there for years and we love Reecey..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r500583650-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>500583650</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Construction made it uncomfortable</t>
+  </si>
+  <si>
+    <t>I tend to enjoy staying at Residence Inn properties however this wasn't a great experience. This hotel was under construction during our stay (which was desperately needed).  Our room however had not been touched, nor any room on our floor. The construction was very loud and so were the workers. They worked until the late evening hours, walkingUp and down the hallways and stairs being extremely loud and dirty. Staff wasn't the friendliest either. Hotel is also very difficult to get too. Perhaps this properly will be greatly improved once the construction process is overMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I tend to enjoy staying at Residence Inn properties however this wasn't a great experience. This hotel was under construction during our stay (which was desperately needed).  Our room however had not been touched, nor any room on our floor. The construction was very loud and so were the workers. They worked until the late evening hours, walkingUp and down the hallways and stairs being extremely loud and dirty. Staff wasn't the friendliest either. Hotel is also very difficult to get too. Perhaps this properly will be greatly improved once the construction process is overMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r497810249-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>497810249</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Always a great bet if you are not megarich</t>
+  </si>
+  <si>
+    <t>used asa stopover point on recent trip to Mexico, and a two bedroom suite was perfect for our family. always clean, with good beds and general convenience. on this trip, a special thank you to front desk lady Kazhmere for some special help for the 11 month old baby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>used asa stopover point on recent trip to Mexico, and a two bedroom suite was perfect for our family. always clean, with good beds and general convenience. on this trip, a special thank you to front desk lady Kazhmere for some special help for the 11 month old baby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r473163771-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>473163771</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I had an amazing stay there. Front desk was extremely helpful with all of my needs. Housekeeping was fast and efficient at their job. The shuttle drivers were so kind without them I would not gotten to do 1/2 things I got to do. Every time I passed an employee there they greeted me and asked if I needed anything else. Love love this place!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>I had an amazing stay there. Front desk was extremely helpful with all of my needs. Housekeeping was fast and efficient at their job. The shuttle drivers were so kind without them I would not gotten to do 1/2 things I got to do. Every time I passed an employee there they greeted me and asked if I needed anything else. Love love this place!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r467298763-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>467298763</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>Everyone has different things that are important to them.  I am reporting on what I observed so use this review to see if what I experienced is important to you.  Great space in the room.  We need two separate bedrooms and a living area with kitchen.   Remember to turn on the ice maker in the refrigerator if you want ice as I don't know if ice machines are available.  Some tv channels are analog and not digital.  Air conditioning and heating controls are in the room and work well.  Beds are comfortable.   You can hear traffic noise from LBJ.  Except for traffic noise, rooms are quiet.    Tub could use another grab bar to avoid slipping in the shower. Coffee is not good in the breakfast area.  Breakfast items are typical for a hotel buffet.   Doors leading into and out of property buildings are very heavy.  Parking is easy and convenient to the room we were in.    Overall, a very good experience. We will stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Everyone has different things that are important to them.  I am reporting on what I observed so use this review to see if what I experienced is important to you.  Great space in the room.  We need two separate bedrooms and a living area with kitchen.   Remember to turn on the ice maker in the refrigerator if you want ice as I don't know if ice machines are available.  Some tv channels are analog and not digital.  Air conditioning and heating controls are in the room and work well.  Beds are comfortable.   You can hear traffic noise from LBJ.  Except for traffic noise, rooms are quiet.    Tub could use another grab bar to avoid slipping in the shower. Coffee is not good in the breakfast area.  Breakfast items are typical for a hotel buffet.   Doors leading into and out of property buildings are very heavy.  Parking is easy and convenient to the room we were in.    Overall, a very good experience. We will stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r464649934-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464649934</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay if in the area</t>
+  </si>
+  <si>
+    <t>I was working on a project literally next door, so convenience was #1 personally here. I ended up not having to rent a car and did Uber for the first time in DFW and probably saved $500 by combining convenience with finding a hotel close by and not renting a car. (However many "uber goober" drivers had a hard time figuring out the location. It was nice to see the ones who just pulled up like they knew the place. Room was great. Had a very nice desk work area and since I was there 100% on business, that was nice. I could see staying here on many future trips coming up. Morning breakfast buffet was OK, but better than most. Not ALL the eggs were microwaved. They did a good job on breakfast. They have an afternoon wine, beer and cookie bar in the afternoon. All in all, this is a great place to stay if you're doing business in the area. They do a great job of catering to the business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>I was working on a project literally next door, so convenience was #1 personally here. I ended up not having to rent a car and did Uber for the first time in DFW and probably saved $500 by combining convenience with finding a hotel close by and not renting a car. (However many "uber goober" drivers had a hard time figuring out the location. It was nice to see the ones who just pulled up like they knew the place. Room was great. Had a very nice desk work area and since I was there 100% on business, that was nice. I could see staying here on many future trips coming up. Morning breakfast buffet was OK, but better than most. Not ALL the eggs were microwaved. They did a good job on breakfast. They have an afternoon wine, beer and cookie bar in the afternoon. All in all, this is a great place to stay if you're doing business in the area. They do a great job of catering to the business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r458319048-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>458319048</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Uninhabitable furniture (picture), Bad Mgmt. Stay away else you will regret</t>
+  </si>
+  <si>
+    <t>Gold member and stay in marriot properties few times every month.  This property brings shame to marriot name. I stayed at this hotel on Feb 6 for 1 night on Business. See the picture of furniture and condition before you stay. Chair looked like 100 years old, chewed and brought from dumpster.   Front desk is not very helpful, they used excuse for renovation. Check-out the bathroom and hair. I could not sleep. Requested front desk, and Managers to change the chair, answer was no. Finally reached out to Marriott then they brought new chair after 1 hour.  Really bad Mgmt there. Do not stay in this hotel else you will regret. Only good thing is a free car parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Gold member and stay in marriot properties few times every month.  This property brings shame to marriot name. I stayed at this hotel on Feb 6 for 1 night on Business. See the picture of furniture and condition before you stay. Chair looked like 100 years old, chewed and brought from dumpster.   Front desk is not very helpful, they used excuse for renovation. Check-out the bathroom and hair. I could not sleep. Requested front desk, and Managers to change the chair, answer was no. Finally reached out to Marriott then they brought new chair after 1 hour.  Really bad Mgmt there. Do not stay in this hotel else you will regret. Only good thing is a free car parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r422170343-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>422170343</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>A great hotel staff!</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was a short walk to the Westin Park Central, the where we needed to be for a four day event, because the event hotel was sold out. We were so lucky for several reasons. The Residence Inn was clean and quiet and everyone on the staff was friendly and helpful. While the breakfast was not fancy and served on disposable plates, all the food was really well prepared and there was a good variety, with menu changes every day. We have stayed in high end hotels where the hot food on the buffet was not as good as at this hotel. The little market was well supplied with a variety of drinks, snack foods, ice cream, and some microwave foods. We were also lucky to be at the Residence Inn because the Westin was undergoing a massive lobby renovation, which created noise and inconvenience for everyone staying there. There was no where to get bottled drinks or sundries as their shop was closed and the restaurant was located temporarily in a meeting room far from the kitchen, so their food service was very limited. We did not have a car, so cannot speak to it being hard to find or get to, but the cabs did not seem to have any problem. We were there for four nights, but it seems like it would have been very comfortable if one needed an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was a short walk to the Westin Park Central, the where we needed to be for a four day event, because the event hotel was sold out. We were so lucky for several reasons. The Residence Inn was clean and quiet and everyone on the staff was friendly and helpful. While the breakfast was not fancy and served on disposable plates, all the food was really well prepared and there was a good variety, with menu changes every day. We have stayed in high end hotels where the hot food on the buffet was not as good as at this hotel. The little market was well supplied with a variety of drinks, snack foods, ice cream, and some microwave foods. We were also lucky to be at the Residence Inn because the Westin was undergoing a massive lobby renovation, which created noise and inconvenience for everyone staying there. There was no where to get bottled drinks or sundries as their shop was closed and the restaurant was located temporarily in a meeting room far from the kitchen, so their food service was very limited. We did not have a car, so cannot speak to it being hard to find or get to, but the cabs did not seem to have any problem. We were there for four nights, but it seems like it would have been very comfortable if one needed an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r417427551-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>417427551</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Nothing special, but ideal for a longer stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a family trip in July. The room was very spacious and I appreciated the layout. If we would've stayed for an extended amount of time it would've been more than ideal. However, there were a few odd nuances - the hotel itself (well, the building we were in...) smelled not good - at all. In addition, there was a ton of construction going on in and outside of the hotel. It made it difficult to take naps during the day. In addition, it made the inside of the hotel look like a construction site. I heard the breakfast was pretty good and I appreciated the "spa water" the hotel provided all day every day. We stayed here because our family did, therefore, we weren't sure of the location. The location was less than ideal for us. It wasn't close to anything we wanted to do. The wifi worked well and our room was cleaned each day which was nice for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Louie S, Guest Relations Manager at Residence Inn Dallas Park Central, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a family trip in July. The room was very spacious and I appreciated the layout. If we would've stayed for an extended amount of time it would've been more than ideal. However, there were a few odd nuances - the hotel itself (well, the building we were in...) smelled not good - at all. In addition, there was a ton of construction going on in and outside of the hotel. It made it difficult to take naps during the day. In addition, it made the inside of the hotel look like a construction site. I heard the breakfast was pretty good and I appreciated the "spa water" the hotel provided all day every day. We stayed here because our family did, therefore, we weren't sure of the location. The location was less than ideal for us. It wasn't close to anything we wanted to do. The wifi worked well and our room was cleaned each day which was nice for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r410327486-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>410327486</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay but issues with the front desk</t>
+  </si>
+  <si>
+    <t>Overall it was pretty good. Very central location that was a bit hard to get into and out of based on its location on the service road. Parking was fairly limited but even with several trailers and shipping containers from their remodel clogging the parking lot, I never had an issue finding a space. Though i suspect that if it were totally booked the parking situation might get a bit snug.
+My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it...Overall it was pretty good. Very central location that was a bit hard to get into and out of based on its location on the service road. Parking was fairly limited but even with several trailers and shipping containers from their remodel clogging the parking lot, I never had an issue finding a space. Though i suspect that if it were totally booked the parking situation might get a bit snug.My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it at all.No real issues with house keeping, other than maybe twice in the 23 nights I stayed they did not clean my room until 4:30-5pm.Breakfast was good. The social hour / dinner type of thing they have Mon-Wed was alright, although I wish they had any other beer in the world other than exclusively Bud Light.Overall, I would recommend it to other folks looking for an extended stay in the area, though I'm not sure I would stay here again myself due to the initial check in experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Guest Relations Manager at Residence Inn Dallas Park Central, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Overall it was pretty good. Very central location that was a bit hard to get into and out of based on its location on the service road. Parking was fairly limited but even with several trailers and shipping containers from their remodel clogging the parking lot, I never had an issue finding a space. Though i suspect that if it were totally booked the parking situation might get a bit snug.
+My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it...Overall it was pretty good. Very central location that was a bit hard to get into and out of based on its location on the service road. Parking was fairly limited but even with several trailers and shipping containers from their remodel clogging the parking lot, I never had an issue finding a space. Though i suspect that if it were totally booked the parking situation might get a bit snug.My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it at all.No real issues with house keeping, other than maybe twice in the 23 nights I stayed they did not clean my room until 4:30-5pm.Breakfast was good. The social hour / dinner type of thing they have Mon-Wed was alright, although I wish they had any other beer in the world other than exclusively Bud Light.Overall, I would recommend it to other folks looking for an extended stay in the area, though I'm not sure I would stay here again myself due to the initial check in experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r377937506-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>377937506</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Bowling Tournament</t>
+  </si>
+  <si>
+    <t>As soon as you walked in the sliding doors there was the floral air freshener scent.  The water infused with a daily combo of fruits (oranges, grapefruit, apple and strawberries) was very inviting.  The staff was very friendly especially Elise.  We had a queen room suite I would have rathered a king but they stated the location does not have King beds.  This might be the only reason I may not come back.  We were not able to take advantage of the pool due to weather but I did go to the gym.  There was a couple of thread mills and weights which the whole set up seemed out of place I tripped twice over the weight bench.  The breakfast was good and average there was fruit daily at the front desk and even an assortment of cookies. The one I have never seen was the flavored syrups for the coffee.  The Paul Mitchell lotion body washes is a signature of the Marriott.  I absolutely love the complimentary makeup wipes and microwave popcorn.  The only issue l had was there is a bush in the parking lot that obstruct one's view.  They need to install a mirror so there is not a collision.  I would still recommend this hotel to others even if they don't offer king size bed suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Louie S, Guest Relations Manager at Residence Inn Dallas Park Central, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>As soon as you walked in the sliding doors there was the floral air freshener scent.  The water infused with a daily combo of fruits (oranges, grapefruit, apple and strawberries) was very inviting.  The staff was very friendly especially Elise.  We had a queen room suite I would have rathered a king but they stated the location does not have King beds.  This might be the only reason I may not come back.  We were not able to take advantage of the pool due to weather but I did go to the gym.  There was a couple of thread mills and weights which the whole set up seemed out of place I tripped twice over the weight bench.  The breakfast was good and average there was fruit daily at the front desk and even an assortment of cookies. The one I have never seen was the flavored syrups for the coffee.  The Paul Mitchell lotion body washes is a signature of the Marriott.  I absolutely love the complimentary makeup wipes and microwave popcorn.  The only issue l had was there is a bush in the parking lot that obstruct one's view.  They need to install a mirror so there is not a collision.  I would still recommend this hotel to others even if they don't offer king size bed suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r376598809-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>376598809</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Good staff not a great location</t>
+  </si>
+  <si>
+    <t>Stayed here for 9 nights in April. The staff and rooms were what you expect out of a Residence Inn. The location, while very central has poor parking and is difficult to get into. The hotel is on the corner of two major freeways (635 and 75) and you can easily miss the turn due to traffic. This also causes for a lot of noisy nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Louie S, Guest Relations Manager at Residence Inn Dallas Park Central, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 9 nights in April. The staff and rooms were what you expect out of a Residence Inn. The location, while very central has poor parking and is difficult to get into. The hotel is on the corner of two major freeways (635 and 75) and you can easily miss the turn due to traffic. This also causes for a lot of noisy nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r374480393-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>374480393</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Excellent stayover</t>
+  </si>
+  <si>
+    <t>Although the property is maybe not the newest, I was very glad with the 2 bedroom suite they gave me. Also the personalized service and attention was excellent. Breakfast is conform typical Residence Inn / Courtyard. Very well located to major (TI) semiconductor as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Although the property is maybe not the newest, I was very glad with the 2 bedroom suite they gave me. Also the personalized service and attention was excellent. Breakfast is conform typical Residence Inn / Courtyard. Very well located to major (TI) semiconductor as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r367657986-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>367657986</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Don't always honor the prices on their own website...</t>
+  </si>
+  <si>
+    <t>I believe that every company should strive to provide the best experience for its customers, both in terms of the products they provide and the way they treat people. Companies in the hospitality industry bear a special responsibility for this as they look after us while we are away from home, tired from traveling, and in places we may not know well. The last thing we need is to be intentionally taken advantage of by the very place we sought shelter, but this unfortunately seems to be the modus operandi of this particular Residence Inn.
+My beef with this Residence Inn - owned by Island Hospitality in West Palm Beach, Florida - is that they do not care to honor the rates they advertise on their own website. Imagine the terrible experience of needing a hotel immediately, finding a good property and price online, and showing up with all your luggage, only to be told that the rate is actually 65% higher.
+Now imagine that you pull up that very rate online and show the front desk that it's the current rate for the room, but they still refuse to honor it because it's late, you're visibly exhausted, and a senior citizen... and they know you're at their mercy.
+That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this...I believe that every company should strive to provide the best experience for its customers, both in terms of the products they provide and the way they treat people. Companies in the hospitality industry bear a special responsibility for this as they look after us while we are away from home, tired from traveling, and in places we may not know well. The last thing we need is to be intentionally taken advantage of by the very place we sought shelter, but this unfortunately seems to be the modus operandi of this particular Residence Inn.My beef with this Residence Inn - owned by Island Hospitality in West Palm Beach, Florida - is that they do not care to honor the rates they advertise on their own website. Imagine the terrible experience of needing a hotel immediately, finding a good property and price online, and showing up with all your luggage, only to be told that the rate is actually 65% higher.Now imagine that you pull up that very rate online and show the front desk that it's the current rate for the room, but they still refuse to honor it because it's late, you're visibly exhausted, and a senior citizen... and they know you're at their mercy.That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this Residence Inn looked like the best choice with their $92/night price.Upon arrival at the hotel, the front desk refused that rate and told us it was not available. So my father pulled it up on his phone and showed it to them - the currently advertised rate for the room we wanted - but they said there was nothing they could do because it wasn't showing up on their end. There was nowhere else to go and my father could barely keep his eyes open, so we ended up paying the $150/night instead.Will this happen to you? It seems like pretty routine behavior for them, but who knows? Maybe it will, maybe it won't, but I would want better than a 50% chance of the rate I find being honored.The next morning my father went downstairs and spoke with their General Manager, Michael Manners of Island Hospitality, who was unwilling to offer any concessions or do anything whatsoever to mitigate the issue.It's very disappointing to see any business - let alone a hotel in Marriott's brand portfolio - treat guests this way.For your own sake, please do yourself or the people you are booking for the favor of looking elsewhere. There is a Holiday Inn Express about 1 minute from here that's far nicer and about the same price, or just download the HotelTonight smartphone app and find distressed inventory with "Resident Inn rates" at significantly nicer hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I believe that every company should strive to provide the best experience for its customers, both in terms of the products they provide and the way they treat people. Companies in the hospitality industry bear a special responsibility for this as they look after us while we are away from home, tired from traveling, and in places we may not know well. The last thing we need is to be intentionally taken advantage of by the very place we sought shelter, but this unfortunately seems to be the modus operandi of this particular Residence Inn.
+My beef with this Residence Inn - owned by Island Hospitality in West Palm Beach, Florida - is that they do not care to honor the rates they advertise on their own website. Imagine the terrible experience of needing a hotel immediately, finding a good property and price online, and showing up with all your luggage, only to be told that the rate is actually 65% higher.
+Now imagine that you pull up that very rate online and show the front desk that it's the current rate for the room, but they still refuse to honor it because it's late, you're visibly exhausted, and a senior citizen... and they know you're at their mercy.
+That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this...I believe that every company should strive to provide the best experience for its customers, both in terms of the products they provide and the way they treat people. Companies in the hospitality industry bear a special responsibility for this as they look after us while we are away from home, tired from traveling, and in places we may not know well. The last thing we need is to be intentionally taken advantage of by the very place we sought shelter, but this unfortunately seems to be the modus operandi of this particular Residence Inn.My beef with this Residence Inn - owned by Island Hospitality in West Palm Beach, Florida - is that they do not care to honor the rates they advertise on their own website. Imagine the terrible experience of needing a hotel immediately, finding a good property and price online, and showing up with all your luggage, only to be told that the rate is actually 65% higher.Now imagine that you pull up that very rate online and show the front desk that it's the current rate for the room, but they still refuse to honor it because it's late, you're visibly exhausted, and a senior citizen... and they know you're at their mercy.That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this Residence Inn looked like the best choice with their $92/night price.Upon arrival at the hotel, the front desk refused that rate and told us it was not available. So my father pulled it up on his phone and showed it to them - the currently advertised rate for the room we wanted - but they said there was nothing they could do because it wasn't showing up on their end. There was nowhere else to go and my father could barely keep his eyes open, so we ended up paying the $150/night instead.Will this happen to you? It seems like pretty routine behavior for them, but who knows? Maybe it will, maybe it won't, but I would want better than a 50% chance of the rate I find being honored.The next morning my father went downstairs and spoke with their General Manager, Michael Manners of Island Hospitality, who was unwilling to offer any concessions or do anything whatsoever to mitigate the issue.It's very disappointing to see any business - let alone a hotel in Marriott's brand portfolio - treat guests this way.For your own sake, please do yourself or the people you are booking for the favor of looking elsewhere. There is a Holiday Inn Express about 1 minute from here that's far nicer and about the same price, or just download the HotelTonight smartphone app and find distressed inventory with "Resident Inn rates" at significantly nicer hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r367546369-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>367546369</t>
+  </si>
+  <si>
+    <t>Nice hotel. In the middle of renovations.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night and enjoyed the property. The hotel rooms do show some wear, but they are still good rooms - and as I type - the hotel is undergoing a full renovation. The grounds are immaculate. The breakfast was one of the best I've seen at a property in this hotel class. Cookies and flavored water can be found in the lobby. The pool looked great, but we didn't have the time to take advantage of it. Our king suite was large enough for us, but could accommodate a family of four or four adults. The kitchen, table, etc are very convenient. We also found the staff very friendly! MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night and enjoyed the property. The hotel rooms do show some wear, but they are still good rooms - and as I type - the hotel is undergoing a full renovation. The grounds are immaculate. The breakfast was one of the best I've seen at a property in this hotel class. Cookies and flavored water can be found in the lobby. The pool looked great, but we didn't have the time to take advantage of it. Our king suite was large enough for us, but could accommodate a family of four or four adults. The kitchen, table, etc are very convenient. We also found the staff very friendly! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r365532241-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>365532241</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Nice and clean but a little TLC needed</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Last minute reservation.  Front desk was friendly.  It was pouring rain when we checked in.  No cover in front of the building where you check in.  The rooms are large with everything you need.  Beds comfortable.  Decor and furniture is dated and wore with use. The buildings are not connected so you get wet when it's raining somewhat when going from one building to the building with the cafe.  Breakfast was good.  We would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Last minute reservation.  Front desk was friendly.  It was pouring rain when we checked in.  No cover in front of the building where you check in.  The rooms are large with everything you need.  Beds comfortable.  Decor and furniture is dated and wore with use. The buildings are not connected so you get wet when it's raining somewhat when going from one building to the building with the cafe.  Breakfast was good.  We would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r341068053-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>341068053</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>In need of upgrades....</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch...Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch was another story.    In general, I know this property is intended for longer stays, but was surprised with the overall  condition of the property.  Unless improved - I would likely not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch...Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch was another story.    In general, I know this property is intended for longer stays, but was surprised with the overall  condition of the property.  Unless improved - I would likely not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r339056919-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>339056919</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed here a few nights before the New Year.  It was comfortable but a bit worn.  We were told by one of the staff that they are planning to update the rooms starting in January, so that should be good.   We had a 2 room suite and it was clean and comfortable.  We had a couple of reasons to call the maintenance team and they responded very promptly and were helpful.  The location was good for us, but there's nothing within walking distance and it's right on the highway service road so it seemed like we were always making a u-turn whenever we were coming or going but it wasn't too bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here a few nights before the New Year.  It was comfortable but a bit worn.  We were told by one of the staff that they are planning to update the rooms starting in January, so that should be good.   We had a 2 room suite and it was clean and comfortable.  We had a couple of reasons to call the maintenance team and they responded very promptly and were helpful.  The location was good for us, but there's nothing within walking distance and it's right on the highway service road so it seemed like we were always making a u-turn whenever we were coming or going but it wasn't too bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r339007984-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>339007984</t>
+  </si>
+  <si>
+    <t>best extended stay yet</t>
+  </si>
+  <si>
+    <t>I'm just ending a 3 month stay here at the Residence Inn Park Central Dallas, Tx. I couldn't of asked for a better place to call home for the last 3 months. The staff was great! From the front desk guys, Ellis, Nam, Derrick, to DJ in engineering, to the outstanding housekeeping staff, any concern or need I had was dealt with right away. The location was very convenient and centrally located between the burbs in the North, to downtown and Love field to the South. Breakfast in the mornings were pretty standard fare, eggs, sausage, waffles, biscuits and gravy, plus all your continental items such as cereal, pastries, fruits, yogurts, etc. Always delicious and filling. I only had a few chances to take part in the evening receptions a couple of times, (they are held on Mondays, Tuesdays &amp; Wednesdays) but for the most part a simple quick bite to eat with free beer was just fine. I'd highly recommend staying here if on an extended stay or just for a short visit for business or family. The full size fridge let me stock up and do a lot of my own cooking on the 2 burner stove.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I'm just ending a 3 month stay here at the Residence Inn Park Central Dallas, Tx. I couldn't of asked for a better place to call home for the last 3 months. The staff was great! From the front desk guys, Ellis, Nam, Derrick, to DJ in engineering, to the outstanding housekeeping staff, any concern or need I had was dealt with right away. The location was very convenient and centrally located between the burbs in the North, to downtown and Love field to the South. Breakfast in the mornings were pretty standard fare, eggs, sausage, waffles, biscuits and gravy, plus all your continental items such as cereal, pastries, fruits, yogurts, etc. Always delicious and filling. I only had a few chances to take part in the evening receptions a couple of times, (they are held on Mondays, Tuesdays &amp; Wednesdays) but for the most part a simple quick bite to eat with free beer was just fine. I'd highly recommend staying here if on an extended stay or just for a short visit for business or family. The full size fridge let me stock up and do a lot of my own cooking on the 2 burner stove.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r331675881-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>331675881</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Most Helpful, Pleasant Staff I have ever experienced in my travels</t>
+  </si>
+  <si>
+    <t>Stayed two nights and came across most of staff, numerous people working front desk, chief engineer, maintenance guy painting outside handrails, cleaning crew and all pleasant, said hello, asked about your stay, etc.  Actually cared and genuine.   Hotel very clean and maintenance was actually skimming/cleaning the outdoor pool in mid December,   Whoever is running this hotel has a model for how all hotels should be managed based on customer service.  Room layout was great.  Big suite with full kitchen and sofa and table in addition to bed.  Very clean.  Hotel lobby and hangout area where food served best kept secret.   Right off interstate and easy access.   Looked for faults and found none.  Oh yeah, one of the two printers needed a new ink cartridge.  Told them and it was replaced within 10 mins.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Stayed two nights and came across most of staff, numerous people working front desk, chief engineer, maintenance guy painting outside handrails, cleaning crew and all pleasant, said hello, asked about your stay, etc.  Actually cared and genuine.   Hotel very clean and maintenance was actually skimming/cleaning the outdoor pool in mid December,   Whoever is running this hotel has a model for how all hotels should be managed based on customer service.  Room layout was great.  Big suite with full kitchen and sofa and table in addition to bed.  Very clean.  Hotel lobby and hangout area where food served best kept secret.   Right off interstate and easy access.   Looked for faults and found none.  Oh yeah, one of the two printers needed a new ink cartridge.  Told them and it was replaced within 10 mins.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r328847879-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>328847879</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>The 11 hours I spent there were nice</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel at 9:30pm with a few other coworkers. Check in didn't take too long, we were all tired from our plane trips in so most of us went right up to our rooms.  My room was pretty big with a small kitchen, table and couch.  Bathroom was nice with the shower and toilet separated by a door.  I didn't hear a thing all nice. I woke up nice and early (had a video to watch) and went down at 630 where most of my coworkers were already eating. Breakfast was nice, I had the oatmeal, I noticed they also had waffles and scrambled eggs.  Nice sized room with tables to eat at.  We left at 7:30 am and that was the extent of my stay.I will also admit to taking the trail mix and bottled water that was left for another gold member. I guess I was assigned a room they thought would go to someone else. I was starving and I didn't want to go to Benihana at 10:30 (my time) to eat a dinner.  I enjoyed the mix up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel at 9:30pm with a few other coworkers. Check in didn't take too long, we were all tired from our plane trips in so most of us went right up to our rooms.  My room was pretty big with a small kitchen, table and couch.  Bathroom was nice with the shower and toilet separated by a door.  I didn't hear a thing all nice. I woke up nice and early (had a video to watch) and went down at 630 where most of my coworkers were already eating. Breakfast was nice, I had the oatmeal, I noticed they also had waffles and scrambled eggs.  Nice sized room with tables to eat at.  We left at 7:30 am and that was the extent of my stay.I will also admit to taking the trail mix and bottled water that was left for another gold member. I guess I was assigned a room they thought would go to someone else. I was starving and I didn't want to go to Benihana at 10:30 (my time) to eat a dinner.  I enjoyed the mix up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r327511612-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>327511612</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Dirty and dingy</t>
+  </si>
+  <si>
+    <t>I've stated at many Marriott properties and I've never encountered one that was in such poor condition.   There are multiple large stains on the carpeting.  The chair in the living room is ripped and stained.  The kitchen floor has a pin on it that was there at check-in. I purposely left it to see if housekeeping would clean it the next day and they did not. The room has a gas fireplace but it does not work and I've been promised multiple times that maintenance would come up and turn it on.  They don't have maintenance coverage in the evening so when I return to the hotel after working all day they tell me they'll send someone up tomorrow.   This is the second day that I've been told the same story.  This broom is in desperate need of renovation.  I would not recommend this hotel until it receives a make over.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>I've stated at many Marriott properties and I've never encountered one that was in such poor condition.   There are multiple large stains on the carpeting.  The chair in the living room is ripped and stained.  The kitchen floor has a pin on it that was there at check-in. I purposely left it to see if housekeeping would clean it the next day and they did not. The room has a gas fireplace but it does not work and I've been promised multiple times that maintenance would come up and turn it on.  They don't have maintenance coverage in the evening so when I return to the hotel after working all day they tell me they'll send someone up tomorrow.   This is the second day that I've been told the same story.  This broom is in desperate need of renovation.  I would not recommend this hotel until it receives a make over.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r320393010-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>320393010</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Amazing customer service!!</t>
+  </si>
+  <si>
+    <t>The customer serivce is exceptional!!  Everyone from the Management/Front Dest to the Housekeeping have been wonderful!  We've been here for almost 8 weeks now and have really appreciated their hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>The customer serivce is exceptional!!  Everyone from the Management/Front Dest to the Housekeeping have been wonderful!  We've been here for almost 8 weeks now and have really appreciated their hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r318811845-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318811845</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best qualities is misleading </t>
+  </si>
+  <si>
+    <t>When I checked in a very friendly front desk clerk was certain to mention the hotels practice of providing dinner on Monday, Tuesday's and Wednesday's from 6pm to 7:30pm. Wednesday is catered in by an external restaurant. The dinner on Monday seemed to always be late to be served (I was there for 2 Monday's) and when it finally was, the main dishes kept running out with not many people there. Refilling was slow. On Tuesdays they cook on the outdoor grill, and again, late to serve and kept running out of food causing you to wait. Also, when cooking on the grill, I strongly suggest using someone who actually knows how to cook. The chicken breast patties that were being cooked, were overlooked and very dry. And what they failed to mention is that while the dinners on Monday and Tuesday is complimentary, the dinner on Wednesday is not. I only found out after standing in line with the restaurant vendor, ordering food for my entire family and I, and being asked for money by the restaurant staff. And since I wasn't expecting this, I didn't even have my wallet with me, as I never thought I'd need it. It was so embarrassing to leave behind 5 meals, and walk away empty handed with my wife and kids as everyone looked on. Very unprofessional, very upsetting. MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>When I checked in a very friendly front desk clerk was certain to mention the hotels practice of providing dinner on Monday, Tuesday's and Wednesday's from 6pm to 7:30pm. Wednesday is catered in by an external restaurant. The dinner on Monday seemed to always be late to be served (I was there for 2 Monday's) and when it finally was, the main dishes kept running out with not many people there. Refilling was slow. On Tuesdays they cook on the outdoor grill, and again, late to serve and kept running out of food causing you to wait. Also, when cooking on the grill, I strongly suggest using someone who actually knows how to cook. The chicken breast patties that were being cooked, were overlooked and very dry. And what they failed to mention is that while the dinners on Monday and Tuesday is complimentary, the dinner on Wednesday is not. I only found out after standing in line with the restaurant vendor, ordering food for my entire family and I, and being asked for money by the restaurant staff. And since I wasn't expecting this, I didn't even have my wallet with me, as I never thought I'd need it. It was so embarrassing to leave behind 5 meals, and walk away empty handed with my wife and kids as everyone looked on. Very unprofessional, very upsetting. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r318191016-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318191016</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel, highly recommended and will use again when staying in Dallas</t>
+  </si>
+  <si>
+    <t>Clean rooms, quiet and well lit grounds, comfortable beds, delicious breakfast and helpful staff - this hotel has it all!Great for families or business travel conveniently located and going above and beyond to really elevate the Marriott brand to the next level of fabulousness. I can't say enough about this incredible hotel!Pool area is a smoking haven, and our daughter found that to be disruptive, stinky, and unexpected but that was the only disappointment of our stay.Will definitely come back to this hotel and go to a local gym or fitness center for swimming instead!MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Clean rooms, quiet and well lit grounds, comfortable beds, delicious breakfast and helpful staff - this hotel has it all!Great for families or business travel conveniently located and going above and beyond to really elevate the Marriott brand to the next level of fabulousness. I can't say enough about this incredible hotel!Pool area is a smoking haven, and our daughter found that to be disruptive, stinky, and unexpected but that was the only disappointment of our stay.Will definitely come back to this hotel and go to a local gym or fitness center for swimming instead!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r315112653-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>315112653</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>While in the middle of home renovations, my husband and I stayed two nights at this location.  I travel frequently for business and typically stay at Marriott properties.  This was by far the dirtiest Residence Inn and hotel I have ever stayed.  The first room we checked into had a heavy chemical smell so they provided a different room.  Both were equal with worn, soiled furniture and carpet.  The bed linens did not smell clean.  I noticed some sort of small insects crawling on the bathroom counter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>While in the middle of home renovations, my husband and I stayed two nights at this location.  I travel frequently for business and typically stay at Marriott properties.  This was by far the dirtiest Residence Inn and hotel I have ever stayed.  The first room we checked into had a heavy chemical smell so they provided a different room.  Both were equal with worn, soiled furniture and carpet.  The bed linens did not smell clean.  I noticed some sort of small insects crawling on the bathroom counter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r314566342-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>314566342</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>As the title states, hotel was okay. It is what I have come to expect from Residence Inn. Front staff was very friendly. Rooms were large and clean. Breakfast was fine. As others reviewers state - there was a strong cleaning chemical smell in the halls and by the elevators. I did not experience the smell in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>As the title states, hotel was okay. It is what I have come to expect from Residence Inn. Front staff was very friendly. Rooms were large and clean. Breakfast was fine. As others reviewers state - there was a strong cleaning chemical smell in the halls and by the elevators. I did not experience the smell in my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r309654208-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>309654208</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Yuck!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property for 3 nights - Sept 8-10.  The staff was nice, but hallways and rooms smelled musty, room looked worn and was dirty and ill equipped.  My car towels are cleaner than the bath towels in the room.  Shower had no water pressure.  Two of the three mornings I woke to what I thought was a chest cold - obviously a mold problem.  I've never had this happen before.There's a Westin a block away - stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property for 3 nights - Sept 8-10.  The staff was nice, but hallways and rooms smelled musty, room looked worn and was dirty and ill equipped.  My car towels are cleaner than the bath towels in the room.  Shower had no water pressure.  Two of the three mornings I woke to what I thought was a chest cold - obviously a mold problem.  I've never had this happen before.There's a Westin a block away - stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r298120609-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>298120609</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Great affordable stay!</t>
+  </si>
+  <si>
+    <t>You can count on Residence Inn, this one was clean, staff friendly, breakfast was standard Residence Inn fare. Enjoyed the pool, ended up visiting with some folks barbecuing. I will stay again when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>You can count on Residence Inn, this one was clean, staff friendly, breakfast was standard Residence Inn fare. Enjoyed the pool, ended up visiting with some folks barbecuing. I will stay again when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r295147634-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>295147634</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Not bad, but not good</t>
+  </si>
+  <si>
+    <t>I stayed here because the Residence Inn on the Expressway was full. So we stayed here. We stayed for 5 days in the Studio Suite with 2 bedrooms 2 bathrooms. When we checked in the staff was super friendly and helpful at the front desk. But when we were walking down the hallway we smelled a very strong cleaning smell which aggravated my allergies. Overall the room was clean, except for some stains on the carpet. The bed was comfortable. But in the bathroom the tiles were buckling. Then when we opened up one of the cabinets in the kitchen, there were coffee grounds EVERYWHERE! It smelled so strong and it was unbearable. On the last day, when I went to the front desk to complain, the staff didn't seem to care. All they said was, "Thank you for your input." What the heck???? Not even an "I'm sorry"? The rest of the staff was super friendly and the breakfast was super good!!!! The Texas shaped waffles were delicious! Probably won't stay again if there are other Marriott's in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here because the Residence Inn on the Expressway was full. So we stayed here. We stayed for 5 days in the Studio Suite with 2 bedrooms 2 bathrooms. When we checked in the staff was super friendly and helpful at the front desk. But when we were walking down the hallway we smelled a very strong cleaning smell which aggravated my allergies. Overall the room was clean, except for some stains on the carpet. The bed was comfortable. But in the bathroom the tiles were buckling. Then when we opened up one of the cabinets in the kitchen, there were coffee grounds EVERYWHERE! It smelled so strong and it was unbearable. On the last day, when I went to the front desk to complain, the staff didn't seem to care. All they said was, "Thank you for your input." What the heck???? Not even an "I'm sorry"? The rest of the staff was super friendly and the breakfast was super good!!!! The Texas shaped waffles were delicious! Probably won't stay again if there are other Marriott's in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r295029171-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>295029171</t>
+  </si>
+  <si>
+    <t>Great Stay &amp; Would Stay Again!!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed in a 2-bedroom suite. It was plenty of space for the four of us. We wanted the 2-bedroom suite so that we would have 2 bathrooms (3 women, 1 man -  we needed an extra bathroom, hahaha). My ONLY reason for not giving this Residence Inn a 5 (Excellent) is because it does need to be updated. Some of the furniture/carpet/appliances in the suite are a little worn &amp; outdated. In spite of this, they do a good job of keeping it clean and orderly. Once a renovation is scheduled &amp; completed, Residence Inn Dallas Park Central will be a 5 (Excellent) in my book.Breakfast was really tasty! The 2 ladies that work in the breakfast area (I believe their names were Erika &amp; Dovey) were FANTASTIC! They were friendly and they kept everything moving smoothly by keeping the food replenished. You NEVER had to ask for something to be refilled because they never allowed it to get empty. That was great, especially those mornings when we were in a hurry. Having efficient people in the kitchen makes this Residence Inn top-notch. If I'm ever in Dallas again, I'd definitely stay here again. It was a good location that was close to everything we wanted/needed to get to. Once we got the hang of the LBJ Freeway, it was smooth sailing.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed in a 2-bedroom suite. It was plenty of space for the four of us. We wanted the 2-bedroom suite so that we would have 2 bathrooms (3 women, 1 man -  we needed an extra bathroom, hahaha). My ONLY reason for not giving this Residence Inn a 5 (Excellent) is because it does need to be updated. Some of the furniture/carpet/appliances in the suite are a little worn &amp; outdated. In spite of this, they do a good job of keeping it clean and orderly. Once a renovation is scheduled &amp; completed, Residence Inn Dallas Park Central will be a 5 (Excellent) in my book.Breakfast was really tasty! The 2 ladies that work in the breakfast area (I believe their names were Erika &amp; Dovey) were FANTASTIC! They were friendly and they kept everything moving smoothly by keeping the food replenished. You NEVER had to ask for something to be refilled because they never allowed it to get empty. That was great, especially those mornings when we were in a hurry. Having efficient people in the kitchen makes this Residence Inn top-notch. If I'm ever in Dallas again, I'd definitely stay here again. It was a good location that was close to everything we wanted/needed to get to. Once we got the hang of the LBJ Freeway, it was smooth sailing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r280759368-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>280759368</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Busy Family-Orientated Hotel</t>
+  </si>
+  <si>
+    <t>This hotel has a good sized swimming pool, tennis courts and a basketball court (the tennis court is the BB court split in half). The front desk staff was incredibly friendly and they provided balls for the courts as well as extra towels for swimming. The distance from the parking lot to the rooms is quite a distance and the path is difficult to navigate with a lot of luggage...there are ramps but also a lot of turns. The rooms were very nice but we had a room facing the pool and there were loud teenage boys enjoying it at 8am on Sunday morning. It woke everyone up in our room. The breakfast is okay but the eggs were not very good at all. Everything else was decent though. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a good sized swimming pool, tennis courts and a basketball court (the tennis court is the BB court split in half). The front desk staff was incredibly friendly and they provided balls for the courts as well as extra towels for swimming. The distance from the parking lot to the rooms is quite a distance and the path is difficult to navigate with a lot of luggage...there are ramps but also a lot of turns. The rooms were very nice but we had a room facing the pool and there were loud teenage boys enjoying it at 8am on Sunday morning. It woke everyone up in our room. The breakfast is okay but the eggs were not very good at all. Everything else was decent though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r278879052-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>278879052</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while coming to town for a concert. We were pleased with the size of our room, and the bed was very comfortable. We also enjoyed the breakfast which was tasty and included many choices. We used the swimming pool, which was ok, but seemed like it could use a deep clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while coming to town for a concert. We were pleased with the size of our room, and the bed was very comfortable. We also enjoyed the breakfast which was tasty and included many choices. We used the swimming pool, which was ok, but seemed like it could use a deep clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r275371670-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>275371670</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>EXCELLENT ALL AROUND!</t>
+  </si>
+  <si>
+    <t>I had the need to be in Dallas for a few months and chose the Residence Inn Dallas Park Central. I can not say enough about how wonderful the staff was! Nam, the front desk manager helped me far beyond the call of duty on an important issue. Ellis at the front desk was also extremely helpful as was everyone of the hotel's staff. You come and go knowing that they are taking care of everything for you.The hotel is very comfortable and convenient. On Wednesday nights a barbecue truck arrives with wonderful food-I enjoyed that every Wednesday while I was there!The dining room staff is always cheerful and helpful too.I can't say enough about what a nice stay I had at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>I had the need to be in Dallas for a few months and chose the Residence Inn Dallas Park Central. I can not say enough about how wonderful the staff was! Nam, the front desk manager helped me far beyond the call of duty on an important issue. Ellis at the front desk was also extremely helpful as was everyone of the hotel's staff. You come and go knowing that they are taking care of everything for you.The hotel is very comfortable and convenient. On Wednesday nights a barbecue truck arrives with wonderful food-I enjoyed that every Wednesday while I was there!The dining room staff is always cheerful and helpful too.I can't say enough about what a nice stay I had at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r273190301-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>273190301</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>Typically I associate a more affordable price with compromised service or quality, but that is not the case with this hotel. The front desk staff provided warm, welcoming, customer service, accommodating all of our requests. The same staff members remembered us and worked with us all weekend. Our room was clean and comfortable, with everything in working order. Plus, In N Out burger is right across the highway!I was worried sick when I left my Clarisonic face brush behind after check out, but when I called Derrick at the front desk, he located it in the housekeeping lost and found, and arranged to mail it back to me! THANK YOU!MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Typically I associate a more affordable price with compromised service or quality, but that is not the case with this hotel. The front desk staff provided warm, welcoming, customer service, accommodating all of our requests. The same staff members remembered us and worked with us all weekend. Our room was clean and comfortable, with everything in working order. Plus, In N Out burger is right across the highway!I was worried sick when I left my Clarisonic face brush behind after check out, but when I called Derrick at the front desk, he located it in the housekeeping lost and found, and arranged to mail it back to me! THANK YOU!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r271178134-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>271178134</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Terrible! DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that,...We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that, oh well, here is the bill"!!!  Did not even want to eat the breakfast because of the poor state of the hotel. We will never stay at a Marriott again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that,...We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that, oh well, here is the bill"!!!  Did not even want to eat the breakfast because of the poor state of the hotel. We will never stay at a Marriott again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r268946183-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>268946183</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>The room was a suite and very comfortable.  The bed was comfortable, the bathroom a good size, a full kitchen with small table, a desk and a really cool lounging sofa.  The large TV was on a swivel so you could watch it from the bed, kitchen table or living room.  
+The complimentary breakfast was average.  Scrambled eggs, Canadian bacon (3 of 4 mornings, sausage the 4th) toast, potatoes, fruit, oatmeal, cereal, and exceptionally good muffins.  The evening social was pretty good.  first night was bar food, not bad.  Second night was hot dogs and hamburgers on the grill but it ran late and I was too tire to wait.  Both of these nights had sodas, Miller Lite on draft and wine.  3rd night was about 6 different kinds of petite deserts.  They were very good.  There was bottled Shock Top of various flavors on this day.
+There was a grill near the pool, didn't use either but they looked nice enough.  The public areas were nicely decorated and clean.  There is a small exercise area and computer area, which is behind a closed door so it's quieter than many hotels I've stayed in.  
+The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been...The room was a suite and very comfortable.  The bed was comfortable, the bathroom a good size, a full kitchen with small table, a desk and a really cool lounging sofa.  The large TV was on a swivel so you could watch it from the bed, kitchen table or living room.  The complimentary breakfast was average.  Scrambled eggs, Canadian bacon (3 of 4 mornings, sausage the 4th) toast, potatoes, fruit, oatmeal, cereal, and exceptionally good muffins.  The evening social was pretty good.  first night was bar food, not bad.  Second night was hot dogs and hamburgers on the grill but it ran late and I was too tire to wait.  Both of these nights had sodas, Miller Lite on draft and wine.  3rd night was about 6 different kinds of petite deserts.  They were very good.  There was bottled Shock Top of various flavors on this day.There was a grill near the pool, didn't use either but they looked nice enough.  The public areas were nicely decorated and clean.  There is a small exercise area and computer area, which is behind a closed door so it's quieter than many hotels I've stayed in.  The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been nice to have to go container to take breakfast on the run.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2015</t>
+  </si>
+  <si>
+    <t>The room was a suite and very comfortable.  The bed was comfortable, the bathroom a good size, a full kitchen with small table, a desk and a really cool lounging sofa.  The large TV was on a swivel so you could watch it from the bed, kitchen table or living room.  
+The complimentary breakfast was average.  Scrambled eggs, Canadian bacon (3 of 4 mornings, sausage the 4th) toast, potatoes, fruit, oatmeal, cereal, and exceptionally good muffins.  The evening social was pretty good.  first night was bar food, not bad.  Second night was hot dogs and hamburgers on the grill but it ran late and I was too tire to wait.  Both of these nights had sodas, Miller Lite on draft and wine.  3rd night was about 6 different kinds of petite deserts.  They were very good.  There was bottled Shock Top of various flavors on this day.
+There was a grill near the pool, didn't use either but they looked nice enough.  The public areas were nicely decorated and clean.  There is a small exercise area and computer area, which is behind a closed door so it's quieter than many hotels I've stayed in.  
+The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been...The room was a suite and very comfortable.  The bed was comfortable, the bathroom a good size, a full kitchen with small table, a desk and a really cool lounging sofa.  The large TV was on a swivel so you could watch it from the bed, kitchen table or living room.  The complimentary breakfast was average.  Scrambled eggs, Canadian bacon (3 of 4 mornings, sausage the 4th) toast, potatoes, fruit, oatmeal, cereal, and exceptionally good muffins.  The evening social was pretty good.  first night was bar food, not bad.  Second night was hot dogs and hamburgers on the grill but it ran late and I was too tire to wait.  Both of these nights had sodas, Miller Lite on draft and wine.  3rd night was about 6 different kinds of petite deserts.  They were very good.  There was bottled Shock Top of various flavors on this day.There was a grill near the pool, didn't use either but they looked nice enough.  The public areas were nicely decorated and clean.  There is a small exercise area and computer area, which is behind a closed door so it's quieter than many hotels I've stayed in.  The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been nice to have to go container to take breakfast on the run.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r259410135-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>259410135</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>stress free</t>
+  </si>
+  <si>
+    <t>was very busy with work but was not bothered by housekeeping when I did not want to be. everything was adjusted to suit my liking. great staff and fast service. in a great area concerning restaurants and barsMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>was very busy with work but was not bothered by housekeeping when I did not want to be. everything was adjusted to suit my liking. great staff and fast service. in a great area concerning restaurants and barsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r257815101-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>257815101</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Heavenly</t>
+  </si>
+  <si>
+    <t>I really did enjoy my stay.  The staff was exceptionally attentive to my needs and were so friendly.  I had a chance to speak with one of the managers, a Mr. Louie Scott and he was so pleasant and attentive to the needs of me and my family.  We are often in the area and definitely will be returning.  Thank you so much and we will definitely see you soon and recommend you all to our Family and FriendsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>I really did enjoy my stay.  The staff was exceptionally attentive to my needs and were so friendly.  I had a chance to speak with one of the managers, a Mr. Louie Scott and he was so pleasant and attentive to the needs of me and my family.  We are often in the area and definitely will be returning.  Thank you so much and we will definitely see you soon and recommend you all to our Family and FriendsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r257562540-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>257562540</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The rooms were nice and clean.  The bed was comfortable. The furniture was just a little worn.  Could use an update on furniture.  The breakfast was good.  The location was good.  Lots of restaurants close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were nice and clean.  The bed was comfortable. The furniture was just a little worn.  Could use an update on furniture.  The breakfast was good.  The location was good.  Lots of restaurants close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246209040-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>246209040</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Below average experience</t>
+  </si>
+  <si>
+    <t>We stay at Marriott Courtyards, Residence Inns all the time, but this one was below average. The checkin took too long, we had to wait for 20 minutes+ for the receptionist to get a duplicate key (she was missing from the counter), slight dingy smell in hallways and the cleaning ladies started taking away the breakfast, without announcement at 955. Small issues, but irritating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Louie S, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>We stay at Marriott Courtyards, Residence Inns all the time, but this one was below average. The checkin took too long, we had to wait for 20 minutes+ for the receptionist to get a duplicate key (she was missing from the counter), slight dingy smell in hallways and the cleaning ladies started taking away the breakfast, without announcement at 955. Small issues, but irritating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246204833-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>246204833</t>
+  </si>
+  <si>
+    <t>Good customer service</t>
+  </si>
+  <si>
+    <t>this hotel is in a strange location but the proximity to restaurants and the freeway is good.the service is excellent. The rooms are very nice. The breakfast was good.  I will definitely stay again. The hotel is a little outdated but it is ver clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>this hotel is in a strange location but the proximity to restaurants and the freeway is good.the service is excellent. The rooms are very nice. The breakfast was good.  I will definitely stay again. The hotel is a little outdated but it is ver clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246052964-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>246052964</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Dirty hotel, non working keys,  bad experience.</t>
+  </si>
+  <si>
+    <t>We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money...We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money back, insinuating that you're lying about the poor experience when you try to get a refund. Groupon gave me only half of my money and in the form of Groupon store credit. If you're traveling to Dallas, stay at Hilton Homewood Suites. I should have just done that instead of trying to save $30. I'm easy to please,  but this whole thing left a bad taste in my mouth.MoreShow less</t>
+  </si>
+  <si>
+    <t>We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money...We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money back, insinuating that you're lying about the poor experience when you try to get a refund. Groupon gave me only half of my money and in the form of Groupon store credit. If you're traveling to Dallas, stay at Hilton Homewood Suites. I should have just done that instead of trying to save $30. I'm easy to please,  but this whole thing left a bad taste in my mouth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234594542-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234594542</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>previous write ups are correct</t>
+  </si>
+  <si>
+    <t>Stayed there a couple of nights this week, staff was friendly.  I've stayed there previously due to location and price.  There were two issues that stood out.  One was that my keys would not work, I went back to get the keys rekeyed, the keys still wouldn't work.  What the hotel did really surprised me.  They had the engineer let me in to the room instead of either fixing the keys or moving my room.  Because of that, I became a prisoner of the room.  Without key access, I couldn't get back in the room at any time.  Also, no ironing board or iron which was really surprising.  There is certainly a smell to the place, which others have pointed out, and breakfast wasn't fully supplied.  Also please know that outside of an In N Out and a Subway, good luck finding food in the neighborhoodMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Stayed there a couple of nights this week, staff was friendly.  I've stayed there previously due to location and price.  There were two issues that stood out.  One was that my keys would not work, I went back to get the keys rekeyed, the keys still wouldn't work.  What the hotel did really surprised me.  They had the engineer let me in to the room instead of either fixing the keys or moving my room.  Because of that, I became a prisoner of the room.  Without key access, I couldn't get back in the room at any time.  Also, no ironing board or iron which was really surprising.  There is certainly a smell to the place, which others have pointed out, and breakfast wasn't fully supplied.  Also please know that outside of an In N Out and a Subway, good luck finding food in the neighborhoodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234213761-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234213761</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Needs Attention</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel each October for 11 of the last 12 years. We have had a pleasant experience each year until last weekend. We found the hotel had deteriorated and was not kept clean. The furniture in our two bedroom suite was visibly worn. The woodwork was damaged in several areas. At least two of the glasses in the cupboard were dirty. The tub was discolored from use. The door handle for one of the bathrooms had some kind of residual residue on it. There were cob webs on one of the HVAC registers. The small lounge chair in the living room had cookie crumbs on it. The carpet was stained.  And, to top it off, we had to make multiple trips to the office for replacement keys since we could not get our keys to work consistently in any of the doors.  We enjoy staying here  but regrettably would not return until their situation improves.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel each October for 11 of the last 12 years. We have had a pleasant experience each year until last weekend. We found the hotel had deteriorated and was not kept clean. The furniture in our two bedroom suite was visibly worn. The woodwork was damaged in several areas. At least two of the glasses in the cupboard were dirty. The tub was discolored from use. The door handle for one of the bathrooms had some kind of residual residue on it. There were cob webs on one of the HVAC registers. The small lounge chair in the living room had cookie crumbs on it. The carpet was stained.  And, to top it off, we had to make multiple trips to the office for replacement keys since we could not get our keys to work consistently in any of the doors.  We enjoy staying here  but regrettably would not return until their situation improves.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234171872-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234171872</t>
+  </si>
+  <si>
+    <t>Time for a renovation/BIg Cleaning</t>
+  </si>
+  <si>
+    <t>This hotel is in need of a major renovation and thorough cleaning.  We have stayed here many times for the TX/OU weekend. We were very disappointed this time. It was very obvious that this place has not been cleaned in over a year.  Our room and hallway smelled moldy.  I always bring my Lysol.  Even after spraying the whole room, I could not get rid of the moldy smell.  The tub was very dirty.  The drain for the sink and tub was very slow, almost not draining at all.Its a great location, but they are So due for some cleaning and renovations.  Staff is nice, but not very accommodating.  VERY DISAPPOINTED IN THIS MARRIOTT facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in need of a major renovation and thorough cleaning.  We have stayed here many times for the TX/OU weekend. We were very disappointed this time. It was very obvious that this place has not been cleaned in over a year.  Our room and hallway smelled moldy.  I always bring my Lysol.  Even after spraying the whole room, I could not get rid of the moldy smell.  The tub was very dirty.  The drain for the sink and tub was very slow, almost not draining at all.Its a great location, but they are So due for some cleaning and renovations.  Staff is nice, but not very accommodating.  VERY DISAPPOINTED IN THIS MARRIOTT facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r233070020-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>233070020</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Not What I Expected</t>
+  </si>
+  <si>
+    <t>I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get...I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get to the next flight of stairs.  On the first night, our room had been given away even though we called for a late check-in.  We finally received a room only to find that our key opened a room that was already occupied.  Then suddenly a one bedroom opened up after that happened.  To make up for it, the staff offered a 2 bedroom on the next evening only to find out the next night that it had again been given away.  We left to go home to get another show animal for one night even though we had reserved the room (so anything left behind should have been left alone).  My daughter left a basket behind and it was gone when we returned.  We would have had more room and a nicer stay at a Holiday Inn with 2 queen beds in a single room.  I will stay at a Residence again, but never in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get...I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get to the next flight of stairs.  On the first night, our room had been given away even though we called for a late check-in.  We finally received a room only to find that our key opened a room that was already occupied.  Then suddenly a one bedroom opened up after that happened.  To make up for it, the staff offered a 2 bedroom on the next evening only to find out the next night that it had again been given away.  We left to go home to get another show animal for one night even though we had reserved the room (so anything left behind should have been left alone).  My daughter left a basket behind and it was gone when we returned.  We would have had more room and a nicer stay at a Holiday Inn with 2 queen beds in a single room.  I will stay at a Residence again, but never in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r232763819-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>232763819</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Getaway</t>
+  </si>
+  <si>
+    <t>It's a Nice Room, Kitchenette Full size Fridge,Queen Bed.. It has a Table for (2) with a Computer. Kinda dated looking but Overall Nice Room. The only Gripe I have is the Price. If your not a member with Marriot, join before staying here. $177/nt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r232063796-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>232063796</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Below expectations</t>
+  </si>
+  <si>
+    <t>First of all, the elevators were not working all weekend and it was a big inconvenience for all the hotel guests. It was a pain to lug our luggage up the stairways to the second floor and I couldn't have managed it by myself. The room itself was decent but in need of updating and the linens were not 3 star quality. There were no blankets or bed coverings at all except sheets and a lightweight coverlet. We will stay elsewhere next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r219858138-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>219858138</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Not Marriot's Best but Satisfactory</t>
+  </si>
+  <si>
+    <t>Overall this was not a bad hotel.  The breakfast was vary good and the outstanding wait staff kept it open even after the closing time due to large crowds still wanting to eat.  The location can't be beat for a weekend stay, very little traffic and a centralized location for convenient shopping and dining.  The front desk staff were very courteous and friendly.  The hotel had a well maintained swimming pool and an area to sit and bbq outside. The grounds were also well maintained.  The room had a large sized refrigerator, stove, dishwasher and eating and cooking utinsels.  However, the room  was small and the bed and sofa sleeper were quite uncomfortable.  The matresses were worn out and should have been chaged long ago.  I am thinking that since we did get a cut rate deal for the stay maybe we just were put in a cut rate room.  I would like to think that the regular priced rooms have better beds.  Other then the bed situation it is well worth staying at.  Just beware of the possible bed issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Overall this was not a bad hotel.  The breakfast was vary good and the outstanding wait staff kept it open even after the closing time due to large crowds still wanting to eat.  The location can't be beat for a weekend stay, very little traffic and a centralized location for convenient shopping and dining.  The front desk staff were very courteous and friendly.  The hotel had a well maintained swimming pool and an area to sit and bbq outside. The grounds were also well maintained.  The room had a large sized refrigerator, stove, dishwasher and eating and cooking utinsels.  However, the room  was small and the bed and sofa sleeper were quite uncomfortable.  The matresses were worn out and should have been chaged long ago.  I am thinking that since we did get a cut rate deal for the stay maybe we just were put in a cut rate room.  I would like to think that the regular priced rooms have better beds.  Other then the bed situation it is well worth staying at.  Just beware of the possible bed issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r218212653-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>218212653</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Dated and needs TLC</t>
+  </si>
+  <si>
+    <t>Let me first say the staff is fantastic!! They were very accommodating, professional, and nice. But the conditions of some rooms were disappointed. I stayed there twice in one week. The first time it was ok. The room was your typical residence inn but needed some upgrades. My toilet kept running water and the AC system could not be controlled. The second time I stayed there it was a nightmare of a room. As I walked in, the room smelled like mildew, the toilet was constantly running water, there was no hot water and I was next to the fwy side. I didn't want to move because it was so late and I was very tired. So my tip is don't stay in building A on the first floors. I heard some rooms were flooded with water and perhaps that's why there's that mildew smell. Also, try to stay in higher floors away from LBJ freeway. It can get noisy. The breakfast was good and their social hour was also nice. Oh and beware of car break ins, if you park in the back, your car can get broken into. Our Ryder truck got invaded and they stole the truck battery. Thank goodness we parked it facing out so that's why they didn't steal anything from inside the truck. MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me first say the staff is fantastic!! They were very accommodating, professional, and nice. But the conditions of some rooms were disappointed. I stayed there twice in one week. The first time it was ok. The room was your typical residence inn but needed some upgrades. My toilet kept running water and the AC system could not be controlled. The second time I stayed there it was a nightmare of a room. As I walked in, the room smelled like mildew, the toilet was constantly running water, there was no hot water and I was next to the fwy side. I didn't want to move because it was so late and I was very tired. So my tip is don't stay in building A on the first floors. I heard some rooms were flooded with water and perhaps that's why there's that mildew smell. Also, try to stay in higher floors away from LBJ freeway. It can get noisy. The breakfast was good and their social hour was also nice. Oh and beware of car break ins, if you park in the back, your car can get broken into. Our Ryder truck got invaded and they stole the truck battery. Thank goodness we parked it facing out so that's why they didn't steal anything from inside the truck. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r217670100-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>217670100</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Residence Bad</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of Residence Inns, always satisfied.  Not so at this location.  Upon checking in, the front desk staff while friendly had no idea how to give local travel directions.  The halls leading to your room are not well lite and the carpeting is old and outdated.  The room itself was just okay,, clean but outdated.  The cable TV consistently could not display such basic channels like the   Weather  Channel.  No free WiFi in the room!  The "gym" is very small.  The pool is reasonable.  Would not stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>DALRP, Front Office Manager at Residence Inn Dallas Park Central, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of Residence Inns, always satisfied.  Not so at this location.  Upon checking in, the front desk staff while friendly had no idea how to give local travel directions.  The halls leading to your room are not well lite and the carpeting is old and outdated.  The room itself was just okay,, clean but outdated.  The cable TV consistently could not display such basic channels like the   Weather  Channel.  No free WiFi in the room!  The "gym" is very small.  The pool is reasonable.  Would not stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r212265796-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212265796</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>At Par with Other Residence Inns - Very Comfortable</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at a number of Residence Inns and we really enjoy them. They always have breakfast, a full kitchen in your room, and they provide dinner a few days during the week. This one provided dinner every Monday through Thursday and the food was pretty good.The room itself was a one-bedroom suite with plenty of space and modern decor. It was exactly what we've come to expect from Marriott and we didn't notice any issues at all. The location was great for us as it was right next to 75 with a short drive to grocery, downtown, and north Dallas. The view wasn't great, but it didn't need to be. Also, the pool was outside and there were some leaves in it, but the hot tub was just fine. We had a great stay for a few days and felt at home the whole time. The staff was friendly and always available.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>DALRP, Front Office Manager at Residence Inn Dallas Park Central, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at a number of Residence Inns and we really enjoy them. They always have breakfast, a full kitchen in your room, and they provide dinner a few days during the week. This one provided dinner every Monday through Thursday and the food was pretty good.The room itself was a one-bedroom suite with plenty of space and modern decor. It was exactly what we've come to expect from Marriott and we didn't notice any issues at all. The location was great for us as it was right next to 75 with a short drive to grocery, downtown, and north Dallas. The view wasn't great, but it didn't need to be. Also, the pool was outside and there were some leaves in it, but the hot tub was just fine. We had a great stay for a few days and felt at home the whole time. The staff was friendly and always available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r212257095-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212257095</t>
+  </si>
+  <si>
+    <t>Very Good Residence Inn Standard Quality</t>
+  </si>
+  <si>
+    <t>I stay at Residence Inn often and this one happened to have $89 nightly rates for the weekend starting on Thursday.  Excellent Value!  As for the hotel itself - it is standard Residence Inn Quality which I rate as darn good quality since you have the options presented by a full kitchen with utensils and a full and ample breakfast buffet.  The sleep quality is good although I would like to see some King Size beds in the 1 bdrm suites.  The interior facing rooms can get a bit noisy since common areas are on the interior.  I have already stayed twice at this hotel withing the past 30 days and I will certainly do so again at those great rates of less than $100 per night.  Keep up the good quality Residence Inn!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stay at Residence Inn often and this one happened to have $89 nightly rates for the weekend starting on Thursday.  Excellent Value!  As for the hotel itself - it is standard Residence Inn Quality which I rate as darn good quality since you have the options presented by a full kitchen with utensils and a full and ample breakfast buffet.  The sleep quality is good although I would like to see some King Size beds in the 1 bdrm suites.  The interior facing rooms can get a bit noisy since common areas are on the interior.  I have already stayed twice at this hotel withing the past 30 days and I will certainly do so again at those great rates of less than $100 per night.  Keep up the good quality Residence Inn!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r205458529-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>205458529</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Average place (but good sleep quality)</t>
+  </si>
+  <si>
+    <t>The good news is that this place has a good sleep quality and totally unaffected by the chaos on 635.The place is dated. The room smelt smoky / dusty on first entrance. The tiles in the bathroom were loose. On first day the air conditioning in the gym would not work so a big blower fan was kept in the door to keep air circulating. Lobby is average.MoreShow less</t>
+  </si>
+  <si>
+    <t>DALRP, Director of Sales at Residence Inn Dallas Park Central, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>The good news is that this place has a good sleep quality and totally unaffected by the chaos on 635.The place is dated. The room smelt smoky / dusty on first entrance. The tiles in the bathroom were loose. On first day the air conditioning in the gym would not work so a big blower fan was kept in the door to keep air circulating. Lobby is average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r204037045-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>204037045</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Not up to par for a Marriott.</t>
+  </si>
+  <si>
+    <t>I have stayed at several Marriott properties and Residence Inns over the years and have always been impressed...until I stayed at this property. I was frankly, disappointed. 
+Likes: Price, extended-stay 2 bedroom 2 bathroom units with kitchens, friendly staff, sports court, pool, bbq area and an excellent breakfast. 
+Dislikes: cleanliness - the carpets in the hallways and common areas did not look like they were vacuumed once during the 6 days we were there, doors to the building were scuffed &amp; dirty, cement around trash cans stained and dirty, there was a bucket in hallway catching water from a ceiling pipe leak when we arrived - it was still there when we left. Our room had doorhandles broken, chips in the tubs that had not been repaired, noticeable carpet stains, torn upholstery. 
+If I hadn't known this place was a Marriott, I would have never guessed it was associated with that organization - it just didn't look it or feel it. I realize its an older property, but I've stayed at some older Marriott Properties before and they have always been well maintained...and spotless. This place was neither. Not what you expect from a Marriott. 
+Head scratcher: We called the front desk to get a folding suitcase stand (like every hotel I've ever been to provides) and the desk clerk politely explained that while she gets that request often, their location doesn't have them. Period. She didn't know why. 
+Again,...I have stayed at several Marriott properties and Residence Inns over the years and have always been impressed...until I stayed at this property. I was frankly, disappointed. Likes: Price, extended-stay 2 bedroom 2 bathroom units with kitchens, friendly staff, sports court, pool, bbq area and an excellent breakfast. Dislikes: cleanliness - the carpets in the hallways and common areas did not look like they were vacuumed once during the 6 days we were there, doors to the building were scuffed &amp; dirty, cement around trash cans stained and dirty, there was a bucket in hallway catching water from a ceiling pipe leak when we arrived - it was still there when we left. Our room had doorhandles broken, chips in the tubs that had not been repaired, noticeable carpet stains, torn upholstery. If I hadn't known this place was a Marriott, I would have never guessed it was associated with that organization - it just didn't look it or feel it. I realize its an older property, but I've stayed at some older Marriott Properties before and they have always been well maintained...and spotless. This place was neither. Not what you expect from a Marriott. Head scratcher: We called the front desk to get a folding suitcase stand (like every hotel I've ever been to provides) and the desk clerk politely explained that while she gets that request often, their location doesn't have them. Period. She didn't know why. Again, not what you expect from a Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>DALRP, Director of Sales at Residence Inn Dallas Park Central, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at several Marriott properties and Residence Inns over the years and have always been impressed...until I stayed at this property. I was frankly, disappointed. 
+Likes: Price, extended-stay 2 bedroom 2 bathroom units with kitchens, friendly staff, sports court, pool, bbq area and an excellent breakfast. 
+Dislikes: cleanliness - the carpets in the hallways and common areas did not look like they were vacuumed once during the 6 days we were there, doors to the building were scuffed &amp; dirty, cement around trash cans stained and dirty, there was a bucket in hallway catching water from a ceiling pipe leak when we arrived - it was still there when we left. Our room had doorhandles broken, chips in the tubs that had not been repaired, noticeable carpet stains, torn upholstery. 
+If I hadn't known this place was a Marriott, I would have never guessed it was associated with that organization - it just didn't look it or feel it. I realize its an older property, but I've stayed at some older Marriott Properties before and they have always been well maintained...and spotless. This place was neither. Not what you expect from a Marriott. 
+Head scratcher: We called the front desk to get a folding suitcase stand (like every hotel I've ever been to provides) and the desk clerk politely explained that while she gets that request often, their location doesn't have them. Period. She didn't know why. 
+Again,...I have stayed at several Marriott properties and Residence Inns over the years and have always been impressed...until I stayed at this property. I was frankly, disappointed. Likes: Price, extended-stay 2 bedroom 2 bathroom units with kitchens, friendly staff, sports court, pool, bbq area and an excellent breakfast. Dislikes: cleanliness - the carpets in the hallways and common areas did not look like they were vacuumed once during the 6 days we were there, doors to the building were scuffed &amp; dirty, cement around trash cans stained and dirty, there was a bucket in hallway catching water from a ceiling pipe leak when we arrived - it was still there when we left. Our room had doorhandles broken, chips in the tubs that had not been repaired, noticeable carpet stains, torn upholstery. If I hadn't known this place was a Marriott, I would have never guessed it was associated with that organization - it just didn't look it or feel it. I realize its an older property, but I've stayed at some older Marriott Properties before and they have always been well maintained...and spotless. This place was neither. Not what you expect from a Marriott. Head scratcher: We called the front desk to get a folding suitcase stand (like every hotel I've ever been to provides) and the desk clerk politely explained that while she gets that request often, their location doesn't have them. Period. She didn't know why. Again, not what you expect from a Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r203579961-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>203579961</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Very Cozy</t>
+  </si>
+  <si>
+    <t>My stay here was fantastic. Once I arrived the clerk was very courteous and helpful. The room was welcoming and spacious .They also brought me a bottle of champagne , I had a couples package. But for the most part it was a great STAY...MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay here was fantastic. Once I arrived the clerk was very courteous and helpful. The room was welcoming and spacious .They also brought me a bottle of champagne , I had a couples package. But for the most part it was a great STAY...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r202917274-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202917274</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Awesome groupon deal!</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend got the studio room with the kitchen as part of the groupon deal. It was a great stay, very nice rooms, very clean. We had a great time and the room was very spacious for us too. Also our room had a large LG flat screen which was a plus. Basically a steal for the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend got the studio room with the kitchen as part of the groupon deal. It was a great stay, very nice rooms, very clean. We had a great time and the room was very spacious for us too. Also our room had a large LG flat screen which was a plus. Basically a steal for the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r196219929-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>196219929</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Very accommodating!</t>
+  </si>
+  <si>
+    <t>I booked lots of rooms here for a group in town for the NCA cheerleading nationals. Whitney Rishel, the Sales Manager made it super easy to get the group settled with reservations. I didn't catch his name, but the gentleman at the desk at night was very nice &amp; helpful. I really though the property was nice and did not feel that it was dated at all. Cookout and pool area was great. Wouldn't hesitate to stay again! Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I booked lots of rooms here for a group in town for the NCA cheerleading nationals. Whitney Rishel, the Sales Manager made it super easy to get the group settled with reservations. I didn't catch his name, but the gentleman at the desk at night was very nice &amp; helpful. I really though the property was nice and did not feel that it was dated at all. Cookout and pool area was great. Wouldn't hesitate to stay again! Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r196005967-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>196005967</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>It was a very nice stay</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I stayed they weekend here. We reviewed the hotel on their website. It was what they said. The room was very nice. We stayed in the studio. It could use some slight maintenance attention but otherwise the room was clean, colorful, and beautiful. The bed was comfortable but I would recommend bringing your own pillows. Their pillows are the size of couch decor pillows. The staff was very pleasant. The.front desk folks were nice but seemed scattered. I'm not sure if their was some kind of computer issues or what but they were distracted. The continental breakfast was large and tasted really good. We would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I stayed they weekend here. We reviewed the hotel on their website. It was what they said. The room was very nice. We stayed in the studio. It could use some slight maintenance attention but otherwise the room was clean, colorful, and beautiful. The bed was comfortable but I would recommend bringing your own pillows. Their pillows are the size of couch decor pillows. The staff was very pleasant. The.front desk folks were nice but seemed scattered. I'm not sure if their was some kind of computer issues or what but they were distracted. The continental breakfast was large and tasted really good. We would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r195784484-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>195784484</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Inadequate management</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business reason and close location to Medical City. We arrived late Friday and my class was going to be all day Saturday and Sunday. On Friday night we had a huge party going on somewhere over our heads with laud screaming drunken people slamming the door at so on. Called Mng on duty, she asked us if we know where the party is because she can't leave her desk ( only 1 person for whole night!) no security. The part was going on till  we called again about 2 pm. No apologies and if we wouldn't ask about it nobody was going to say anything. Also I booked a nights with special deal for gas card. I had to ask every day several times to remind them about and there always was an excuse ( manager is not here ........) so finally on our check out we were given cash ( probably from the register). This is our second time to stay in Residence Inn hotels and the last one. They allowed people party without respect that somebody may be there to get a I get sleep for business next day. Would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business reason and close location to Medical City. We arrived late Friday and my class was going to be all day Saturday and Sunday. On Friday night we had a huge party going on somewhere over our heads with laud screaming drunken people slamming the door at so on. Called Mng on duty, she asked us if we know where the party is because she can't leave her desk ( only 1 person for whole night!) no security. The part was going on till  we called again about 2 pm. No apologies and if we wouldn't ask about it nobody was going to say anything. Also I booked a nights with special deal for gas card. I had to ask every day several times to remind them about and there always was an excuse ( manager is not here ........) so finally on our check out we were given cash ( probably from the register). This is our second time to stay in Residence Inn hotels and the last one. They allowed people party without respect that somebody may be there to get a I get sleep for business next day. Would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r190036921-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>190036921</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Run down in many aspects</t>
+  </si>
+  <si>
+    <t>The room seemed dingy and run down-- stains on the carpet, scratched/cracked/worn out chairs, deadbolt inoperable. Also, the outside door to the building was unlocked when I arrived at 1am, even though there was a sign indicating key card access was required. Overall, the hotel felt run down and I had safety concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>DALRP, General Manager at Residence Inn Dallas Park Central, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>The room seemed dingy and run down-- stains on the carpet, scratched/cracked/worn out chairs, deadbolt inoperable. Also, the outside door to the building was unlocked when I arrived at 1am, even though there was a sign indicating key card access was required. Overall, the hotel felt run down and I had safety concerns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r189814728-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>189814728</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Awesome staff!</t>
+  </si>
+  <si>
+    <t>There was a mixup with my reservation and the evening desk clerk at first said there were no 2 bedroom suites available, when my reservation was for 3 of them. I explained that I really needed them as I was there with a group of 12 which included 9 special needs ladies. The clerk worked hard to find us rooms and apologized profusely that they couldn't all be in the same building. It's not a big place, so that wasn't a problem. The next thing that happened is the elevator in the 2nd building didn't work, which was a major issue for some of the ladies assigned to the third floor. Again the clerk worked hard to find another room, but there weren't any, so she gave us two one-bedroom suites for the same price as we would have paid for the other. There were issues with some keys as well, and the poor girl was running all over trying to accommodate us. I don't know her name, but she deserves a raise!The place is showing some signs of wear, but the price is extremly reasonable for the size of suites, and the breakfast is fantastic. Everyone we met from managers to cleaning staff to food service people friendly and courteous and treated our ladies like honored guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>There was a mixup with my reservation and the evening desk clerk at first said there were no 2 bedroom suites available, when my reservation was for 3 of them. I explained that I really needed them as I was there with a group of 12 which included 9 special needs ladies. The clerk worked hard to find us rooms and apologized profusely that they couldn't all be in the same building. It's not a big place, so that wasn't a problem. The next thing that happened is the elevator in the 2nd building didn't work, which was a major issue for some of the ladies assigned to the third floor. Again the clerk worked hard to find another room, but there weren't any, so she gave us two one-bedroom suites for the same price as we would have paid for the other. There were issues with some keys as well, and the poor girl was running all over trying to accommodate us. I don't know her name, but she deserves a raise!The place is showing some signs of wear, but the price is extremly reasonable for the size of suites, and the breakfast is fantastic. Everyone we met from managers to cleaning staff to food service people friendly and courteous and treated our ladies like honored guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r179807353-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>179807353</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>MY STAY</t>
+  </si>
+  <si>
+    <t>The hotel was so nice...I wanted to stay another night. The room was great! It was like being home away from home with a refrig. and microwave and very nice kitchen area. The room was nice and large w/plenty of room to lounge and watch TV on the couch or chair. The bedroom was nice to w/ a queen sized bed that was really comfortable.The brunch, which was free, the next morning was really good. The food was hot and plentiful w/plenty of choices. It was relaxing enjoying breakfast and a nice cup of coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>DALRP, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was so nice...I wanted to stay another night. The room was great! It was like being home away from home with a refrig. and microwave and very nice kitchen area. The room was nice and large w/plenty of room to lounge and watch TV on the couch or chair. The bedroom was nice to w/ a queen sized bed that was really comfortable.The brunch, which was free, the next morning was really good. The food was hot and plentiful w/plenty of choices. It was relaxing enjoying breakfast and a nice cup of coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r167420503-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>167420503</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Not what I expect from a Residence Inn</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels...We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels and I needed two more towels for my daughters.  When I called the Front Desk I was told they were out of towels and I would have to wait until the morning for additional towels!  The breakfast was good, but due to the amount of people staying in the hotel the breakfast room was jammed with people.  We ended up only getting breakfast at the hotel one morning due to the long wait for food.  The pool area was nice, but the hot tub was not working during our stay.  Several guests mentioned it to the Front Desk, but it was never repaired. My main problem with this property is the safety concern.  The room key is used to get you around the hotel and the doors were locked between the building and the Front Desk area and by the pool doors.  However, the doors were NEVER locked by the back entrance.  We were getting things from our car well after midnight and the back entrance was still unlocked and we did not have to swipe our card to get inside.  I was concerned with this since the elevator was right by the back door and our room was on the 2nd floor close to the elevator.  I don't think I would ever recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels...We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels and I needed two more towels for my daughters.  When I called the Front Desk I was told they were out of towels and I would have to wait until the morning for additional towels!  The breakfast was good, but due to the amount of people staying in the hotel the breakfast room was jammed with people.  We ended up only getting breakfast at the hotel one morning due to the long wait for food.  The pool area was nice, but the hot tub was not working during our stay.  Several guests mentioned it to the Front Desk, but it was never repaired. My main problem with this property is the safety concern.  The room key is used to get you around the hotel and the doors were locked between the building and the Front Desk area and by the pool doors.  However, the doors were NEVER locked by the back entrance.  We were getting things from our car well after midnight and the back entrance was still unlocked and we did not have to swipe our card to get inside.  I was concerned with this since the elevator was right by the back door and our room was on the 2nd floor close to the elevator.  I don't think I would ever recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r166444143-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166444143</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>A bit of a let down by Marriott.</t>
+  </si>
+  <si>
+    <t>First off let me say the staff all of them were very friendly and helpful when they could be. We were here for a Volleyball Tournament with ten other families. 
+I have never had so much trouble with key cards before. They never worked on the first try and after several tries exchanged them again. Everyone had difficulties this led to everyone opening the door for everyone else which defeats having a secure door locking system. 
+Our room was a two bedroom suite with kitchen. It was functional and did have some recent upgrades.Rooms do not include a full cable package (I like CNN and it was not included). The counter top was granite and fridge full size and the mattress was a newer memory foam type mattress. Comfy as long as you like soft. 
+The bathrooms and cupboards are showing some wear. The cleaning staff did forget to leave towels our last day and teammates rooms were not cleaned for some reason. 
+Other team mates reported a moldy musty smell. It was reported to the hotel and staff said they would fix it. Not sure what was done. Smell was somewhat resolved. 
+Food is served in the morning and the variety is good. The eggs are not real or are some artificial egg like substance. 
+The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and...First off let me say the staff all of them were very friendly and helpful when they could be. We were here for a Volleyball Tournament with ten other families. I have never had so much trouble with key cards before. They never worked on the first try and after several tries exchanged them again. Everyone had difficulties this led to everyone opening the door for everyone else which defeats having a secure door locking system. Our room was a two bedroom suite with kitchen. It was functional and did have some recent upgrades.Rooms do not include a full cable package (I like CNN and it was not included). The counter top was granite and fridge full size and the mattress was a newer memory foam type mattress. Comfy as long as you like soft. The bathrooms and cupboards are showing some wear. The cleaning staff did forget to leave towels our last day and teammates rooms were not cleaned for some reason. Other team mates reported a moldy musty smell. It was reported to the hotel and staff said they would fix it. Not sure what was done. Smell was somewhat resolved. Food is served in the morning and the variety is good. The eggs are not real or are some artificial egg like substance. The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and therefore the gate was locked by a bike lock leaving only one gate operational. On the door I was glad to see a TripAdvisor Recommendation sign for 2011 I think. After staying I was surprised that It was awarded.  I guess in a pinch I would stay here again but I would really try hard not to. Sorry Residence Inn.Again the staff was really nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off let me say the staff all of them were very friendly and helpful when they could be. We were here for a Volleyball Tournament with ten other families. 
+I have never had so much trouble with key cards before. They never worked on the first try and after several tries exchanged them again. Everyone had difficulties this led to everyone opening the door for everyone else which defeats having a secure door locking system. 
+Our room was a two bedroom suite with kitchen. It was functional and did have some recent upgrades.Rooms do not include a full cable package (I like CNN and it was not included). The counter top was granite and fridge full size and the mattress was a newer memory foam type mattress. Comfy as long as you like soft. 
+The bathrooms and cupboards are showing some wear. The cleaning staff did forget to leave towels our last day and teammates rooms were not cleaned for some reason. 
+Other team mates reported a moldy musty smell. It was reported to the hotel and staff said they would fix it. Not sure what was done. Smell was somewhat resolved. 
+Food is served in the morning and the variety is good. The eggs are not real or are some artificial egg like substance. 
+The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and...First off let me say the staff all of them were very friendly and helpful when they could be. We were here for a Volleyball Tournament with ten other families. I have never had so much trouble with key cards before. They never worked on the first try and after several tries exchanged them again. Everyone had difficulties this led to everyone opening the door for everyone else which defeats having a secure door locking system. Our room was a two bedroom suite with kitchen. It was functional and did have some recent upgrades.Rooms do not include a full cable package (I like CNN and it was not included). The counter top was granite and fridge full size and the mattress was a newer memory foam type mattress. Comfy as long as you like soft. The bathrooms and cupboards are showing some wear. The cleaning staff did forget to leave towels our last day and teammates rooms were not cleaned for some reason. Other team mates reported a moldy musty smell. It was reported to the hotel and staff said they would fix it. Not sure what was done. Smell was somewhat resolved. Food is served in the morning and the variety is good. The eggs are not real or are some artificial egg like substance. The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and therefore the gate was locked by a bike lock leaving only one gate operational. On the door I was glad to see a TripAdvisor Recommendation sign for 2011 I think. After staying I was surprised that It was awarded.  I guess in a pinch I would stay here again but I would really try hard not to. Sorry Residence Inn.Again the staff was really nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r165441357-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>165441357</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Wonderful weekend stay</t>
+  </si>
+  <si>
+    <t>Our studio queen suite was just the ticket for a weekend tourist stay in Dallas. The cheerful staff welcomed us with a bottle of decent Chardonnay (part of our Living Social deal), and we loved our cool, clean room on sight. We had a bedroom, bathroom with separate sink area, living area with sofa and easy chair, and a kitchen with full-size refrigerator, microwave, and stove, plus some basic dishes and utensils. The hot full breakfast was wonderful, and included waffles with whipped cream and fruit topping, plus cooked oatmeal with walnuts and raisins available. The only downside to our visit was the highway construction outside, which made finding the place a bit difficult for out-of-towners with a slightly out-of-date GPS system. Our room was near the back of the property, though, and we didn't have any highway noise. The property also has a protected central courtyard area with covered outdoor seating, a pool, and a small court for pickleball!We didn't hear any noise, but we were not on poolside.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our studio queen suite was just the ticket for a weekend tourist stay in Dallas. The cheerful staff welcomed us with a bottle of decent Chardonnay (part of our Living Social deal), and we loved our cool, clean room on sight. We had a bedroom, bathroom with separate sink area, living area with sofa and easy chair, and a kitchen with full-size refrigerator, microwave, and stove, plus some basic dishes and utensils. The hot full breakfast was wonderful, and included waffles with whipped cream and fruit topping, plus cooked oatmeal with walnuts and raisins available. The only downside to our visit was the highway construction outside, which made finding the place a bit difficult for out-of-towners with a slightly out-of-date GPS system. Our room was near the back of the property, though, and we didn't have any highway noise. The property also has a protected central courtyard area with covered outdoor seating, a pool, and a small court for pickleball!We didn't hear any noise, but we were not on poolside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r155124348-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155124348</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>My 2nd home in Dallas</t>
+  </si>
+  <si>
+    <t>I stayed here three separate times last year for a total of around 75 days. (Over 300 nights in Residence Inns in the last 2 years). Great hotel and helpful friendly staff, especially the Brandi at the front desk. Pros: The rooms are nice and clean, great location right off of the freeway. The dinners are included and are usually decent meals.Cons: Fitness center is tiny and lacking equipment. This Residence Inn only serves dinner 3 times a week, not 4 like every other RI. Not always the best sleep due to noisy neighbors, people using the pool after hours, and early morning maintenance. Over all a good hotel and I'm sure I'll be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed here three separate times last year for a total of around 75 days. (Over 300 nights in Residence Inns in the last 2 years). Great hotel and helpful friendly staff, especially the Brandi at the front desk. Pros: The rooms are nice and clean, great location right off of the freeway. The dinners are included and are usually decent meals.Cons: Fitness center is tiny and lacking equipment. This Residence Inn only serves dinner 3 times a week, not 4 like every other RI. Not always the best sleep due to noisy neighbors, people using the pool after hours, and early morning maintenance. Over all a good hotel and I'm sure I'll be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r154980417-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154980417</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Stolen electronic and kids announcing they urinated in the hot tub while in it.</t>
+  </si>
+  <si>
+    <t>The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and...The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and they never found it. So that is that.I will be contacting the police and doing a report. Then while my husband was sitting in the hot tub 3 children hop in w him. They begin telling him how they urinated in the hot tub three times. How disgusting is that. I reported it to the front. He acted like he could care less. Then i check my credit card bill and see 2 changes for 250. They said thats the hold they put on all rooms for if you smoke cigarettes in the room. Um, i dont smoke and i dont think tying up 500$ on my credit card is right. I am not about to pay 500$ for a three night stay somewhere thank you. All i know is that the charges better be off my card, my tablet going missing will result in charges being filed against the cleaning lady, and how disgusting is it that anyone would think its appropriate to allow children to use the hot tub as their toilet and publicly announce it.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and...The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and they never found it. So that is that.I will be contacting the police and doing a report. Then while my husband was sitting in the hot tub 3 children hop in w him. They begin telling him how they urinated in the hot tub three times. How disgusting is that. I reported it to the front. He acted like he could care less. Then i check my credit card bill and see 2 changes for 250. They said thats the hold they put on all rooms for if you smoke cigarettes in the room. Um, i dont smoke and i dont think tying up 500$ on my credit card is right. I am not about to pay 500$ for a three night stay somewhere thank you. All i know is that the charges better be off my card, my tablet going missing will result in charges being filed against the cleaning lady, and how disgusting is it that anyone would think its appropriate to allow children to use the hot tub as their toilet and publicly announce it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r154526355-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154526355</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Return Visit - Handicapped Friendly</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed here.  We were here four nights on this visit; 21 days on our previous trip.  My wife is in a wheel chair and we have found this hotel to be a great place.  We book a one bedroom unit which allows us to have guests visit us and still have a private area. We find it close to grocery stores, bookstores, drug stores, hospitals.  Because of the current road construction you do want to know in advance how to arrive.  But speaking of road construction, it amazes me that after I arrived I never heard construction noise.The rooms are well equipped for an extended stay.  The only difference between our two stays was that this room had a tub with a transfer seat; the previous room had roll in shower.The bed was wonderful.  The two rooms gave us two TVs allowing my wife and I to watch different programs.  We like the breakfast; my wife especially enjoys the yogurt parfaits that randomly appear.  I enjoy the Texas shaped waffles which I load with large blueberries and whipped cream; you could opt for strawberries or chocolate chips     The staff was exceptionally friendly; we got to know many of them from our previous 21 day stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed here.  We were here four nights on this visit; 21 days on our previous trip.  My wife is in a wheel chair and we have found this hotel to be a great place.  We book a one bedroom unit which allows us to have guests visit us and still have a private area. We find it close to grocery stores, bookstores, drug stores, hospitals.  Because of the current road construction you do want to know in advance how to arrive.  But speaking of road construction, it amazes me that after I arrived I never heard construction noise.The rooms are well equipped for an extended stay.  The only difference between our two stays was that this room had a tub with a transfer seat; the previous room had roll in shower.The bed was wonderful.  The two rooms gave us two TVs allowing my wife and I to watch different programs.  We like the breakfast; my wife especially enjoys the yogurt parfaits that randomly appear.  I enjoy the Texas shaped waffles which I load with large blueberries and whipped cream; you could opt for strawberries or chocolate chips     The staff was exceptionally friendly; we got to know many of them from our previous 21 day stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r150372428-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150372428</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Great facility for the price</t>
+  </si>
+  <si>
+    <t>I stayed three nights at this hotel and was very pleased with it.  The hotel was clean, well-kept, and everything worked beautifully.  The breakfast was decent, with some hot foods and some cold foods.  Typical free breakfast fare at a hotel like this.  The breakfast room was nice and clean and actually had a very pleasant ambiance, with a lot of natural light.  Because of construction on 635, it is easier to go in and out of the hotel out the back entrance, but that was not a problem.  Actually, it was more peaceful going that way as the roads were usually not crowded.  A special comment should be made about the staff.  The manager, Kleber Alves, was terrific.  I had a billing issue and he went above and beyond to resolve it (it was not the hotel's fault, but my own issue) and he even made sure I knew how to contact him if I needed any additional help.  Truly exceptional service.  Also, Brandy at the front desk was super friendly and just fun to talk to.  Made for a nice check-in and overall experience.  Based on this experience, I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I stayed three nights at this hotel and was very pleased with it.  The hotel was clean, well-kept, and everything worked beautifully.  The breakfast was decent, with some hot foods and some cold foods.  Typical free breakfast fare at a hotel like this.  The breakfast room was nice and clean and actually had a very pleasant ambiance, with a lot of natural light.  Because of construction on 635, it is easier to go in and out of the hotel out the back entrance, but that was not a problem.  Actually, it was more peaceful going that way as the roads were usually not crowded.  A special comment should be made about the staff.  The manager, Kleber Alves, was terrific.  I had a billing issue and he went above and beyond to resolve it (it was not the hotel's fault, but my own issue) and he even made sure I knew how to contact him if I needed any additional help.  Truly exceptional service.  Also, Brandy at the front desk was super friendly and just fun to talk to.  Made for a nice check-in and overall experience.  Based on this experience, I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r149223758-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149223758</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Nice stay for NYE</t>
+  </si>
+  <si>
+    <t>Hotel was nice and not crowded.  I definately wasn't excpecting a full kitchen with dishes, which was a pleasant surprise.  The only bad thing is the road construction in front of the hotel, which is not the hotels fault.  Staff was friendly and helpful.  It's about 15 minutes from downtown, but real close to the freeways that will take you there.  The breakfast wasn't anything fancy, but pretty decent especially considering it's free.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r145731482-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>145731482</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My family of four stayed 2 nights in a 2 bedroom suite with a full kitchen (full size refirgerator, stove and oven). We had no complaints. The beds were comfortable. The rooms were clean. Breakfast had plenty of chocies, both hot and cold. Access to the hotel was a bit difficult due to road consturction. We would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r141268163-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>141268163</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Very nice long stay hotel</t>
+  </si>
+  <si>
+    <t>I was here over the weekend for a convention that was held at the nearby Westin hotel. I had a nice studio unit that came with a kitchen (no oven though so be aware of that). Check in was easy with friendly front desk staff. There is a marketplace around the corner from the front desk that has assorted frozen meals, snacks and drinks, and ice creme novelties, along with some toiletry items. The room has a microwave and burners, with a full size refridge. You can order grocery delivery or room service from a local meal delivery service. You get coffee, tea and popcorn in the hospitality packet. Breakfast is included with hot and cold items. Items are changed daily so you may find sausage one day with ham another. There is an outdoor pool, fitness center and computer room for printing boarding passes.Road construction is in force, but if you pass the property and take the next road up, go around to the road where the taxi drivers are waiting to get to the back of the property. I enjoyed my stay here. You will too.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>DALRP, Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2012</t>
+  </si>
+  <si>
+    <t>I was here over the weekend for a convention that was held at the nearby Westin hotel. I had a nice studio unit that came with a kitchen (no oven though so be aware of that). Check in was easy with friendly front desk staff. There is a marketplace around the corner from the front desk that has assorted frozen meals, snacks and drinks, and ice creme novelties, along with some toiletry items. The room has a microwave and burners, with a full size refridge. You can order grocery delivery or room service from a local meal delivery service. You get coffee, tea and popcorn in the hospitality packet. Breakfast is included with hot and cold items. Items are changed daily so you may find sausage one day with ham another. There is an outdoor pool, fitness center and computer room for printing boarding passes.Road construction is in force, but if you pass the property and take the next road up, go around to the road where the taxi drivers are waiting to get to the back of the property. I enjoyed my stay here. You will too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r137065853-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>137065853</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Extremely pleased</t>
+  </si>
+  <si>
+    <t>While I was having surgery/4-day hospital stay at Medical City, my family (mom, husband, daughter, sister and nieces, and nephew) had a wonderful time. Extremely clean rooms; friendly staff. Three meals daily at no extra charge; great swimming area with nice covered area &amp; BBQ pit. It was good to know that my family enjoyed themselves. Will definitely stay here again or recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>While I was having surgery/4-day hospital stay at Medical City, my family (mom, husband, daughter, sister and nieces, and nephew) had a wonderful time. Extremely clean rooms; friendly staff. Three meals daily at no extra charge; great swimming area with nice covered area &amp; BBQ pit. It was good to know that my family enjoyed themselves. Will definitely stay here again or recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r136037117-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>136037117</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>The property was in a perfect location for us, but the cleanliness of the rooms left a lot to be desired. The front desk staff was great, but they need to inspect the rooms better before the next guest checks in.MoreShow less</t>
+  </si>
+  <si>
+    <t>The property was in a perfect location for us, but the cleanliness of the rooms left a lot to be desired. The front desk staff was great, but they need to inspect the rooms better before the next guest checks in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r131920727-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131920727</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Happy with our stay here again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we stayed here 4 nights total and were very happy with our stay. The rooms were clean and nice. Service was great and grounds looked nice. The pool was also clean. The jets on the Jacuzzi didn't work though and the hot tub wasn't that hot also. Breakfast is ok. There is a lot of variety and my favorite was the waffle with fruit and whipped cream on top! We will definitely stay here again when in Dallas. Overall or was a great stay and we also got a weekend special rate for 2 of the nights so it was a great deal for our 2 bedroom suite. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r130907218-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130907218</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Great value for a 2 b/r suite, but poor location and sub-par staff</t>
+  </si>
+  <si>
+    <t>We booked a 2 bedroom suite for 2 nights over the Memorial Day Weekend, 2012.  I was thrilled to get a 2 bedroom suite for $107 per night (amazing), and the suite itself was nice (very comfortable beds).  I think the rates may be low because of the poor location along the 635 access road, and the tremendous road construction project surrounding the property.  The hotel can be a little tricky to get to, and if you miss the turn in, you have to go ALL the way around.
+I did find a substantial number of dead pillbugs on the tile around the fireplace when we checked in, and on the bathroom tile floors as well.  They were gone the next day, so apparently the maid finally noticed them when she was cleaning the room.
+We are Marriott Elite members and stay at Marriott hotels whenever possible when traveling.  In every hotel we have stayed at, there is always a binder in our room with information about the hotel, area attractions, restaurants, pool hours, laundry facilities, etc.  This hotel did not provide one in this room.  When I asked the front desk clerk about it, she looked at me as if I had two heads growing out of my neck.  So apparently, this hotel doesn't provide information binders in the rooms.  The look the front desk clerk gave me did not impress me. 
+The staff at the front desk also...We booked a 2 bedroom suite for 2 nights over the Memorial Day Weekend, 2012.  I was thrilled to get a 2 bedroom suite for $107 per night (amazing), and the suite itself was nice (very comfortable beds).  I think the rates may be low because of the poor location along the 635 access road, and the tremendous road construction project surrounding the property.  The hotel can be a little tricky to get to, and if you miss the turn in, you have to go ALL the way around.I did find a substantial number of dead pillbugs on the tile around the fireplace when we checked in, and on the bathroom tile floors as well.  They were gone the next day, so apparently the maid finally noticed them when she was cleaning the room.We are Marriott Elite members and stay at Marriott hotels whenever possible when traveling.  In every hotel we have stayed at, there is always a binder in our room with information about the hotel, area attractions, restaurants, pool hours, laundry facilities, etc.  This hotel did not provide one in this room.  When I asked the front desk clerk about it, she looked at me as if I had two heads growing out of my neck.  So apparently, this hotel doesn't provide information binders in the rooms.  The look the front desk clerk gave me did not impress me. The staff at the front desk also did not impress me when we asked about pool hours.  The first clerk we asked said the pool was open from 9 a.m. to 10 p.m.  When we went out to the pool that evening, the sign in the pool area clearly stated 8 a.m.  So, I sent my husband to ask again at the front desk, and that clerk told us 7 a.m.! The (tiny) pool was packed at that time and the spa was not working (disappointing), so we decided to bring our son back the next morning.  My husband took him out there at 8 a.m., and the pool area was padlocked shut! My husband went to the front desk and informed them that he had been told the pool opened at 7 a.m., and the girl behind the counter told him 9! Then, he told her that the sign at the pool said 8! One of the staff members actually accompanied my husband outside to read the sign. When they saw it said 8, they unlocked the gate for him.  Yippee. (insert sarcasm here).  There were no pool towels. When we asked at the front desk, they said they were out of pool towels, and gave my husband two BATHROOM RUGS to use.  Well, alrighty then.Breakfast was mediocre at best.  The fresh fruit selection consisted of one badly bruised apple in a bowl.  The hot food was typical cholesterol laden fare (fake scrambled eggs and sausage), and the oatmeal was watery and lukewarm at best.  We didn't even bother with the breakfast on our second morning, as it just wasn't appealing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>DALRP, Sales Manager at Residence Inn Dallas Park Central, responded to this reviewResponded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2012</t>
+  </si>
+  <si>
+    <t>We booked a 2 bedroom suite for 2 nights over the Memorial Day Weekend, 2012.  I was thrilled to get a 2 bedroom suite for $107 per night (amazing), and the suite itself was nice (very comfortable beds).  I think the rates may be low because of the poor location along the 635 access road, and the tremendous road construction project surrounding the property.  The hotel can be a little tricky to get to, and if you miss the turn in, you have to go ALL the way around.
+I did find a substantial number of dead pillbugs on the tile around the fireplace when we checked in, and on the bathroom tile floors as well.  They were gone the next day, so apparently the maid finally noticed them when she was cleaning the room.
+We are Marriott Elite members and stay at Marriott hotels whenever possible when traveling.  In every hotel we have stayed at, there is always a binder in our room with information about the hotel, area attractions, restaurants, pool hours, laundry facilities, etc.  This hotel did not provide one in this room.  When I asked the front desk clerk about it, she looked at me as if I had two heads growing out of my neck.  So apparently, this hotel doesn't provide information binders in the rooms.  The look the front desk clerk gave me did not impress me. 
+The staff at the front desk also...We booked a 2 bedroom suite for 2 nights over the Memorial Day Weekend, 2012.  I was thrilled to get a 2 bedroom suite for $107 per night (amazing), and the suite itself was nice (very comfortable beds).  I think the rates may be low because of the poor location along the 635 access road, and the tremendous road construction project surrounding the property.  The hotel can be a little tricky to get to, and if you miss the turn in, you have to go ALL the way around.I did find a substantial number of dead pillbugs on the tile around the fireplace when we checked in, and on the bathroom tile floors as well.  They were gone the next day, so apparently the maid finally noticed them when she was cleaning the room.We are Marriott Elite members and stay at Marriott hotels whenever possible when traveling.  In every hotel we have stayed at, there is always a binder in our room with information about the hotel, area attractions, restaurants, pool hours, laundry facilities, etc.  This hotel did not provide one in this room.  When I asked the front desk clerk about it, she looked at me as if I had two heads growing out of my neck.  So apparently, this hotel doesn't provide information binders in the rooms.  The look the front desk clerk gave me did not impress me. The staff at the front desk also did not impress me when we asked about pool hours.  The first clerk we asked said the pool was open from 9 a.m. to 10 p.m.  When we went out to the pool that evening, the sign in the pool area clearly stated 8 a.m.  So, I sent my husband to ask again at the front desk, and that clerk told us 7 a.m.! The (tiny) pool was packed at that time and the spa was not working (disappointing), so we decided to bring our son back the next morning.  My husband took him out there at 8 a.m., and the pool area was padlocked shut! My husband went to the front desk and informed them that he had been told the pool opened at 7 a.m., and the girl behind the counter told him 9! Then, he told her that the sign at the pool said 8! One of the staff members actually accompanied my husband outside to read the sign. When they saw it said 8, they unlocked the gate for him.  Yippee. (insert sarcasm here).  There were no pool towels. When we asked at the front desk, they said they were out of pool towels, and gave my husband two BATHROOM RUGS to use.  Well, alrighty then.Breakfast was mediocre at best.  The fresh fruit selection consisted of one badly bruised apple in a bowl.  The hot food was typical cholesterol laden fare (fake scrambled eggs and sausage), and the oatmeal was watery and lukewarm at best.  We didn't even bother with the breakfast on our second morning, as it just wasn't appealing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r130706321-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130706321</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Residence Inn.  The rooms were very nice, complete with full sized refrigerator, two burner cook top, and oven.  The decor was tastefully done.  My husband liked that it was more of a masculine feel.  The bed was not the most comfortable, unfortunately.  The service was very good. The desk clerk was efficient and friendly. The breakfast buffet was extensive with waffles, eggs, sausage, pastries, cereal, oatmeal with toppings, and fresh fruit.  We also enjoyed that it was convenient to a hiking trail.This is not the best hotel for the elderly, though, as there are multiple buildings and the parking is not convenient to each.  Our room was a bit of a hike for my elderly mother.  Also, there is major construction on LBJ Freeway, so the entrance is a bit difficult to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Residence Inn.  The rooms were very nice, complete with full sized refrigerator, two burner cook top, and oven.  The decor was tastefully done.  My husband liked that it was more of a masculine feel.  The bed was not the most comfortable, unfortunately.  The service was very good. The desk clerk was efficient and friendly. The breakfast buffet was extensive with waffles, eggs, sausage, pastries, cereal, oatmeal with toppings, and fresh fruit.  We also enjoyed that it was convenient to a hiking trail.This is not the best hotel for the elderly, though, as there are multiple buildings and the parking is not convenient to each.  Our room was a bit of a hike for my elderly mother.  Also, there is major construction on LBJ Freeway, so the entrance is a bit difficult to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r125034010-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125034010</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>Our room was clean, spacious one bedroom suite, plenty of kitchen utensils, clean and shiny. Wifi worked great. Breakfast was way above average for Residence Inns, delightful lady looking after things Very comfortable bed, slept well.. Our first trip to Dallas, no problems to locate it. Staff very polite and friendly. Great Value. Recommended</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r124739220-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>124739220</t>
+  </si>
+  <si>
+    <t>02/17/2012</t>
+  </si>
+  <si>
+    <t>OK but not the best of Residence Inns</t>
+  </si>
+  <si>
+    <t>I stayed here for 3-4 weeks last year.  The rooms were pretty small for a Residence Inn, considering that it wasn't the heart of a big city but suburban Dallas.  All the rooms are non-smoking, at least now.  But the rooms on the second floor obviously were smoking in the recent past, and they smelled like it.  I wanted to be on the second floor so I wouldn't have noise from people walking around above me, so the price I had to pay for it was a room that hadn't been adequately de-odorized.  I even bought a can of Febreze.  On the whole the staff were nice and helpful.  It got the job done for the time I stayed there but I don't have any desire to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for 3-4 weeks last year.  The rooms were pretty small for a Residence Inn, considering that it wasn't the heart of a big city but suburban Dallas.  All the rooms are non-smoking, at least now.  But the rooms on the second floor obviously were smoking in the recent past, and they smelled like it.  I wanted to be on the second floor so I wouldn't have noise from people walking around above me, so the price I had to pay for it was a room that hadn't been adequately de-odorized.  I even bought a can of Febreze.  On the whole the staff were nice and helpful.  It got the job done for the time I stayed there but I don't have any desire to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r122578971-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>122578971</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>A little tired</t>
+  </si>
+  <si>
+    <t>This property while centrally located could use some sprucing up.  A little dated and not up to the Marriott standards that you normally find.  OK breakfast in the morning, room a little dated and worn as is the rest of the property.  Not bad,  but not great.  Just stayed for the weekend.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r120146445-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>120146445</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Super Comfortable stay when on Business</t>
+  </si>
+  <si>
+    <t>Marriott Chain - the Residence Inn is the best you can ask for when you are in a city for work!They have all that a business traveller needs.Be it Wi-fi in the rooms, laundry, complimentary breakfast, shuttle services ,cheerful staff and 24 hr check-in and out. The location in Dallas is awesome just off the LBJ Freeway.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r119148095-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>119148095</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>Great for Families</t>
+  </si>
+  <si>
+    <t>Very positive experience.  Our party consisted of five adults and two teens.  We stayed in 2, two bedroom (queen beds) suites and both were clean and well maintained.  Enjoyed the morning breakfast and appreciated the staff that made sure things were well stocked and cleaned.  Check-in went smooth.  For families, this hotel is a great on the budget.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r118984446-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>118984446</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>We were in Dallas for the Cowboys game and stayed for 3 nghts. This is an older hotel but pretty well maintained. We worried a bit about the highway location plus on-going road contruction after reading the guest comments but to our pleasant surprise, it was quite easy to find with our GPS. The hotel is centrally located to where we wanted to go-Cowboys Stadium, Galleria Mall(upscaled mall) and Downdown dining. Breakfast has good selection and the staff were friendly. The area is safe and close to other business building.Area for Improvement: 1) The TV should be in HD -Breakfast dining area and the guest rooms as other Residence Inns.2) Wireless Connection could be faster3) Local Newspaper besides USA today3) Please add green tea and brown sugar to the hot beverage selectionMoreShow less</t>
+  </si>
+  <si>
+    <t>DALRP, Sales Manager at Residence Inn Dallas Park Central, responded to this reviewResponded October 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2011</t>
+  </si>
+  <si>
+    <t>We were in Dallas for the Cowboys game and stayed for 3 nghts. This is an older hotel but pretty well maintained. We worried a bit about the highway location plus on-going road contruction after reading the guest comments but to our pleasant surprise, it was quite easy to find with our GPS. The hotel is centrally located to where we wanted to go-Cowboys Stadium, Galleria Mall(upscaled mall) and Downdown dining. Breakfast has good selection and the staff were friendly. The area is safe and close to other business building.Area for Improvement: 1) The TV should be in HD -Breakfast dining area and the guest rooms as other Residence Inns.2) Wireless Connection could be faster3) Local Newspaper besides USA today3) Please add green tea and brown sugar to the hot beverage selectionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r116263829-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>116263829</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>We loved our stay at Residence Inn.</t>
+  </si>
+  <si>
+    <t>We were in Dallas for vacations and stayed in Residence Inn for a month.It was just like home away from home.We were in 2 BR suite with fully equipped functional kitchen.The suites were sparkling clean.Cleaners were very punctual and used to clean the whole suite daily.Morning breakfast was excellent.The sales manager was very friendly.We would always prefer it if we visit again.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r116089120-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>116089120</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations!</t>
+  </si>
+  <si>
+    <t>I stayed there 2 nights for professional class in closed by Medical City. Stayed in one of the suites very roomy and home like. Full kitchen was great even just for warming food and eating in the room late at night. Very clean, bed covers very comfortable, with memory foam bed. First night could not find thermostat so was very cold, but next day I found it behind the lamp !?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r115878503-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115878503</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Great hotel/bad location</t>
+  </si>
+  <si>
+    <t>The most notable part of this Residence Inn was the fact that it straddles a major highway and to get around town just to get to a limited selection of restaurants and shopping was a headache.  The service was just fine and the room was very accommodating.  We enjoyed the pool and decided that this was the best night to order pizza delivery (Pizza Hut), because just getting to the hotel was tricky enough and to go out would chew up an hour easy just in travel.  I would not return on a family trip but I would have no problem returning for business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r113318279-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>113318279</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Just what you would expect from a hotel of this range. Nothing exceptional, but nothing poor by any means. Would come again.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r104239403-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>104239403</t>
+  </si>
+  <si>
+    <t>04/16/2011</t>
+  </si>
+  <si>
+    <t>Very Clean, Good Location, Comfortable Rooms, Attentive Staff.</t>
+  </si>
+  <si>
+    <t>WE LOVE THIS HOTEL! We are just wrapping up a 2 week stay. We are retired, travel full-time and visit Dallas often. The Residence Inn at Dallas Park Central has everything we are looking for. The Staff is quite good, especially Robert at the front desk...professional and helpful. Breakfast offerings provide something for everyone, fresh fruit, yogurt, waffles, eggs, bagels, muffins and more. Rooms are clean and quiet (especially at night,) comfortable beds, clean linens and nice pillows. Furnishings in the living area are great too...nice seating options, large flat panel TV, good TV programming, free Wi-Fi that is a breeze to access, comfortable desk and office chair if you need to work. Rate is a good value, especially with all the extras provided. We love staying here! As long as this locations keeps this level of cleanliness and staff, we'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>WE LOVE THIS HOTEL! We are just wrapping up a 2 week stay. We are retired, travel full-time and visit Dallas often. The Residence Inn at Dallas Park Central has everything we are looking for. The Staff is quite good, especially Robert at the front desk...professional and helpful. Breakfast offerings provide something for everyone, fresh fruit, yogurt, waffles, eggs, bagels, muffins and more. Rooms are clean and quiet (especially at night,) comfortable beds, clean linens and nice pillows. Furnishings in the living area are great too...nice seating options, large flat panel TV, good TV programming, free Wi-Fi that is a breeze to access, comfortable desk and office chair if you need to work. Rate is a good value, especially with all the extras provided. We love staying here! As long as this locations keeps this level of cleanliness and staff, we'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r104166129-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>104166129</t>
+  </si>
+  <si>
+    <t>04/15/2011</t>
+  </si>
+  <si>
+    <t>Superior Facility-Difficult Location</t>
+  </si>
+  <si>
+    <t>Residence Inn Dallas Park Central is a very well kept, guest friendly hotel located within ten to fifteen minutes of the Dallas Arboretum, White Rock Lake/Park, SMU, and the Gallaria Shopping area.  The apartment set up with kitchen and living area separate from the bedroom area was so much more comfortable for my husband and me than the typical one room hotel facility.  Everything was sparkling clean.   Breakfast buffet was more than adequate and superior , again, to the normal hotel continental breakfast with only one hot item menu.   All of this for the price of other hotels with fewer amenities.  Desk staff was very helpful with directions to restaurants and attractions. That said, I must add  the lack of restuarants within walking distance and the difficulty of the need to always maneuvere the large highway interchange when arriving or leaving the hotel proved to be more of a hassle than we expected.  We stayed three nights but two of those we chose to "snack" rather than get back on the interstate system to find a restaurant.  We prefer  Residence Inns to other chain hotels,  but the location of Parks Central does not promote coming and going throughout the day or evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence Inn Dallas Park Central is a very well kept, guest friendly hotel located within ten to fifteen minutes of the Dallas Arboretum, White Rock Lake/Park, SMU, and the Gallaria Shopping area.  The apartment set up with kitchen and living area separate from the bedroom area was so much more comfortable for my husband and me than the typical one room hotel facility.  Everything was sparkling clean.   Breakfast buffet was more than adequate and superior , again, to the normal hotel continental breakfast with only one hot item menu.   All of this for the price of other hotels with fewer amenities.  Desk staff was very helpful with directions to restaurants and attractions. That said, I must add  the lack of restuarants within walking distance and the difficulty of the need to always maneuvere the large highway interchange when arriving or leaving the hotel proved to be more of a hassle than we expected.  We stayed three nights but two of those we chose to "snack" rather than get back on the interstate system to find a restaurant.  We prefer  Residence Inns to other chain hotels,  but the location of Parks Central does not promote coming and going throughout the day or evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r84378381-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>84378381</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>Not too Bad</t>
+  </si>
+  <si>
+    <t>Room 317 = 2 bedroom 2 bath suite, queen bed in each room. Full kitchen, small living room and fire place room located in the far back of the hotel on the top floor, faced outward.  stayed for 6 nights.Front Desk = Very nice, professional and accommodating.Pros: Free Breakfast, Soft yet very comfortable beds(did not expect that for soft beds), grocery service, nice friendly atmosphere, free internet.Cons:  Can hear just about everything outside, windows do little to block out noise.  Same goes for door inside, very little to block hall noise.  Living room had a strange couch that was not comfortable to sit on, and living room should have had an easy chair to sit on.  couch was only option.  Maid service was erratic and room was never cleaned before 3:00pm.  Overall we really did enjoy the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room 317 = 2 bedroom 2 bath suite, queen bed in each room. Full kitchen, small living room and fire place room located in the far back of the hotel on the top floor, faced outward.  stayed for 6 nights.Front Desk = Very nice, professional and accommodating.Pros: Free Breakfast, Soft yet very comfortable beds(did not expect that for soft beds), grocery service, nice friendly atmosphere, free internet.Cons:  Can hear just about everything outside, windows do little to block out noise.  Same goes for door inside, very little to block hall noise.  Living room had a strange couch that was not comfortable to sit on, and living room should have had an easy chair to sit on.  couch was only option.  Maid service was erratic and room was never cleaned before 3:00pm.  Overall we really did enjoy the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r65905861-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>65905861</t>
+  </si>
+  <si>
+    <t>05/31/2010</t>
+  </si>
+  <si>
+    <t>Great value, spacious room</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days with my wife, daughter and 4 year old granddaughter.  We stayed in a 2 bedroom suite which worked out great for us.  Each bedroom had its own full bathroom.  The living room had a nice sofa (which I believe was also a pull-out bed), and fireplace.  There was a nice sized dining table with 4 chairs and the kitchen was fully equipped with a range, microwave, dishwasher, stainless steel sink,  and full size refrigerator with icemaker.  Also included are all kitchen utensils, plates, glasses, etc.  The staff was very friendly and helpful.  The rooms and grounds were nice and clean.  The location is quiet and has easy access to freeways although not within walking distance to any restaurants.  It was also nice to have free internet access.  The only criticisms I would have are that the pool needed some immediate attention for the beginning stages of algae and while there were large flat screen tv's in the living room and 2 bedrooms, there was only one remote control which we had to keep sharing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days with my wife, daughter and 4 year old granddaughter.  We stayed in a 2 bedroom suite which worked out great for us.  Each bedroom had its own full bathroom.  The living room had a nice sofa (which I believe was also a pull-out bed), and fireplace.  There was a nice sized dining table with 4 chairs and the kitchen was fully equipped with a range, microwave, dishwasher, stainless steel sink,  and full size refrigerator with icemaker.  Also included are all kitchen utensils, plates, glasses, etc.  The staff was very friendly and helpful.  The rooms and grounds were nice and clean.  The location is quiet and has easy access to freeways although not within walking distance to any restaurants.  It was also nice to have free internet access.  The only criticisms I would have are that the pool needed some immediate attention for the beginning stages of algae and while there were large flat screen tv's in the living room and 2 bedrooms, there was only one remote control which we had to keep sharing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r63322201-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>63322201</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>One of the best hotel stays we've ever had!!</t>
+  </si>
+  <si>
+    <t>This place was awesome!! Me, hubby and 17 month old had a blast!! It was incredibly comfortable, very centrally located, and exceptional service. 
+We decided to get a 2 bdrm suite, since my little one is use to sleeping in her own room...and we recently had experience sharing a room w/ her in a hotel made her extremely excited and hyper and she just refused to sleep in her own crib, she whined and cried till she was in our bed with us. Which is completely understandable, but not a restful nor relaxing vacation when you are sharing a bed w/ a restless toddler. So a 2 bdrm was perfect, that way she had her own room. 
+The suite was very nice and clean. The kitchen was wonderful to have w/ a little one. They provided a crib and even accommodated my request for a high chair! So we had a home away from home! The hotel has a very tasty breakfast every morning and on some evenings they had a small dinner type food and beer and wine:).
+I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and...This place was awesome!! Me, hubby and 17 month old had a blast!! It was incredibly comfortable, very centrally located, and exceptional service. We decided to get a 2 bdrm suite, since my little one is use to sleeping in her own room...and we recently had experience sharing a room w/ her in a hotel made her extremely excited and hyper and she just refused to sleep in her own crib, she whined and cried till she was in our bed with us. Which is completely understandable, but not a restful nor relaxing vacation when you are sharing a bed w/ a restless toddler. So a 2 bdrm was perfect, that way she had her own room. The suite was very nice and clean. The kitchen was wonderful to have w/ a little one. They provided a crib and even accommodated my request for a high chair! So we had a home away from home! The hotel has a very tasty breakfast every morning and on some evenings they had a small dinner type food and beer and wine:).I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and still clean and classy!:) )MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was awesome!! Me, hubby and 17 month old had a blast!! It was incredibly comfortable, very centrally located, and exceptional service. 
+We decided to get a 2 bdrm suite, since my little one is use to sleeping in her own room...and we recently had experience sharing a room w/ her in a hotel made her extremely excited and hyper and she just refused to sleep in her own crib, she whined and cried till she was in our bed with us. Which is completely understandable, but not a restful nor relaxing vacation when you are sharing a bed w/ a restless toddler. So a 2 bdrm was perfect, that way she had her own room. 
+The suite was very nice and clean. The kitchen was wonderful to have w/ a little one. They provided a crib and even accommodated my request for a high chair! So we had a home away from home! The hotel has a very tasty breakfast every morning and on some evenings they had a small dinner type food and beer and wine:).
+I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and...This place was awesome!! Me, hubby and 17 month old had a blast!! It was incredibly comfortable, very centrally located, and exceptional service. We decided to get a 2 bdrm suite, since my little one is use to sleeping in her own room...and we recently had experience sharing a room w/ her in a hotel made her extremely excited and hyper and she just refused to sleep in her own crib, she whined and cried till she was in our bed with us. Which is completely understandable, but not a restful nor relaxing vacation when you are sharing a bed w/ a restless toddler. So a 2 bdrm was perfect, that way she had her own room. The suite was very nice and clean. The kitchen was wonderful to have w/ a little one. They provided a crib and even accommodated my request for a high chair! So we had a home away from home! The hotel has a very tasty breakfast every morning and on some evenings they had a small dinner type food and beer and wine:).I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and still clean and classy!:) )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r55671366-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55671366</t>
+  </si>
+  <si>
+    <t>02/10/2010</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel and the rooms were nice and clean. I was like a one bedroom apartment. There were two tv's and nice furniture.  The bed was very comfortable and there was a full kitchen with utensils and cook ware.  The full breakfast was pretty good as well.  Overall this was a very good experience and i would do it again.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r52181307-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>52181307</t>
+  </si>
+  <si>
+    <t>12/30/2009</t>
+  </si>
+  <si>
+    <t>Good and clean and fresh - Tra la la</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel.The mattress was a bit hard, not as comfy as at other RI hotels. Otherwise no gripes.Staff were very friendly and made us feel at home straight away.The room was great and the fireplace was a wonderful extra for December.The lady at reception could teach a few other RI receptionists especially in Florida how to greet and treat guests. 10/10 for her professionalism and the rest of the staff who went out of their way to help us when we needed something.They have also remodelled their aircon system so in summer you will not have that antiquated buzzing rattling wall unit.We will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel.The mattress was a bit hard, not as comfy as at other RI hotels. Otherwise no gripes.Staff were very friendly and made us feel at home straight away.The room was great and the fireplace was a wonderful extra for December.The lady at reception could teach a few other RI receptionists especially in Florida how to greet and treat guests. 10/10 for her professionalism and the rest of the staff who went out of their way to help us when we needed something.They have also remodelled their aircon system so in summer you will not have that antiquated buzzing rattling wall unit.We will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r51764087-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>51764087</t>
+  </si>
+  <si>
+    <t>12/23/2009</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>After a long day on the road my family needed a break and we ended up in this hotel. Good value, good staff and clean rooms. Didn't use it but the pool looked nice enough. Breakfast buffet was decent kids loved using the waffle making machine. Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r28246532-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>28246532</t>
+  </si>
+  <si>
+    <t>04/17/2009</t>
+  </si>
+  <si>
+    <t>Newly remodled and soooo nice</t>
+  </si>
+  <si>
+    <t>This has been my home away from home for the past 4 years. My daughter regularly visits the hospital nearby. I have brought a bed egg crate with me in the past because the beds were too hard. The lobby and all the rooms have been completely redone. It is beautiful!!!! The beds have been replaced with awesome mattresses. New carpet, new paint, new flooring in kitchen, new sheets, new curtains, new shower curtain, new counter tops, all new furniture.   Beautiful... I love all the updates. The only down fall for me is they do not have any king sized bed rooms.  Oh did I mention flat screen tv's too?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>This has been my home away from home for the past 4 years. My daughter regularly visits the hospital nearby. I have brought a bed egg crate with me in the past because the beds were too hard. The lobby and all the rooms have been completely redone. It is beautiful!!!! The beds have been replaced with awesome mattresses. New carpet, new paint, new flooring in kitchen, new sheets, new curtains, new shower curtain, new counter tops, all new furniture.   Beautiful... I love all the updates. The only down fall for me is they do not have any king sized bed rooms.  Oh did I mention flat screen tv's too?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r23181457-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>23181457</t>
+  </si>
+  <si>
+    <t>01/02/2009</t>
+  </si>
+  <si>
+    <t>Bit disappointing</t>
+  </si>
+  <si>
+    <t>We stayed at this Marriott Residence Inn in Dallas TX area for 4 nights on a combined business/pleasure trip. We traveled with family and family pets. Random thoughts:* Checkin was easy but asked for low floor room for weeks in advance and the only one available at checkin was a handicap room. We took it but the bathroom area was not ideal (no tub)* Garbage disposal not working* Double beds vs. Queen beds. * Hot breakfast was mediocre (compared to a MRI we stayed in October 08)* Room was very clean* Pool / hot tub was closed the entire time we were there even though they advertise it as being open year round. * No oven (only stove top) There is plenty of other fine hotels in this area and I probably would go somewhere else if I was traveling again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>We stayed at this Marriott Residence Inn in Dallas TX area for 4 nights on a combined business/pleasure trip. We traveled with family and family pets. Random thoughts:* Checkin was easy but asked for low floor room for weeks in advance and the only one available at checkin was a handicap room. We took it but the bathroom area was not ideal (no tub)* Garbage disposal not working* Double beds vs. Queen beds. * Hot breakfast was mediocre (compared to a MRI we stayed in October 08)* Room was very clean* Pool / hot tub was closed the entire time we were there even though they advertise it as being open year round. * No oven (only stove top) There is plenty of other fine hotels in this area and I probably would go somewhere else if I was traveling again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r22526339-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>22526339</t>
+  </si>
+  <si>
+    <t>12/07/2008</t>
+  </si>
+  <si>
+    <t>Okay overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Dallas Park Central Residence Inn for 1 night on a family trip to Dallas to see the King Tut exhibit. Overall a pretty nice hotel and we felt comfortable and perfectly safe there with our small children. Good freeway access and the hotel was easy to find. We upgraded to one of the 2 bedroom suites. The room was clean. There were 3 TVs, but only 1 worked. The room also came with a fireplace that would turn on with the flip of a switch, but it was broken.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r7115820-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>7115820</t>
+  </si>
+  <si>
+    <t>03/11/2007</t>
+  </si>
+  <si>
+    <t>Worked Great For My Family</t>
+  </si>
+  <si>
+    <t>Forced out of our home for 3 nights due to work on our house in Feb. Two bedroom /bath suite was $169. Cost compared nicely with smaller suite hotels in area. This offered more room for a few more $.  Definitely room enough for family of 5. Place was quiet, clean and staff was great. They didn't seem put out by having to deal with a family (with 3 boys) at all. Breakfast was normal RI offering - great. stuff, plus a free buffet dinner that worked for us. Made being out of our house as painless as possible. Would recommend to any family needing temp. living quarters.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r5011887-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5011887</t>
+  </si>
+  <si>
+    <t>04/25/2006</t>
+  </si>
+  <si>
+    <t>A positive experience...</t>
+  </si>
+  <si>
+    <t>This is a fantastic hotel with a warm friendly atmosphere.  I have two children under 3 and we were spaciously accommodated in one of their two bedroom suites.  The beds were very comfortable and the pillows were soft and fluffy and we had 3 TVs - one in each bedroom and one in the livingroom!!  The rooms were quiet and there was no traffic noise.  Our room was cleaned, towels were changed, new toiletries were left and our supplies of coffee/sugar were replenished daily.  We all loved the breakfast buffet which changed daily.  The swimming pool and out door hot tub were a fantastic place to retreat to after a long day of sight seeing.  This is a great place to stay and we will certainly stay with Residence Inn on our next vacation.Congratulations Residence Inn Dallas Park Central you have created a warm and comfortable environment for the weary travelling family.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fantastic hotel with a warm friendly atmosphere.  I have two children under 3 and we were spaciously accommodated in one of their two bedroom suites.  The beds were very comfortable and the pillows were soft and fluffy and we had 3 TVs - one in each bedroom and one in the livingroom!!  The rooms were quiet and there was no traffic noise.  Our room was cleaned, towels were changed, new toiletries were left and our supplies of coffee/sugar were replenished daily.  We all loved the breakfast buffet which changed daily.  The swimming pool and out door hot tub were a fantastic place to retreat to after a long day of sight seeing.  This is a great place to stay and we will certainly stay with Residence Inn on our next vacation.Congratulations Residence Inn Dallas Park Central you have created a warm and comfortable environment for the weary travelling family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r4467528-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4467528</t>
+  </si>
+  <si>
+    <t>02/16/2006</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Quiet &amp; Friendly - 4 1/2 Stars</t>
+  </si>
+  <si>
+    <t>I stay at the Residence Inn Park Central every time I take a workshop at the Cooper Institute 2.2 miles away.  (The Cooper rate is $95 a night + tax.)  The drive from DFW Airport is a straight easy 13 mile shot east on the LBJ Freeway.  On both stays (the other stay was in May 2005), it was easy to find a space in the parking lot.  The staff is always friendly, and helpful with maps and directions. 
+On both stays, I stayed in an efficiency that came with a full kitchen that included a full-size refrigerator, oven, stove and microwave.  The kitchen was stocked with some basics including plates and silverware for four, glasses, toaster, colander, and measuring cup.
+I found my room conducive to getting a good night's sleep.  The sound proofing in this hotel is better than your typical Marriott.  Although I could hear occasional noise from the rooms above and next door, it was much more muted than the noise I hear at a Marriott Courtyard and other motels.  It also helps that a lot of business people stay here who have to be up early in the morning.  The bed was comfortable, although the sheets had a low thread count, so were a bit rougher than they could have been.  I was able to completely close the curtains and liner for a very dark room.  Also helping with a good night's is that the...I stay at the Residence Inn Park Central every time I take a workshop at the Cooper Institute 2.2 miles away.  (The Cooper rate is $95 a night + tax.)  The drive from DFW Airport is a straight easy 13 mile shot east on the LBJ Freeway.  On both stays (the other stay was in May 2005), it was easy to find a space in the parking lot.  The staff is always friendly, and helpful with maps and directions. On both stays, I stayed in an efficiency that came with a full kitchen that included a full-size refrigerator, oven, stove and microwave.  The kitchen was stocked with some basics including plates and silverware for four, glasses, toaster, colander, and measuring cup.I found my room conducive to getting a good night's sleep.  The sound proofing in this hotel is better than your typical Marriott.  Although I could hear occasional noise from the rooms above and next door, it was much more muted than the noise I hear at a Marriott Courtyard and other motels.  It also helps that a lot of business people stay here who have to be up early in the morning.  The bed was comfortable, although the sheets had a low thread count, so were a bit rougher than they could have been.  I was able to completely close the curtains and liner for a very dark room.  Also helping with a good night's is that the place feels safe with a deadbolt on the door and keycards needed to enter the building.  The room is less conducive to watching TV, as the TV faces neither the bed nor the couch.  (It's possible though that being on the end, I had a unique layout.) My biggest complaint about the room is that it's difficult to regulate the room temperature with the analog thermostat.  Setting the needle to anywhere in the 60s made the room too warm.  I'm impressed that the entire unit was quite clean on my first day and after every housekeeping visit—cleaner than your average hotel.  One day I was running late and left some dishes in the sink, and returned to find them all clean.I didn't use any of the amenities, except for the business center computer.  There is only one computer in the business center, so I had to wait a while for to use the computer with its ancient flickering monitor.  The next night the internet hookup wasn't working, so I had to do without.  (Had I brought my laptop, I could have used the free highspeed internet in the room.)  I noticed that there was a small, very unimpressive gym, and a coin laundry room for guests.  Most night's there's a buffet dinner downstairs.  On Valentine's Day, lots of people were eating the lasagna with salad, and munching on the chocolate hearts the motel provided.  The atmosphere in the common room area is congenial, with people eating, watching TV and playing cards, much like a bed and breakfast.Overall, I'm quite impressed with the Residence Inn Park Central, and highly recommend it, particularly to business travelers, people taking Cooper Institute workshops, and people who need to stay in the Dallas area for a few weeks to a month.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2006</t>
+  </si>
+  <si>
+    <t>I stay at the Residence Inn Park Central every time I take a workshop at the Cooper Institute 2.2 miles away.  (The Cooper rate is $95 a night + tax.)  The drive from DFW Airport is a straight easy 13 mile shot east on the LBJ Freeway.  On both stays (the other stay was in May 2005), it was easy to find a space in the parking lot.  The staff is always friendly, and helpful with maps and directions. 
+On both stays, I stayed in an efficiency that came with a full kitchen that included a full-size refrigerator, oven, stove and microwave.  The kitchen was stocked with some basics including plates and silverware for four, glasses, toaster, colander, and measuring cup.
+I found my room conducive to getting a good night's sleep.  The sound proofing in this hotel is better than your typical Marriott.  Although I could hear occasional noise from the rooms above and next door, it was much more muted than the noise I hear at a Marriott Courtyard and other motels.  It also helps that a lot of business people stay here who have to be up early in the morning.  The bed was comfortable, although the sheets had a low thread count, so were a bit rougher than they could have been.  I was able to completely close the curtains and liner for a very dark room.  Also helping with a good night's is that the...I stay at the Residence Inn Park Central every time I take a workshop at the Cooper Institute 2.2 miles away.  (The Cooper rate is $95 a night + tax.)  The drive from DFW Airport is a straight easy 13 mile shot east on the LBJ Freeway.  On both stays (the other stay was in May 2005), it was easy to find a space in the parking lot.  The staff is always friendly, and helpful with maps and directions. On both stays, I stayed in an efficiency that came with a full kitchen that included a full-size refrigerator, oven, stove and microwave.  The kitchen was stocked with some basics including plates and silverware for four, glasses, toaster, colander, and measuring cup.I found my room conducive to getting a good night's sleep.  The sound proofing in this hotel is better than your typical Marriott.  Although I could hear occasional noise from the rooms above and next door, it was much more muted than the noise I hear at a Marriott Courtyard and other motels.  It also helps that a lot of business people stay here who have to be up early in the morning.  The bed was comfortable, although the sheets had a low thread count, so were a bit rougher than they could have been.  I was able to completely close the curtains and liner for a very dark room.  Also helping with a good night's is that the place feels safe with a deadbolt on the door and keycards needed to enter the building.  The room is less conducive to watching TV, as the TV faces neither the bed nor the couch.  (It's possible though that being on the end, I had a unique layout.) My biggest complaint about the room is that it's difficult to regulate the room temperature with the analog thermostat.  Setting the needle to anywhere in the 60s made the room too warm.  I'm impressed that the entire unit was quite clean on my first day and after every housekeeping visit—cleaner than your average hotel.  One day I was running late and left some dishes in the sink, and returned to find them all clean.I didn't use any of the amenities, except for the business center computer.  There is only one computer in the business center, so I had to wait a while for to use the computer with its ancient flickering monitor.  The next night the internet hookup wasn't working, so I had to do without.  (Had I brought my laptop, I could have used the free highspeed internet in the room.)  I noticed that there was a small, very unimpressive gym, and a coin laundry room for guests.  Most night's there's a buffet dinner downstairs.  On Valentine's Day, lots of people were eating the lasagna with salad, and munching on the chocolate hearts the motel provided.  The atmosphere in the common room area is congenial, with people eating, watching TV and playing cards, much like a bed and breakfast.Overall, I'm quite impressed with the Residence Inn Park Central, and highly recommend it, particularly to business travelers, people taking Cooper Institute workshops, and people who need to stay in the Dallas area for a few weeks to a month.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2995,6827 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>311</v>
+      </c>
+      <c r="X34" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>325</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>359</v>
+      </c>
+      <c r="X39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>367</v>
+      </c>
+      <c r="X40" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>406</v>
+      </c>
+      <c r="L45" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>408</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>401</v>
+      </c>
+      <c r="X45" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" t="s">
+        <v>412</v>
+      </c>
+      <c r="K46" t="s">
+        <v>413</v>
+      </c>
+      <c r="L46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>408</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>401</v>
+      </c>
+      <c r="X46" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>417</v>
+      </c>
+      <c r="J47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s">
+        <v>420</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>421</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>421</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>430</v>
+      </c>
+      <c r="J49" t="s">
+        <v>425</v>
+      </c>
+      <c r="K49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>435</v>
+      </c>
+      <c r="J50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>421</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>421</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>446</v>
+      </c>
+      <c r="J52" t="s">
+        <v>447</v>
+      </c>
+      <c r="K52" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s">
+        <v>449</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
+        <v>453</v>
+      </c>
+      <c r="L53" t="s">
+        <v>454</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>481</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>482</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>485</v>
+      </c>
+      <c r="O57" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>488</v>
+      </c>
+      <c r="J58" t="s">
+        <v>489</v>
+      </c>
+      <c r="K58" t="s">
+        <v>490</v>
+      </c>
+      <c r="L58" t="s">
+        <v>491</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>492</v>
+      </c>
+      <c r="X58" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>495</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>496</v>
+      </c>
+      <c r="J59" t="s">
+        <v>497</v>
+      </c>
+      <c r="K59" t="s">
+        <v>498</v>
+      </c>
+      <c r="L59" t="s">
+        <v>499</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>501</v>
+      </c>
+      <c r="X59" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>505</v>
+      </c>
+      <c r="J60" t="s">
+        <v>506</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>501</v>
+      </c>
+      <c r="X60" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>501</v>
+      </c>
+      <c r="X61" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>521</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>501</v>
+      </c>
+      <c r="X62" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>521</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>501</v>
+      </c>
+      <c r="X63" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" t="s">
+        <v>531</v>
+      </c>
+      <c r="K64" t="s">
+        <v>532</v>
+      </c>
+      <c r="L64" t="s">
+        <v>533</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>534</v>
+      </c>
+      <c r="O64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>501</v>
+      </c>
+      <c r="X64" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" t="s">
+        <v>538</v>
+      </c>
+      <c r="K65" t="s">
+        <v>539</v>
+      </c>
+      <c r="L65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>541</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>542</v>
+      </c>
+      <c r="X65" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>546</v>
+      </c>
+      <c r="J66" t="s">
+        <v>547</v>
+      </c>
+      <c r="K66" t="s">
+        <v>548</v>
+      </c>
+      <c r="L66" t="s">
+        <v>549</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>541</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>542</v>
+      </c>
+      <c r="X66" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>551</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>552</v>
+      </c>
+      <c r="J67" t="s">
+        <v>553</v>
+      </c>
+      <c r="K67" t="s">
+        <v>554</v>
+      </c>
+      <c r="L67" t="s">
+        <v>555</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>556</v>
+      </c>
+      <c r="O67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>557</v>
+      </c>
+      <c r="X67" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>560</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>561</v>
+      </c>
+      <c r="J68" t="s">
+        <v>562</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>565</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>567</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>568</v>
+      </c>
+      <c r="J69" t="s">
+        <v>569</v>
+      </c>
+      <c r="K69" t="s">
+        <v>570</v>
+      </c>
+      <c r="L69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>574</v>
+      </c>
+      <c r="J70" t="s">
+        <v>575</v>
+      </c>
+      <c r="K70" t="s">
+        <v>576</v>
+      </c>
+      <c r="L70" t="s">
+        <v>577</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>565</v>
+      </c>
+      <c r="O70" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>579</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>580</v>
+      </c>
+      <c r="J71" t="s">
+        <v>581</v>
+      </c>
+      <c r="K71" t="s">
+        <v>582</v>
+      </c>
+      <c r="L71" t="s">
+        <v>583</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>584</v>
+      </c>
+      <c r="O71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>586</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>587</v>
+      </c>
+      <c r="J72" t="s">
+        <v>588</v>
+      </c>
+      <c r="K72" t="s">
+        <v>589</v>
+      </c>
+      <c r="L72" t="s">
+        <v>590</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>592</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" t="s">
+        <v>594</v>
+      </c>
+      <c r="K73" t="s">
+        <v>595</v>
+      </c>
+      <c r="L73" t="s">
+        <v>596</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>597</v>
+      </c>
+      <c r="O73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>599</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>600</v>
+      </c>
+      <c r="J74" t="s">
+        <v>601</v>
+      </c>
+      <c r="K74" t="s">
+        <v>602</v>
+      </c>
+      <c r="L74" t="s">
+        <v>603</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>604</v>
+      </c>
+      <c r="O74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>606</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>607</v>
+      </c>
+      <c r="J75" t="s">
+        <v>608</v>
+      </c>
+      <c r="K75" t="s">
+        <v>609</v>
+      </c>
+      <c r="L75" t="s">
+        <v>610</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>611</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>612</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>613</v>
+      </c>
+      <c r="J76" t="s">
+        <v>614</v>
+      </c>
+      <c r="K76" t="s">
+        <v>615</v>
+      </c>
+      <c r="L76" t="s">
+        <v>616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>617</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>618</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>619</v>
+      </c>
+      <c r="J77" t="s">
+        <v>620</v>
+      </c>
+      <c r="K77" t="s">
+        <v>621</v>
+      </c>
+      <c r="L77" t="s">
+        <v>622</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>584</v>
+      </c>
+      <c r="O77" t="s">
+        <v>623</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>624</v>
+      </c>
+      <c r="X77" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>627</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>628</v>
+      </c>
+      <c r="J78" t="s">
+        <v>629</v>
+      </c>
+      <c r="K78" t="s">
+        <v>630</v>
+      </c>
+      <c r="L78" t="s">
+        <v>631</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>632</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>624</v>
+      </c>
+      <c r="X78" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>634</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>635</v>
+      </c>
+      <c r="J79" t="s">
+        <v>636</v>
+      </c>
+      <c r="K79" t="s">
+        <v>637</v>
+      </c>
+      <c r="L79" t="s">
+        <v>638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>632</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>624</v>
+      </c>
+      <c r="X79" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>642</v>
+      </c>
+      <c r="K80" t="s">
+        <v>643</v>
+      </c>
+      <c r="L80" t="s">
+        <v>644</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>645</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>646</v>
+      </c>
+      <c r="J81" t="s">
+        <v>647</v>
+      </c>
+      <c r="K81" t="s">
+        <v>648</v>
+      </c>
+      <c r="L81" t="s">
+        <v>649</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>650</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>651</v>
+      </c>
+      <c r="X81" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>654</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" t="s">
+        <v>656</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>650</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" t="s">
+        <v>662</v>
+      </c>
+      <c r="K83" t="s">
+        <v>663</v>
+      </c>
+      <c r="L83" t="s">
+        <v>664</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>665</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>666</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>667</v>
+      </c>
+      <c r="J84" t="s">
+        <v>668</v>
+      </c>
+      <c r="K84" t="s">
+        <v>669</v>
+      </c>
+      <c r="L84" t="s">
+        <v>670</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>671</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>673</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>674</v>
+      </c>
+      <c r="J85" t="s">
+        <v>675</v>
+      </c>
+      <c r="K85" t="s">
+        <v>676</v>
+      </c>
+      <c r="L85" t="s">
+        <v>677</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>678</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>679</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>680</v>
+      </c>
+      <c r="J86" t="s">
+        <v>681</v>
+      </c>
+      <c r="K86" t="s">
+        <v>682</v>
+      </c>
+      <c r="L86" t="s">
+        <v>683</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>684</v>
+      </c>
+      <c r="O86" t="s">
+        <v>97</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>685</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>686</v>
+      </c>
+      <c r="J87" t="s">
+        <v>687</v>
+      </c>
+      <c r="K87" t="s">
+        <v>688</v>
+      </c>
+      <c r="L87" t="s">
+        <v>689</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>690</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>692</v>
+      </c>
+      <c r="J88" t="s">
+        <v>693</v>
+      </c>
+      <c r="K88" t="s">
+        <v>694</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>690</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>696</v>
+      </c>
+      <c r="X88" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>699</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>700</v>
+      </c>
+      <c r="J89" t="s">
+        <v>701</v>
+      </c>
+      <c r="K89" t="s">
+        <v>702</v>
+      </c>
+      <c r="L89" t="s">
+        <v>703</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>704</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>705</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>706</v>
+      </c>
+      <c r="J90" t="s">
+        <v>707</v>
+      </c>
+      <c r="K90" t="s">
+        <v>708</v>
+      </c>
+      <c r="L90" t="s">
+        <v>709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>704</v>
+      </c>
+      <c r="O90" t="s">
+        <v>97</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>710</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>711</v>
+      </c>
+      <c r="J91" t="s">
+        <v>712</v>
+      </c>
+      <c r="K91" t="s">
+        <v>713</v>
+      </c>
+      <c r="L91" t="s">
+        <v>714</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>704</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>211</v>
+      </c>
+      <c r="L92" t="s">
+        <v>718</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>719</v>
+      </c>
+      <c r="O92" t="s">
+        <v>97</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>720</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>721</v>
+      </c>
+      <c r="J93" t="s">
+        <v>722</v>
+      </c>
+      <c r="K93" t="s">
+        <v>723</v>
+      </c>
+      <c r="L93" t="s">
+        <v>724</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>725</v>
+      </c>
+      <c r="O93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>727</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>728</v>
+      </c>
+      <c r="J94" t="s">
+        <v>729</v>
+      </c>
+      <c r="K94" t="s">
+        <v>730</v>
+      </c>
+      <c r="L94" t="s">
+        <v>731</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>725</v>
+      </c>
+      <c r="O94" t="s">
+        <v>79</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>733</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>734</v>
+      </c>
+      <c r="J95" t="s">
+        <v>735</v>
+      </c>
+      <c r="K95" t="s">
+        <v>736</v>
+      </c>
+      <c r="L95" t="s">
+        <v>737</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>739</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>740</v>
+      </c>
+      <c r="J96" t="s">
+        <v>741</v>
+      </c>
+      <c r="K96" t="s">
+        <v>742</v>
+      </c>
+      <c r="L96" t="s">
+        <v>743</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>744</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>746</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" t="s">
+        <v>748</v>
+      </c>
+      <c r="K97" t="s">
+        <v>749</v>
+      </c>
+      <c r="L97" t="s">
+        <v>750</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>744</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>752</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>753</v>
+      </c>
+      <c r="J98" t="s">
+        <v>754</v>
+      </c>
+      <c r="K98" t="s">
+        <v>755</v>
+      </c>
+      <c r="L98" t="s">
+        <v>756</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>757</v>
+      </c>
+      <c r="O98" t="s">
+        <v>623</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" t="s">
+        <v>760</v>
+      </c>
+      <c r="K99" t="s">
+        <v>761</v>
+      </c>
+      <c r="L99" t="s">
+        <v>762</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>765</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>766</v>
+      </c>
+      <c r="J100" t="s">
+        <v>767</v>
+      </c>
+      <c r="K100" t="s">
+        <v>768</v>
+      </c>
+      <c r="L100" t="s">
+        <v>769</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>763</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>770</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>771</v>
+      </c>
+      <c r="J101" t="s">
+        <v>772</v>
+      </c>
+      <c r="K101" t="s">
+        <v>773</v>
+      </c>
+      <c r="L101" t="s">
+        <v>774</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>775</v>
+      </c>
+      <c r="O101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>777</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>778</v>
+      </c>
+      <c r="J102" t="s">
+        <v>779</v>
+      </c>
+      <c r="K102" t="s">
+        <v>780</v>
+      </c>
+      <c r="L102" t="s">
+        <v>781</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>782</v>
+      </c>
+      <c r="O102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>784</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>785</v>
+      </c>
+      <c r="J103" t="s">
+        <v>786</v>
+      </c>
+      <c r="K103" t="s">
+        <v>787</v>
+      </c>
+      <c r="L103" t="s">
+        <v>788</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>789</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>790</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>791</v>
+      </c>
+      <c r="J104" t="s">
+        <v>792</v>
+      </c>
+      <c r="K104" t="s">
+        <v>793</v>
+      </c>
+      <c r="L104" t="s">
+        <v>794</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>795</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>796</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>797</v>
+      </c>
+      <c r="J105" t="s">
+        <v>798</v>
+      </c>
+      <c r="K105" t="s">
+        <v>799</v>
+      </c>
+      <c r="L105" t="s">
+        <v>800</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>802</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>803</v>
+      </c>
+      <c r="J106" t="s">
+        <v>804</v>
+      </c>
+      <c r="K106" t="s">
+        <v>805</v>
+      </c>
+      <c r="L106" t="s">
+        <v>806</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>807</v>
+      </c>
+      <c r="O106" t="s">
+        <v>97</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_658.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_658.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Evee M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We enjoyed our stay although we did encounter some issues. When we asked for disposable plates and utensils for the grill, they let us know that they did not have any. We had to bring down the plates from the room to grill outside. Elevator was also out of order while we were there. Apart from that, we enjoyed the hotel and the room.More</t>
   </si>
   <si>
+    <t>Dwightfranklin1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r564462682-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We stayed here since it was so close to Medical City Dallas Hospital, and it didn't disappoint.  We booked a 2 bedroom suite since my mother in law was also staying with us.  We were very surprised to see that what we got was a 2 bedroom, 2 bathroom suite with a large living room with a fireplace.  It also had a kitchen with a full size refrigerator, full size glass top stove and oven, microwave, as well as silverware.  When we went to the complimentary breakfast the next morning, we were surprised to see how many items it had.  We enjoyed our stay.  Only one thing to warn you about, if you are going to have to cancel your reservations, you are required to do so at least 2 days in advance or you will be charged for the room.  I will post pictures of the breakfast so you can see some of what it had to offer.  It was very good.More</t>
   </si>
   <si>
+    <t>Apert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r564442871-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>We stayed in a 2 bedroom. The room has been recently renovated. The beds are super comfy. Great breakfast and lite dinner fare. Front office staff was very nice and helpful. We have been staying there for years and we love Reecey..More</t>
   </si>
   <si>
+    <t>V2088JTlorim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r500583650-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>I tend to enjoy staying at Residence Inn properties however this wasn't a great experience. This hotel was under construction during our stay (which was desperately needed).  Our room however had not been touched, nor any room on our floor. The construction was very loud and so were the workers. They worked until the late evening hours, walkingUp and down the hallways and stairs being extremely loud and dirty. Staff wasn't the friendliest either. Hotel is also very difficult to get too. Perhaps this properly will be greatly improved once the construction process is overMore</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r497810249-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>used asa stopover point on recent trip to Mexico, and a two bedroom suite was perfect for our family. always clean, with good beds and general convenience. on this trip, a special thank you to front desk lady Kazhmere for some special help for the 11 month old baby.More</t>
   </si>
   <si>
+    <t>Bettyrub</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r473163771-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>I had an amazing stay there. Front desk was extremely helpful with all of my needs. Housekeeping was fast and efficient at their job. The shuttle drivers were so kind without them I would not gotten to do 1/2 things I got to do. Every time I passed an employee there they greeted me and asked if I needed anything else. Love love this place!!More</t>
   </si>
   <si>
+    <t>texasmom56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r467298763-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>Everyone has different things that are important to them.  I am reporting on what I observed so use this review to see if what I experienced is important to you.  Great space in the room.  We need two separate bedrooms and a living area with kitchen.   Remember to turn on the ice maker in the refrigerator if you want ice as I don't know if ice machines are available.  Some tv channels are analog and not digital.  Air conditioning and heating controls are in the room and work well.  Beds are comfortable.   You can hear traffic noise from LBJ.  Except for traffic noise, rooms are quiet.    Tub could use another grab bar to avoid slipping in the shower. Coffee is not good in the breakfast area.  Breakfast items are typical for a hotel buffet.   Doors leading into and out of property buildings are very heavy.  Parking is easy and convenient to the room we were in.    Overall, a very good experience. We will stay at this property again.More</t>
   </si>
   <si>
+    <t>Thomas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r464649934-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>I was working on a project literally next door, so convenience was #1 personally here. I ended up not having to rent a car and did Uber for the first time in DFW and probably saved $500 by combining convenience with finding a hotel close by and not renting a car. (However many "uber goober" drivers had a hard time figuring out the location. It was nice to see the ones who just pulled up like they knew the place. Room was great. Had a very nice desk work area and since I was there 100% on business, that was nice. I could see staying here on many future trips coming up. Morning breakfast buffet was OK, but better than most. Not ALL the eggs were microwaved. They did a good job on breakfast. They have an afternoon wine, beer and cookie bar in the afternoon. All in all, this is a great place to stay if you're doing business in the area. They do a great job of catering to the business traveler.More</t>
   </si>
   <si>
+    <t>Silic0nValleyFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r458319048-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Gold member and stay in marriot properties few times every month.  This property brings shame to marriot name. I stayed at this hotel on Feb 6 for 1 night on Business. See the picture of furniture and condition before you stay. Chair looked like 100 years old, chewed and brought from dumpster.   Front desk is not very helpful, they used excuse for renovation. Check-out the bathroom and hair. I could not sleep. Requested front desk, and Managers to change the chair, answer was no. Finally reached out to Marriott then they brought new chair after 1 hour.  Really bad Mgmt there. Do not stay in this hotel else you will regret. Only good thing is a free car parking.More</t>
   </si>
   <si>
+    <t>deepdrkpit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r422170343-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>We chose this hotel because it was a short walk to the Westin Park Central, the where we needed to be for a four day event, because the event hotel was sold out. We were so lucky for several reasons. The Residence Inn was clean and quiet and everyone on the staff was friendly and helpful. While the breakfast was not fancy and served on disposable plates, all the food was really well prepared and there was a good variety, with menu changes every day. We have stayed in high end hotels where the hot food on the buffet was not as good as at this hotel. The little market was well supplied with a variety of drinks, snack foods, ice cream, and some microwave foods. We were also lucky to be at the Residence Inn because the Westin was undergoing a massive lobby renovation, which created noise and inconvenience for everyone staying there. There was no where to get bottled drinks or sundries as their shop was closed and the restaurant was located temporarily in a meeting room far from the kitchen, so their food service was very limited. We did not have a car, so cannot speak to it being hard to find or get to, but the cabs did not seem to have any problem. We were there for four nights, but it seems like it would have been very comfortable if one needed an extended stay.More</t>
   </si>
   <si>
+    <t>Nina K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r417427551-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -448,6 +481,9 @@
   </si>
   <si>
     <t>I stayed here for a family trip in July. The room was very spacious and I appreciated the layout. If we would've stayed for an extended amount of time it would've been more than ideal. However, there were a few odd nuances - the hotel itself (well, the building we were in...) smelled not good - at all. In addition, there was a ton of construction going on in and outside of the hotel. It made it difficult to take naps during the day. In addition, it made the inside of the hotel look like a construction site. I heard the breakfast was pretty good and I appreciated the "spa water" the hotel provided all day every day. We stayed here because our family did, therefore, we weren't sure of the location. The location was less than ideal for us. It wasn't close to anything we wanted to do. The wifi worked well and our room was cleaned each day which was nice for an extended stay.More</t>
+  </si>
+  <si>
+    <t>Rob S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r410327486-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -476,6 +512,9 @@
 My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it...Overall it was pretty good. Very central location that was a bit hard to get into and out of based on its location on the service road. Parking was fairly limited but even with several trailers and shipping containers from their remodel clogging the parking lot, I never had an issue finding a space. Though i suspect that if it were totally booked the parking situation might get a bit snug.My nit-picky issues are really limited to the front desk. They refused to give me a bill because 'the insurance company is paying for it.' I know they are, as I have worked for them for 6 years now. It was a battle to even get a piece of paper acknowledging I was checked in so I could complete an expense report. I also had issues checking in. I recently took my wife's name when we got married, and they refused to take my credit card. The lady at the front desk wouldn't even speak to me about it and just called the manager over. The manager made no attempt to resolve the situation but was at least polite about it. I had the court order in my car had they cared enough to listen to what I had to say. My third interaction with the front desk was very pleasant, as I had to get a late check out and they did not make any issues about it at all.No real issues with house keeping, other than maybe twice in the 23 nights I stayed they did not clean my room until 4:30-5pm.Breakfast was good. The social hour / dinner type of thing they have Mon-Wed was alright, although I wish they had any other beer in the world other than exclusively Bud Light.Overall, I would recommend it to other folks looking for an extended stay in the area, though I'm not sure I would stay here again myself due to the initial check in experience.More</t>
   </si>
   <si>
+    <t>lovinlocs33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r377937506-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -503,6 +542,9 @@
     <t>As soon as you walked in the sliding doors there was the floral air freshener scent.  The water infused with a daily combo of fruits (oranges, grapefruit, apple and strawberries) was very inviting.  The staff was very friendly especially Elise.  We had a queen room suite I would have rathered a king but they stated the location does not have King beds.  This might be the only reason I may not come back.  We were not able to take advantage of the pool due to weather but I did go to the gym.  There was a couple of thread mills and weights which the whole set up seemed out of place I tripped twice over the weight bench.  The breakfast was good and average there was fruit daily at the front desk and even an assortment of cookies. The one I have never seen was the flavored syrups for the coffee.  The Paul Mitchell lotion body washes is a signature of the Marriott.  I absolutely love the complimentary makeup wipes and microwave popcorn.  The only issue l had was there is a bush in the parking lot that obstruct one's view.  They need to install a mirror so there is not a collision.  I would still recommend this hotel to others even if they don't offer king size bed suites.More</t>
   </si>
   <si>
+    <t>Jason R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r376598809-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -530,6 +572,9 @@
     <t>Stayed here for 9 nights in April. The staff and rooms were what you expect out of a Residence Inn. The location, while very central has poor parking and is difficult to get into. The hotel is on the corner of two major freeways (635 and 75) and you can easily miss the turn due to traffic. This also causes for a lot of noisy nights.More</t>
   </si>
   <si>
+    <t>Toon_1974</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r374480393-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
   </si>
   <si>
     <t>Although the property is maybe not the newest, I was very glad with the 2 bedroom suite they gave me. Also the personalized service and attention was excellent. Breakfast is conform typical Residence Inn / Courtyard. Very well located to major (TI) semiconductor as wellMore</t>
+  </si>
+  <si>
+    <t>Steven R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r367657986-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -578,6 +626,9 @@
 That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this...I believe that every company should strive to provide the best experience for its customers, both in terms of the products they provide and the way they treat people. Companies in the hospitality industry bear a special responsibility for this as they look after us while we are away from home, tired from traveling, and in places we may not know well. The last thing we need is to be intentionally taken advantage of by the very place we sought shelter, but this unfortunately seems to be the modus operandi of this particular Residence Inn.My beef with this Residence Inn - owned by Island Hospitality in West Palm Beach, Florida - is that they do not care to honor the rates they advertise on their own website. Imagine the terrible experience of needing a hotel immediately, finding a good property and price online, and showing up with all your luggage, only to be told that the rate is actually 65% higher.Now imagine that you pull up that very rate online and show the front desk that it's the current rate for the room, but they still refuse to honor it because it's late, you're visibly exhausted, and a senior citizen... and they know you're at their mercy.That's precisely what appears to have happened last night. We painstakingly researched hotels in the area for a last-minute trip for family needs. As loyal Marriott Platinum members, we thought this Residence Inn looked like the best choice with their $92/night price.Upon arrival at the hotel, the front desk refused that rate and told us it was not available. So my father pulled it up on his phone and showed it to them - the currently advertised rate for the room we wanted - but they said there was nothing they could do because it wasn't showing up on their end. There was nowhere else to go and my father could barely keep his eyes open, so we ended up paying the $150/night instead.Will this happen to you? It seems like pretty routine behavior for them, but who knows? Maybe it will, maybe it won't, but I would want better than a 50% chance of the rate I find being honored.The next morning my father went downstairs and spoke with their General Manager, Michael Manners of Island Hospitality, who was unwilling to offer any concessions or do anything whatsoever to mitigate the issue.It's very disappointing to see any business - let alone a hotel in Marriott's brand portfolio - treat guests this way.For your own sake, please do yourself or the people you are booking for the favor of looking elsewhere. There is a Holiday Inn Express about 1 minute from here that's far nicer and about the same price, or just download the HotelTonight smartphone app and find distressed inventory with "Resident Inn rates" at significantly nicer hotels.More</t>
   </si>
   <si>
+    <t>mad880</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r367546369-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -599,6 +650,9 @@
     <t>My husband and I stayed here for one night and enjoyed the property. The hotel rooms do show some wear, but they are still good rooms - and as I type - the hotel is undergoing a full renovation. The grounds are immaculate. The breakfast was one of the best I've seen at a property in this hotel class. Cookies and flavored water can be found in the lobby. The pool looked great, but we didn't have the time to take advantage of it. Our king suite was large enough for us, but could accommodate a family of four or four adults. The kitchen, table, etc are very convenient. We also found the staff very friendly! More</t>
   </si>
   <si>
+    <t>VElittle1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r365532241-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -623,6 +677,9 @@
     <t>Stayed one night.  Last minute reservation.  Front desk was friendly.  It was pouring rain when we checked in.  No cover in front of the building where you check in.  The rooms are large with everything you need.  Beds comfortable.  Decor and furniture is dated and wore with use. The buildings are not connected so you get wet when it's raining somewhat when going from one building to the building with the cafe.  Breakfast was good.  We would probably stay here again.More</t>
   </si>
   <si>
+    <t>bellaverona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r341068053-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -650,6 +707,9 @@
     <t>Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch...Stayed here for 2 nights for business, as it was the only Marriott property available in the area with an available conference room (which was needed for my team to prep for a client meeting).   I arrived very late due to airport delays.  As a solo female traveler, I was discouraged that they gave me a room that was the farthest distance from the main entrance.  This required walking across a parking lot with open access to the businesses that surround the hotel. Definitely a safety issue.  When I got to the room it was shabby - and not well cleaned. The counters were sticky, soap was still in the soap dish and there was a  smell in the room - like pets had stayed and left their mark.  I endured night one - largely because it was 2 AM, I was exhausted and I did not want to walk across the parking lot to the lobby to change rooms.  There was also a lot of noise outside the room around 4 AM - it appeared folks were either returning from a night out - but it could have been folks walking through the parking lot too.  I was switched to another room in the morning.  The one positive is the staff were friendly and we were well taken care of during our meeting.   Food was fair...but at least there was a selection of yogurt and cereal for breakfast.  Lunch was another story.    In general, I know this property is intended for longer stays, but was surprised with the overall  condition of the property.  Unless improved - I would likely not stay here again.More</t>
   </si>
   <si>
+    <t>ddell2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r339056919-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -674,6 +734,9 @@
     <t>We stayed here a few nights before the New Year.  It was comfortable but a bit worn.  We were told by one of the staff that they are planning to update the rooms starting in January, so that should be good.   We had a 2 room suite and it was clean and comfortable.  We had a couple of reasons to call the maintenance team and they responded very promptly and were helpful.  The location was good for us, but there's nothing within walking distance and it's right on the highway service road so it seemed like we were always making a u-turn whenever we were coming or going but it wasn't too bad.More</t>
   </si>
   <si>
+    <t>ecc62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r339007984-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -692,6 +755,9 @@
     <t>I'm just ending a 3 month stay here at the Residence Inn Park Central Dallas, Tx. I couldn't of asked for a better place to call home for the last 3 months. The staff was great! From the front desk guys, Ellis, Nam, Derrick, to DJ in engineering, to the outstanding housekeeping staff, any concern or need I had was dealt with right away. The location was very convenient and centrally located between the burbs in the North, to downtown and Love field to the South. Breakfast in the mornings were pretty standard fare, eggs, sausage, waffles, biscuits and gravy, plus all your continental items such as cereal, pastries, fruits, yogurts, etc. Always delicious and filling. I only had a few chances to take part in the evening receptions a couple of times, (they are held on Mondays, Tuesdays &amp; Wednesdays) but for the most part a simple quick bite to eat with free beer was just fine. I'd highly recommend staying here if on an extended stay or just for a short visit for business or family. The full size fridge let me stock up and do a lot of my own cooking on the 2 burner stove.More</t>
   </si>
   <si>
+    <t>Brian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r331675881-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -716,6 +782,9 @@
     <t>Stayed two nights and came across most of staff, numerous people working front desk, chief engineer, maintenance guy painting outside handrails, cleaning crew and all pleasant, said hello, asked about your stay, etc.  Actually cared and genuine.   Hotel very clean and maintenance was actually skimming/cleaning the outdoor pool in mid December,   Whoever is running this hotel has a model for how all hotels should be managed based on customer service.  Room layout was great.  Big suite with full kitchen and sofa and table in addition to bed.  Very clean.  Hotel lobby and hangout area where food served best kept secret.   Right off interstate and easy access.   Looked for faults and found none.  Oh yeah, one of the two printers needed a new ink cartridge.  Told them and it was replaced within 10 mins.More</t>
   </si>
   <si>
+    <t>Valerie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r328847879-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -740,6 +809,9 @@
     <t>I arrived at the hotel at 9:30pm with a few other coworkers. Check in didn't take too long, we were all tired from our plane trips in so most of us went right up to our rooms.  My room was pretty big with a small kitchen, table and couch.  Bathroom was nice with the shower and toilet separated by a door.  I didn't hear a thing all nice. I woke up nice and early (had a video to watch) and went down at 630 where most of my coworkers were already eating. Breakfast was nice, I had the oatmeal, I noticed they also had waffles and scrambled eggs.  Nice sized room with tables to eat at.  We left at 7:30 am and that was the extent of my stay.I will also admit to taking the trail mix and bottled water that was left for another gold member. I guess I was assigned a room they thought would go to someone else. I was starving and I didn't want to go to Benihana at 10:30 (my time) to eat a dinner.  I enjoyed the mix up.More</t>
   </si>
   <si>
+    <t>wellspike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r327511612-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -767,6 +839,9 @@
     <t>I've stated at many Marriott properties and I've never encountered one that was in such poor condition.   There are multiple large stains on the carpeting.  The chair in the living room is ripped and stained.  The kitchen floor has a pin on it that was there at check-in. I purposely left it to see if housekeeping would clean it the next day and they did not. The room has a gas fireplace but it does not work and I've been promised multiple times that maintenance would come up and turn it on.  They don't have maintenance coverage in the evening so when I return to the hotel after working all day they tell me they'll send someone up tomorrow.   This is the second day that I've been told the same story.  This broom is in desperate need of renovation.  I would not recommend this hotel until it receives a make over.  More</t>
   </si>
   <si>
+    <t>Car W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r320393010-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -794,6 +869,9 @@
     <t>The customer serivce is exceptional!!  Everyone from the Management/Front Dest to the Housekeeping have been wonderful!  We've been here for almost 8 weeks now and have really appreciated their hospitality.More</t>
   </si>
   <si>
+    <t>Legend_est_1976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r318811845-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -818,6 +896,9 @@
     <t>When I checked in a very friendly front desk clerk was certain to mention the hotels practice of providing dinner on Monday, Tuesday's and Wednesday's from 6pm to 7:30pm. Wednesday is catered in by an external restaurant. The dinner on Monday seemed to always be late to be served (I was there for 2 Monday's) and when it finally was, the main dishes kept running out with not many people there. Refilling was slow. On Tuesdays they cook on the outdoor grill, and again, late to serve and kept running out of food causing you to wait. Also, when cooking on the grill, I strongly suggest using someone who actually knows how to cook. The chicken breast patties that were being cooked, were overlooked and very dry. And what they failed to mention is that while the dinners on Monday and Tuesday is complimentary, the dinner on Wednesday is not. I only found out after standing in line with the restaurant vendor, ordering food for my entire family and I, and being asked for money by the restaurant staff. And since I wasn't expecting this, I didn't even have my wallet with me, as I never thought I'd need it. It was so embarrassing to leave behind 5 meals, and walk away empty handed with my wife and kids as everyone looked on. Very unprofessional, very upsetting. More</t>
   </si>
   <si>
+    <t>manda99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r318191016-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -842,6 +923,9 @@
     <t>Clean rooms, quiet and well lit grounds, comfortable beds, delicious breakfast and helpful staff - this hotel has it all!Great for families or business travel conveniently located and going above and beyond to really elevate the Marriott brand to the next level of fabulousness. I can't say enough about this incredible hotel!Pool area is a smoking haven, and our daughter found that to be disruptive, stinky, and unexpected but that was the only disappointment of our stay.Will definitely come back to this hotel and go to a local gym or fitness center for swimming instead!More</t>
   </si>
   <si>
+    <t>lys1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r315112653-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -866,6 +950,9 @@
     <t>While in the middle of home renovations, my husband and I stayed two nights at this location.  I travel frequently for business and typically stay at Marriott properties.  This was by far the dirtiest Residence Inn and hotel I have ever stayed.  The first room we checked into had a heavy chemical smell so they provided a different room.  Both were equal with worn, soiled furniture and carpet.  The bed linens did not smell clean.  I noticed some sort of small insects crawling on the bathroom counter.More</t>
   </si>
   <si>
+    <t>JC_Cheese_25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r314566342-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -890,6 +977,9 @@
     <t>As the title states, hotel was okay. It is what I have come to expect from Residence Inn. Front staff was very friendly. Rooms were large and clean. Breakfast was fine. As others reviewers state - there was a strong cleaning chemical smell in the halls and by the elevators. I did not experience the smell in my room.More</t>
   </si>
   <si>
+    <t>Julie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r309654208-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1004,9 @@
     <t>My husband and I stayed at this property for 3 nights - Sept 8-10.  The staff was nice, but hallways and rooms smelled musty, room looked worn and was dirty and ill equipped.  My car towels are cleaner than the bath towels in the room.  Shower had no water pressure.  Two of the three mornings I woke to what I thought was a chest cold - obviously a mold problem.  I've never had this happen before.There's a Westin a block away - stay there.More</t>
   </si>
   <si>
+    <t>DrewandCrew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r298120609-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1034,9 @@
     <t>You can count on Residence Inn, this one was clean, staff friendly, breakfast was standard Residence Inn fare. Enjoyed the pool, ended up visiting with some folks barbecuing. I will stay again when in the area!More</t>
   </si>
   <si>
+    <t>Tanner G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r295147634-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1064,9 @@
     <t>I stayed here because the Residence Inn on the Expressway was full. So we stayed here. We stayed for 5 days in the Studio Suite with 2 bedrooms 2 bathrooms. When we checked in the staff was super friendly and helpful at the front desk. But when we were walking down the hallway we smelled a very strong cleaning smell which aggravated my allergies. Overall the room was clean, except for some stains on the carpet. The bed was comfortable. But in the bathroom the tiles were buckling. Then when we opened up one of the cabinets in the kitchen, there were coffee grounds EVERYWHERE! It smelled so strong and it was unbearable. On the last day, when I went to the front desk to complain, the staff didn't seem to care. All they said was, "Thank you for your input." What the heck???? Not even an "I'm sorry"? The rest of the staff was super friendly and the breakfast was super good!!!! The Texas shaped waffles were delicious! Probably won't stay again if there are other Marriott's in the area.More</t>
   </si>
   <si>
+    <t>DJCTravelGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r295029171-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1085,9 @@
     <t>My family and I stayed in a 2-bedroom suite. It was plenty of space for the four of us. We wanted the 2-bedroom suite so that we would have 2 bathrooms (3 women, 1 man -  we needed an extra bathroom, hahaha). My ONLY reason for not giving this Residence Inn a 5 (Excellent) is because it does need to be updated. Some of the furniture/carpet/appliances in the suite are a little worn &amp; outdated. In spite of this, they do a good job of keeping it clean and orderly. Once a renovation is scheduled &amp; completed, Residence Inn Dallas Park Central will be a 5 (Excellent) in my book.Breakfast was really tasty! The 2 ladies that work in the breakfast area (I believe their names were Erika &amp; Dovey) were FANTASTIC! They were friendly and they kept everything moving smoothly by keeping the food replenished. You NEVER had to ask for something to be refilled because they never allowed it to get empty. That was great, especially those mornings when we were in a hurry. Having efficient people in the kitchen makes this Residence Inn top-notch. If I'm ever in Dallas again, I'd definitely stay here again. It was a good location that was close to everything we wanted/needed to get to. Once we got the hang of the LBJ Freeway, it was smooth sailing.More</t>
   </si>
   <si>
+    <t>Siobhan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r280759368-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1115,9 @@
     <t>This hotel has a good sized swimming pool, tennis courts and a basketball court (the tennis court is the BB court split in half). The front desk staff was incredibly friendly and they provided balls for the courts as well as extra towels for swimming. The distance from the parking lot to the rooms is quite a distance and the path is difficult to navigate with a lot of luggage...there are ramps but also a lot of turns. The rooms were very nice but we had a room facing the pool and there were loud teenage boys enjoying it at 8am on Sunday morning. It woke everyone up in our room. The breakfast is okay but the eggs were not very good at all. Everything else was decent though. More</t>
   </si>
   <si>
+    <t>MaggieB2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r278879052-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1142,9 @@
     <t>We stayed at the Residence Inn while coming to town for a concert. We were pleased with the size of our room, and the bed was very comfortable. We also enjoyed the breakfast which was tasty and included many choices. We used the swimming pool, which was ok, but seemed like it could use a deep clean.More</t>
   </si>
   <si>
+    <t>Leelex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r275371670-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1172,9 @@
     <t>I had the need to be in Dallas for a few months and chose the Residence Inn Dallas Park Central. I can not say enough about how wonderful the staff was! Nam, the front desk manager helped me far beyond the call of duty on an important issue. Ellis at the front desk was also extremely helpful as was everyone of the hotel's staff. You come and go knowing that they are taking care of everything for you.The hotel is very comfortable and convenient. On Wednesday nights a barbecue truck arrives with wonderful food-I enjoyed that every Wednesday while I was there!The dining room staff is always cheerful and helpful too.I can't say enough about what a nice stay I had at this hotel.More</t>
   </si>
   <si>
+    <t>Katie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r273190301-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1199,9 @@
     <t>Typically I associate a more affordable price with compromised service or quality, but that is not the case with this hotel. The front desk staff provided warm, welcoming, customer service, accommodating all of our requests. The same staff members remembered us and worked with us all weekend. Our room was clean and comfortable, with everything in working order. Plus, In N Out burger is right across the highway!I was worried sick when I left my Clarisonic face brush behind after check out, but when I called Derrick at the front desk, he located it in the housekeeping lost and found, and arranged to mail it back to me! THANK YOU!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r271178134-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1224,9 @@
   </si>
   <si>
     <t>We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that,...We first arrived at the hotel and were greated nicely. However when we arrived at the room, the nightmare began. The first thing we noticed was the size of the room which we bought to sleep 6 people. However the room could only hold 4! We tried to call the front desk about the size of the room but, lucky us, the phone was broken.  We took off our shoes in the room and got sand all over our feet! ( we were later told that it was deodorizer and was all over the carpet). There was trash under the couch and when we pulled out the sofa bed someone had spilled something all over the couch and it was not cleaned.  We were going to go swiming while waiting for the room to be cleaned, but the water was cloudy so we asked for a new room.  However the new room had water damage and when it rained at night the ceiling started dripping water right next to the bed!!!!  No wonder everything in the room felt damp!!! Now all of our sinuses have flared from the mold in the room!  Do not stay if you have allergies!!!!!!  We had problems with the air conditioning. When we finally got it working it was very noisy.  Even the shower was dirt and had hair on the wall.  We told the lady at the desk and were told "sorry about that, oh well, here is the bill"!!!  Did not even want to eat the breakfast because of the poor state of the hotel. We will never stay at a Marriott again!!More</t>
+  </si>
+  <si>
+    <t>cuerndy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r268946183-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -1142,6 +1259,9 @@
 The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been...The room was a suite and very comfortable.  The bed was comfortable, the bathroom a good size, a full kitchen with small table, a desk and a really cool lounging sofa.  The large TV was on a swivel so you could watch it from the bed, kitchen table or living room.  The complimentary breakfast was average.  Scrambled eggs, Canadian bacon (3 of 4 mornings, sausage the 4th) toast, potatoes, fruit, oatmeal, cereal, and exceptionally good muffins.  The evening social was pretty good.  first night was bar food, not bad.  Second night was hot dogs and hamburgers on the grill but it ran late and I was too tire to wait.  Both of these nights had sodas, Miller Lite on draft and wine.  3rd night was about 6 different kinds of petite deserts.  They were very good.  There was bottled Shock Top of various flavors on this day.There was a grill near the pool, didn't use either but they looked nice enough.  The public areas were nicely decorated and clean.  There is a small exercise area and computer area, which is behind a closed door so it's quieter than many hotels I've stayed in.  The front desk crew and food workers were friendly and efficient. My only issue was that there was a seminar one evening and I had a hard time finding a parking place in the rain.  Since breakfast doesn't start to until 6:30 it would have been nice to have to go container to take breakfast on the run.More</t>
   </si>
   <si>
+    <t>q t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r259410135-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1289,9 @@
     <t>was very busy with work but was not bothered by housekeeping when I did not want to be. everything was adjusted to suit my liking. great staff and fast service. in a great area concerning restaurants and barsMore</t>
   </si>
   <si>
+    <t>todrick w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r257815101-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1319,9 @@
     <t>I really did enjoy my stay.  The staff was exceptionally attentive to my needs and were so friendly.  I had a chance to speak with one of the managers, a Mr. Louie Scott and he was so pleasant and attentive to the needs of me and my family.  We are often in the area and definitely will be returning.  Thank you so much and we will definitely see you soon and recommend you all to our Family and FriendsMore</t>
   </si>
   <si>
+    <t>Tammy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r257562540-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1346,9 @@
     <t>The rooms were nice and clean.  The bed was comfortable. The furniture was just a little worn.  Could use an update on furniture.  The breakfast was good.  The location was good.  Lots of restaurants close by.More</t>
   </si>
   <si>
+    <t>Raj H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246209040-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1244,6 +1373,9 @@
     <t>We stay at Marriott Courtyards, Residence Inns all the time, but this one was below average. The checkin took too long, we had to wait for 20 minutes+ for the receptionist to get a duplicate key (she was missing from the counter), slight dingy smell in hallways and the cleaning ladies started taking away the breakfast, without announcement at 955. Small issues, but irritating. More</t>
   </si>
   <si>
+    <t>Carmen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246204833-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1394,9 @@
     <t>this hotel is in a strange location but the proximity to restaurants and the freeway is good.the service is excellent. The rooms are very nice. The breakfast was good.  I will definitely stay again. The hotel is a little outdated but it is ver clean.More</t>
   </si>
   <si>
+    <t>Lynn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r246052964-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1415,9 @@
     <t>We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money...We traveled from Oklahoma City for an Amy Schumer show.  When we arrived,  the hotel clerk was on the phone for quite sometime before she greeted us.  She gave us our keys and neither of them worked but little did we know, that wouldn't be the only issue.  The facility looked dirty just from the glance. There were stains everywhere and it looked very run down. When we got in our room,  we found hair (don't know from what body part) in the sink and toilet area.  We asked to switch rooms. Our 2nd room was slightly more frightening and only one of our keys worked... The room looked a little cleaner until we found a semen stain on the bed skirt that wasn't even dried up.  We told staff and they were very apologetic and quickly got us another room.  Our 3rd room, when we arrived, smelled of body odor. It was overwhelming.  The drapes had big stains all over them and the furniture had cat claw tears everywhere. We decided to call it quits at that point and just drive back to Oklahoma City.  The staff was willing to try to fix the issues but there were merely too many of them. Staff mentioned they were currently undergoing a change in management so there was no one higher level to speak to.  Oh FYI, if you purchase through Groupon, Groupon will try to not pay you the money back, insinuating that you're lying about the poor experience when you try to get a refund. Groupon gave me only half of my money and in the form of Groupon store credit. If you're traveling to Dallas, stay at Hilton Homewood Suites. I should have just done that instead of trying to save $30. I'm easy to please,  but this whole thing left a bad taste in my mouth.More</t>
   </si>
   <si>
+    <t>socaltraveller18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234594542-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1439,9 @@
     <t>Stayed there a couple of nights this week, staff was friendly.  I've stayed there previously due to location and price.  There were two issues that stood out.  One was that my keys would not work, I went back to get the keys rekeyed, the keys still wouldn't work.  What the hotel did really surprised me.  They had the engineer let me in to the room instead of either fixing the keys or moving my room.  Because of that, I became a prisoner of the room.  Without key access, I couldn't get back in the room at any time.  Also, no ironing board or iron which was really surprising.  There is certainly a smell to the place, which others have pointed out, and breakfast wasn't fully supplied.  Also please know that outside of an In N Out and a Subway, good luck finding food in the neighborhoodMore</t>
   </si>
   <si>
+    <t>Beachwalker007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234213761-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1460,9 @@
     <t>We have stayed at this hotel each October for 11 of the last 12 years. We have had a pleasant experience each year until last weekend. We found the hotel had deteriorated and was not kept clean. The furniture in our two bedroom suite was visibly worn. The woodwork was damaged in several areas. At least two of the glasses in the cupboard were dirty. The tub was discolored from use. The door handle for one of the bathrooms had some kind of residual residue on it. There were cob webs on one of the HVAC registers. The small lounge chair in the living room had cookie crumbs on it. The carpet was stained.  And, to top it off, we had to make multiple trips to the office for replacement keys since we could not get our keys to work consistently in any of the doors.  We enjoy staying here  but regrettably would not return until their situation improves.  More</t>
   </si>
   <si>
+    <t>Mira G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r234171872-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1478,9 @@
     <t>This hotel is in need of a major renovation and thorough cleaning.  We have stayed here many times for the TX/OU weekend. We were very disappointed this time. It was very obvious that this place has not been cleaned in over a year.  Our room and hallway smelled moldy.  I always bring my Lysol.  Even after spraying the whole room, I could not get rid of the moldy smell.  The tub was very dirty.  The drain for the sink and tub was very slow, almost not draining at all.Its a great location, but they are So due for some cleaning and renovations.  Staff is nice, but not very accommodating.  VERY DISAPPOINTED IN THIS MARRIOTT facility.More</t>
   </si>
   <si>
+    <t>Thea E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r233070020-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1499,9 @@
     <t>I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get...I have stayed at several Residence Inns and this is by far the worst I have ever stayed in.  All others have been spacious and felt comfortable and functional even with a large group.  We were in town to show at the fair and expected the room to be spacious for 5 people.  The room was horribly undersized for a normal Residence Inn room and was not advertised as such.  The room spelled like mold, the windows were broken, the closet doors were broken, the shower curtain rod was hanging down causing the water from the shower to leak onto the floor, there is no bathroom ventilation and the ceiling looks like it has been patched back together from a leak.  The kitchen floor was sticky every day, the fold out bed did not come with sheets and despite several requests to accommodate the room to sleep 5 with towels and sheets, each day, the service only left 2 towels and no fold out bed sheets.  One night, we called for sheets (apparently waking up the person on duty) and never received them having to sleep on the bare fold out mattress.  The elevator was broken the entire time we were there, so luggage and 3 kids had to be toted up and down the stairs from the 3rd floor.  The set of stairs leading to the lobby are situated to you have to wander down the hallways to get to the next flight of stairs.  On the first night, our room had been given away even though we called for a late check-in.  We finally received a room only to find that our key opened a room that was already occupied.  Then suddenly a one bedroom opened up after that happened.  To make up for it, the staff offered a 2 bedroom on the next evening only to find out the next night that it had again been given away.  We left to go home to get another show animal for one night even though we had reserved the room (so anything left behind should have been left alone).  My daughter left a basket behind and it was gone when we returned.  We would have had more room and a nicer stay at a Holiday Inn with 2 queen beds in a single room.  I will stay at a Residence again, but never in Dallas.More</t>
   </si>
   <si>
+    <t>BrisketMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r232763819-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1517,9 @@
     <t>It's a Nice Room, Kitchenette Full size Fridge,Queen Bed.. It has a Table for (2) with a Computer. Kinda dated looking but Overall Nice Room. The only Gripe I have is the Price. If your not a member with Marriot, join before staying here. $177/nt.</t>
   </si>
   <si>
+    <t>Mknmraz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r232063796-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1535,9 @@
     <t>First of all, the elevators were not working all weekend and it was a big inconvenience for all the hotel guests. It was a pain to lug our luggage up the stairways to the second floor and I couldn't have managed it by myself. The room itself was decent but in need of updating and the linens were not 3 star quality. There were no blankets or bed coverings at all except sheets and a lightweight coverlet. We will stay elsewhere next time.</t>
   </si>
   <si>
+    <t>Donald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r219858138-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1403,6 +1559,9 @@
     <t>Overall this was not a bad hotel.  The breakfast was vary good and the outstanding wait staff kept it open even after the closing time due to large crowds still wanting to eat.  The location can't be beat for a weekend stay, very little traffic and a centralized location for convenient shopping and dining.  The front desk staff were very courteous and friendly.  The hotel had a well maintained swimming pool and an area to sit and bbq outside. The grounds were also well maintained.  The room had a large sized refrigerator, stove, dishwasher and eating and cooking utinsels.  However, the room  was small and the bed and sofa sleeper were quite uncomfortable.  The matresses were worn out and should have been chaged long ago.  I am thinking that since we did get a cut rate deal for the stay maybe we just were put in a cut rate room.  I would like to think that the regular priced rooms have better beds.  Other then the bed situation it is well worth staying at.  Just beware of the possible bed issue.More</t>
   </si>
   <si>
+    <t>maylee32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r218212653-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1580,9 @@
     <t>Let me first say the staff is fantastic!! They were very accommodating, professional, and nice. But the conditions of some rooms were disappointed. I stayed there twice in one week. The first time it was ok. The room was your typical residence inn but needed some upgrades. My toilet kept running water and the AC system could not be controlled. The second time I stayed there it was a nightmare of a room. As I walked in, the room smelled like mildew, the toilet was constantly running water, there was no hot water and I was next to the fwy side. I didn't want to move because it was so late and I was very tired. So my tip is don't stay in building A on the first floors. I heard some rooms were flooded with water and perhaps that's why there's that mildew smell. Also, try to stay in higher floors away from LBJ freeway. It can get noisy. The breakfast was good and their social hour was also nice. Oh and beware of car break ins, if you park in the back, your car can get broken into. Our Ryder truck got invaded and they stole the truck battery. Thank goodness we parked it facing out so that's why they didn't steal anything from inside the truck. More</t>
   </si>
   <si>
+    <t>Tom R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r217670100-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1448,6 +1610,9 @@
     <t>I have stayed at a lot of Residence Inns, always satisfied.  Not so at this location.  Upon checking in, the front desk staff while friendly had no idea how to give local travel directions.  The halls leading to your room are not well lite and the carpeting is old and outdated.  The room itself was just okay,, clean but outdated.  The cable TV consistently could not display such basic channels like the   Weather  Channel.  No free WiFi in the room!  The "gym" is very small.  The pool is reasonable.  Would not stay again.More</t>
   </si>
   <si>
+    <t>Crystal L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r212265796-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1640,9 @@
     <t>My husband and I have stayed at a number of Residence Inns and we really enjoy them. They always have breakfast, a full kitchen in your room, and they provide dinner a few days during the week. This one provided dinner every Monday through Thursday and the food was pretty good.The room itself was a one-bedroom suite with plenty of space and modern decor. It was exactly what we've come to expect from Marriott and we didn't notice any issues at all. The location was great for us as it was right next to 75 with a short drive to grocery, downtown, and north Dallas. The view wasn't great, but it didn't need to be. Also, the pool was outside and there were some leaves in it, but the hot tub was just fine. We had a great stay for a few days and felt at home the whole time. The staff was friendly and always available.More</t>
   </si>
   <si>
+    <t>mehtravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r212257095-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1661,9 @@
     <t>I stay at Residence Inn often and this one happened to have $89 nightly rates for the weekend starting on Thursday.  Excellent Value!  As for the hotel itself - it is standard Residence Inn Quality which I rate as darn good quality since you have the options presented by a full kitchen with utensils and a full and ample breakfast buffet.  The sleep quality is good although I would like to see some King Size beds in the 1 bdrm suites.  The interior facing rooms can get a bit noisy since common areas are on the interior.  I have already stayed twice at this hotel withing the past 30 days and I will certainly do so again at those great rates of less than $100 per night.  Keep up the good quality Residence Inn!!More</t>
   </si>
   <si>
+    <t>Nils_KR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r205458529-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1686,9 @@
   </si>
   <si>
     <t>The good news is that this place has a good sleep quality and totally unaffected by the chaos on 635.The place is dated. The room smelt smoky / dusty on first entrance. The tiles in the bathroom were loose. On first day the air conditioning in the gym would not work so a big blower fan was kept in the door to keep air circulating. Lobby is average.More</t>
+  </si>
+  <si>
+    <t>Trent S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r204037045-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -1554,6 +1728,9 @@
 Again,...I have stayed at several Marriott properties and Residence Inns over the years and have always been impressed...until I stayed at this property. I was frankly, disappointed. Likes: Price, extended-stay 2 bedroom 2 bathroom units with kitchens, friendly staff, sports court, pool, bbq area and an excellent breakfast. Dislikes: cleanliness - the carpets in the hallways and common areas did not look like they were vacuumed once during the 6 days we were there, doors to the building were scuffed &amp; dirty, cement around trash cans stained and dirty, there was a bucket in hallway catching water from a ceiling pipe leak when we arrived - it was still there when we left. Our room had doorhandles broken, chips in the tubs that had not been repaired, noticeable carpet stains, torn upholstery. If I hadn't known this place was a Marriott, I would have never guessed it was associated with that organization - it just didn't look it or feel it. I realize its an older property, but I've stayed at some older Marriott Properties before and they have always been well maintained...and spotless. This place was neither. Not what you expect from a Marriott. Head scratcher: We called the front desk to get a folding suitcase stand (like every hotel I've ever been to provides) and the desk clerk politely explained that while she gets that request often, their location doesn't have them. Period. She didn't know why. Again, not what you expect from a Marriott.More</t>
   </si>
   <si>
+    <t>Rodney C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r203579961-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1749,9 @@
     <t>My stay here was fantastic. Once I arrived the clerk was very courteous and helpful. The room was welcoming and spacious .They also brought me a bottle of champagne , I had a couples package. But for the most part it was a great STAY...More</t>
   </si>
   <si>
+    <t>Courtney M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r202917274-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1770,9 @@
     <t>Me and my boyfriend got the studio room with the kitchen as part of the groupon deal. It was a great stay, very nice rooms, very clean. We had a great time and the room was very spacious for us too. Also our room had a large LG flat screen which was a plus. Basically a steal for the price. More</t>
   </si>
   <si>
+    <t>jdmaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r196219929-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1794,9 @@
     <t>I booked lots of rooms here for a group in town for the NCA cheerleading nationals. Whitney Rishel, the Sales Manager made it super easy to get the group settled with reservations. I didn't catch his name, but the gentleman at the desk at night was very nice &amp; helpful. I really though the property was nice and did not feel that it was dated at all. Cookout and pool area was great. Wouldn't hesitate to stay again! Great value!More</t>
   </si>
   <si>
+    <t>silverrose75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r196005967-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1815,9 @@
     <t>My husband, daughter and I stayed they weekend here. We reviewed the hotel on their website. It was what they said. The room was very nice. We stayed in the studio. It could use some slight maintenance attention but otherwise the room was clean, colorful, and beautiful. The bed was comfortable but I would recommend bringing your own pillows. Their pillows are the size of couch decor pillows. The staff was very pleasant. The.front desk folks were nice but seemed scattered. I'm not sure if their was some kind of computer issues or what but they were distracted. The continental breakfast was large and tasted really good. We would definitely stay again. More</t>
   </si>
   <si>
+    <t>Bozenaclay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r195784484-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1839,9 @@
     <t>I stayed in this hotel for business reason and close location to Medical City. We arrived late Friday and my class was going to be all day Saturday and Sunday. On Friday night we had a huge party going on somewhere over our heads with laud screaming drunken people slamming the door at so on. Called Mng on duty, she asked us if we know where the party is because she can't leave her desk ( only 1 person for whole night!) no security. The part was going on till  we called again about 2 pm. No apologies and if we wouldn't ask about it nobody was going to say anything. Also I booked a nights with special deal for gas card. I had to ask every day several times to remind them about and there always was an excuse ( manager is not here ........) so finally on our check out we were given cash ( probably from the register). This is our second time to stay in Residence Inn hotels and the last one. They allowed people party without respect that somebody may be there to get a I get sleep for business next day. Would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>AttorneyOnTheGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r190036921-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1869,9 @@
     <t>The room seemed dingy and run down-- stains on the carpet, scratched/cracked/worn out chairs, deadbolt inoperable. Also, the outside door to the building was unlocked when I arrived at 1am, even though there was a sign indicating key card access was required. Overall, the hotel felt run down and I had safety concerns.More</t>
   </si>
   <si>
+    <t>pprentice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r189814728-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1890,9 @@
     <t>There was a mixup with my reservation and the evening desk clerk at first said there were no 2 bedroom suites available, when my reservation was for 3 of them. I explained that I really needed them as I was there with a group of 12 which included 9 special needs ladies. The clerk worked hard to find us rooms and apologized profusely that they couldn't all be in the same building. It's not a big place, so that wasn't a problem. The next thing that happened is the elevator in the 2nd building didn't work, which was a major issue for some of the ladies assigned to the third floor. Again the clerk worked hard to find another room, but there weren't any, so she gave us two one-bedroom suites for the same price as we would have paid for the other. There were issues with some keys as well, and the poor girl was running all over trying to accommodate us. I don't know her name, but she deserves a raise!The place is showing some signs of wear, but the price is extremly reasonable for the size of suites, and the breakfast is fantastic. Everyone we met from managers to cleaning staff to food service people friendly and courteous and treated our ladies like honored guests.More</t>
   </si>
   <si>
+    <t>STEVEP395</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r179807353-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +1920,9 @@
     <t>The hotel was so nice...I wanted to stay another night. The room was great! It was like being home away from home with a refrig. and microwave and very nice kitchen area. The room was nice and large w/plenty of room to lounge and watch TV on the couch or chair. The bedroom was nice to w/ a queen sized bed that was really comfortable.The brunch, which was free, the next morning was really good. The food was hot and plentiful w/plenty of choices. It was relaxing enjoying breakfast and a nice cup of coffee.More</t>
   </si>
   <si>
+    <t>Lisa E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r167420503-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1741,6 +1942,9 @@
   </si>
   <si>
     <t>We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels...We stayed at this hotel from June 27 - June 29, 2013.  We had just left the Nashville Airport Residence Inn which was a wonderful property.  First of all, the hotel is located off of a main Dallas road that is consistently bottle-necked with traffic.  You have to go through an underpass, that is full of construction, to even find the hotel.  The person that checked us in was not the most friendly person.  Our room was located at the back end of the hotel.  We did not realize that we had to walk a good 2 - 3 minutes to get from the back of the hotel to the front in order to get a luggage cart.  The hotel should have luggage carts available by the back entrance along with the front entrance.  We had been traveling for a week and needed to do some laundry.  Bad decision.  The hotel has over 100 plus rooms and only (4) washers and (4) dryers available in two locations.  There was a Volleyball tournament during our stay and the laundry rooms were in full swing with usage.  The washers were working, but the dryers were horrible.  We ended up having to dry our clothes through three cycles in order to get our clothes dry.  I ended up calling the Front Desk and they allowed us to use the housekeeping dryer.  When we checked in I noticed that we only had two towels and I needed two more towels for my daughters.  When I called the Front Desk I was told they were out of towels and I would have to wait until the morning for additional towels!  The breakfast was good, but due to the amount of people staying in the hotel the breakfast room was jammed with people.  We ended up only getting breakfast at the hotel one morning due to the long wait for food.  The pool area was nice, but the hot tub was not working during our stay.  Several guests mentioned it to the Front Desk, but it was never repaired. My main problem with this property is the safety concern.  The room key is used to get you around the hotel and the doors were locked between the building and the Front Desk area and by the pool doors.  However, the doors were NEVER locked by the back entrance.  We were getting things from our car well after midnight and the back entrance was still unlocked and we did not have to swipe our card to get inside.  I was concerned with this since the elevator was right by the back door and our room was on the 2nd floor close to the elevator.  I don't think I would ever recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>Nomexhood</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r166444143-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -1773,6 +1977,9 @@
 The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and...First off let me say the staff all of them were very friendly and helpful when they could be. We were here for a Volleyball Tournament with ten other families. I have never had so much trouble with key cards before. They never worked on the first try and after several tries exchanged them again. Everyone had difficulties this led to everyone opening the door for everyone else which defeats having a secure door locking system. Our room was a two bedroom suite with kitchen. It was functional and did have some recent upgrades.Rooms do not include a full cable package (I like CNN and it was not included). The counter top was granite and fridge full size and the mattress was a newer memory foam type mattress. Comfy as long as you like soft. The bathrooms and cupboards are showing some wear. The cleaning staff did forget to leave towels our last day and teammates rooms were not cleaned for some reason. Other team mates reported a moldy musty smell. It was reported to the hotel and staff said they would fix it. Not sure what was done. Smell was somewhat resolved. Food is served in the morning and the variety is good. The eggs are not real or are some artificial egg like substance. The pool during the weekend appeared cloudy and not appealing to me, additionally one of the gates key locks was out of service and therefore the gate was locked by a bike lock leaving only one gate operational. On the door I was glad to see a TripAdvisor Recommendation sign for 2011 I think. After staying I was surprised that It was awarded.  I guess in a pinch I would stay here again but I would really try hard not to. Sorry Residence Inn.Again the staff was really nice.More</t>
   </si>
   <si>
+    <t>Estella03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r165441357-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1791,6 +1998,9 @@
     <t>Our studio queen suite was just the ticket for a weekend tourist stay in Dallas. The cheerful staff welcomed us with a bottle of decent Chardonnay (part of our Living Social deal), and we loved our cool, clean room on sight. We had a bedroom, bathroom with separate sink area, living area with sofa and easy chair, and a kitchen with full-size refrigerator, microwave, and stove, plus some basic dishes and utensils. The hot full breakfast was wonderful, and included waffles with whipped cream and fruit topping, plus cooked oatmeal with walnuts and raisins available. The only downside to our visit was the highway construction outside, which made finding the place a bit difficult for out-of-towners with a slightly out-of-date GPS system. Our room was near the back of the property, though, and we didn't have any highway noise. The property also has a protected central courtyard area with covered outdoor seating, a pool, and a small court for pickleball!We didn't hear any noise, but we were not on poolside.More</t>
   </si>
   <si>
+    <t>tparnell8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r155124348-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2022,9 @@
     <t>I stayed here three separate times last year for a total of around 75 days. (Over 300 nights in Residence Inns in the last 2 years). Great hotel and helpful friendly staff, especially the Brandi at the front desk. Pros: The rooms are nice and clean, great location right off of the freeway. The dinners are included and are usually decent meals.Cons: Fitness center is tiny and lacking equipment. This Residence Inn only serves dinner 3 times a week, not 4 like every other RI. Not always the best sleep due to noisy neighbors, people using the pool after hours, and early morning maintenance. Over all a good hotel and I'm sure I'll be staying there again.More</t>
   </si>
   <si>
+    <t>sjenn10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r154980417-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2043,9 @@
     <t>The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and...The first night i was at the hotel i was thinking this is better than the last couple places ive stayed. The pool looked nice and it was next to the hospital my son was in. First thing, the room we were in supposiably had been booked for the night we were supposed to leave. The lady in the front said stay in the room until 3 so they could move us. I couldnt sit and wait for them to call for the new room and had to leave. This was around 130. I noticed that my sons Nabi tablet was missing while i was gone so i called to have them check the room. The man told me people were already in the room and that house keeping would have it in lock and key in their room and he has no access to the area it is kept and says to call in the morning. So, i call in the morning and the lady up front says that she can give.us a key to go in the room ourselves. I send my husband and he is told someone is in the room and he cant go in. So i call again and she says shes leaving a note w house keeping and they would check again. I go to check out of the hotel and talk to the desk lady and she said housekeeping went in twice and they never found it. So that is that.I will be contacting the police and doing a report. Then while my husband was sitting in the hot tub 3 children hop in w him. They begin telling him how they urinated in the hot tub three times. How disgusting is that. I reported it to the front. He acted like he could care less. Then i check my credit card bill and see 2 changes for 250. They said thats the hold they put on all rooms for if you smoke cigarettes in the room. Um, i dont smoke and i dont think tying up 500$ on my credit card is right. I am not about to pay 500$ for a three night stay somewhere thank you. All i know is that the charges better be off my card, my tablet going missing will result in charges being filed against the cleaning lady, and how disgusting is it that anyone would think its appropriate to allow children to use the hot tub as their toilet and publicly announce it.More</t>
   </si>
   <si>
+    <t>Eddie14theroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r154526355-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2067,9 @@
     <t>This is the second time we have stayed here.  We were here four nights on this visit; 21 days on our previous trip.  My wife is in a wheel chair and we have found this hotel to be a great place.  We book a one bedroom unit which allows us to have guests visit us and still have a private area. We find it close to grocery stores, bookstores, drug stores, hospitals.  Because of the current road construction you do want to know in advance how to arrive.  But speaking of road construction, it amazes me that after I arrived I never heard construction noise.The rooms are well equipped for an extended stay.  The only difference between our two stays was that this room had a tub with a transfer seat; the previous room had roll in shower.The bed was wonderful.  The two rooms gave us two TVs allowing my wife and I to watch different programs.  We like the breakfast; my wife especially enjoys the yogurt parfaits that randomly appear.  I enjoy the Texas shaped waffles which I load with large blueberries and whipped cream; you could opt for strawberries or chocolate chips     The staff was exceptionally friendly; we got to know many of them from our previous 21 day stay.More</t>
   </si>
   <si>
+    <t>crbguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r150372428-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2091,9 @@
     <t>I stayed three nights at this hotel and was very pleased with it.  The hotel was clean, well-kept, and everything worked beautifully.  The breakfast was decent, with some hot foods and some cold foods.  Typical free breakfast fare at a hotel like this.  The breakfast room was nice and clean and actually had a very pleasant ambiance, with a lot of natural light.  Because of construction on 635, it is easier to go in and out of the hotel out the back entrance, but that was not a problem.  Actually, it was more peaceful going that way as the roads were usually not crowded.  A special comment should be made about the staff.  The manager, Kleber Alves, was terrific.  I had a billing issue and he went above and beyond to resolve it (it was not the hotel's fault, but my own issue) and he even made sure I knew how to contact him if I needed any additional help.  Truly exceptional service.  Also, Brandy at the front desk was super friendly and just fun to talk to.  Made for a nice check-in and overall experience.  Based on this experience, I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Antoine L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r149223758-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1890,6 +2112,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>OK_taqi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r145731482-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1908,6 +2133,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>LisaMSacramentoCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r141268163-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1935,6 +2163,9 @@
     <t>I was here over the weekend for a convention that was held at the nearby Westin hotel. I had a nice studio unit that came with a kitchen (no oven though so be aware of that). Check in was easy with friendly front desk staff. There is a marketplace around the corner from the front desk that has assorted frozen meals, snacks and drinks, and ice creme novelties, along with some toiletry items. The room has a microwave and burners, with a full size refridge. You can order grocery delivery or room service from a local meal delivery service. You get coffee, tea and popcorn in the hospitality packet. Breakfast is included with hot and cold items. Items are changed daily so you may find sausage one day with ham another. There is an outdoor pool, fitness center and computer room for printing boarding passes.Road construction is in force, but if you pass the property and take the next road up, go around to the road where the taxi drivers are waiting to get to the back of the property. I enjoyed my stay here. You will too.More</t>
   </si>
   <si>
+    <t>Katie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r137065853-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1956,6 +2187,9 @@
     <t>While I was having surgery/4-day hospital stay at Medical City, my family (mom, husband, daughter, sister and nieces, and nephew) had a wonderful time. Extremely clean rooms; friendly staff. Three meals daily at no extra charge; great swimming area with nice covered area &amp; BBQ pit. It was good to know that my family enjoyed themselves. Will definitely stay here again or recommend this hotel.More</t>
   </si>
   <si>
+    <t>lovestocruise1998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r136037117-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2208,9 @@
     <t>The property was in a perfect location for us, but the cleanliness of the rooms left a lot to be desired. The front desk staff was great, but they need to inspect the rooms better before the next guest checks in.More</t>
   </si>
   <si>
+    <t>Jaylasmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r131920727-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1987,6 +2224,9 @@
   </si>
   <si>
     <t xml:space="preserve">we stayed here 4 nights total and were very happy with our stay. The rooms were clean and nice. Service was great and grounds looked nice. The pool was also clean. The jets on the Jacuzzi didn't work though and the hot tub wasn't that hot also. Breakfast is ok. There is a lot of variety and my favorite was the waffle with fruit and whipped cream on top! We will definitely stay here again when in Dallas. Overall or was a great stay and we also got a weekend special rate for 2 of the nights so it was a great deal for our 2 bedroom suite. </t>
+  </si>
+  <si>
+    <t>FriscoBarbie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r130907218-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -2022,6 +2262,9 @@
 The staff at the front desk also...We booked a 2 bedroom suite for 2 nights over the Memorial Day Weekend, 2012.  I was thrilled to get a 2 bedroom suite for $107 per night (amazing), and the suite itself was nice (very comfortable beds).  I think the rates may be low because of the poor location along the 635 access road, and the tremendous road construction project surrounding the property.  The hotel can be a little tricky to get to, and if you miss the turn in, you have to go ALL the way around.I did find a substantial number of dead pillbugs on the tile around the fireplace when we checked in, and on the bathroom tile floors as well.  They were gone the next day, so apparently the maid finally noticed them when she was cleaning the room.We are Marriott Elite members and stay at Marriott hotels whenever possible when traveling.  In every hotel we have stayed at, there is always a binder in our room with information about the hotel, area attractions, restaurants, pool hours, laundry facilities, etc.  This hotel did not provide one in this room.  When I asked the front desk clerk about it, she looked at me as if I had two heads growing out of my neck.  So apparently, this hotel doesn't provide information binders in the rooms.  The look the front desk clerk gave me did not impress me. The staff at the front desk also did not impress me when we asked about pool hours.  The first clerk we asked said the pool was open from 9 a.m. to 10 p.m.  When we went out to the pool that evening, the sign in the pool area clearly stated 8 a.m.  So, I sent my husband to ask again at the front desk, and that clerk told us 7 a.m.! The (tiny) pool was packed at that time and the spa was not working (disappointing), so we decided to bring our son back the next morning.  My husband took him out there at 8 a.m., and the pool area was padlocked shut! My husband went to the front desk and informed them that he had been told the pool opened at 7 a.m., and the girl behind the counter told him 9! Then, he told her that the sign at the pool said 8! One of the staff members actually accompanied my husband outside to read the sign. When they saw it said 8, they unlocked the gate for him.  Yippee. (insert sarcasm here).  There were no pool towels. When we asked at the front desk, they said they were out of pool towels, and gave my husband two BATHROOM RUGS to use.  Well, alrighty then.Breakfast was mediocre at best.  The fresh fruit selection consisted of one badly bruised apple in a bowl.  The hot food was typical cholesterol laden fare (fake scrambled eggs and sausage), and the oatmeal was watery and lukewarm at best.  We didn't even bother with the breakfast on our second morning, as it just wasn't appealing.More</t>
   </si>
   <si>
+    <t>Trekmom02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r130706321-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2283,9 @@
     <t>We stayed one night at the Residence Inn.  The rooms were very nice, complete with full sized refrigerator, two burner cook top, and oven.  The decor was tastefully done.  My husband liked that it was more of a masculine feel.  The bed was not the most comfortable, unfortunately.  The service was very good. The desk clerk was efficient and friendly. The breakfast buffet was extensive with waffles, eggs, sausage, pastries, cereal, oatmeal with toppings, and fresh fruit.  We also enjoyed that it was convenient to a hiking trail.This is not the best hotel for the elderly, though, as there are multiple buildings and the parking is not convenient to each.  Our room was a bit of a hike for my elderly mother.  Also, there is major construction on LBJ Freeway, so the entrance is a bit difficult to find.More</t>
   </si>
   <si>
+    <t>grumpy554</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r125034010-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2058,6 +2304,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>JFawl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r124739220-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2079,6 +2328,9 @@
     <t>I stayed here for 3-4 weeks last year.  The rooms were pretty small for a Residence Inn, considering that it wasn't the heart of a big city but suburban Dallas.  All the rooms are non-smoking, at least now.  But the rooms on the second floor obviously were smoking in the recent past, and they smelled like it.  I wanted to be on the second floor so I wouldn't have noise from people walking around above me, so the price I had to pay for it was a room that hadn't been adequately de-odorized.  I even bought a can of Febreze.  On the whole the staff were nice and helpful.  It got the job done for the time I stayed there but I don't have any desire to return.More</t>
   </si>
   <si>
+    <t>sdavis3908</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r122578971-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2349,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>arao24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r120146445-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2370,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>SoonerSailor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r119148095-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2391,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Leanmachine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r118984446-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2157,6 +2418,9 @@
     <t>We were in Dallas for the Cowboys game and stayed for 3 nghts. This is an older hotel but pretty well maintained. We worried a bit about the highway location plus on-going road contruction after reading the guest comments but to our pleasant surprise, it was quite easy to find with our GPS. The hotel is centrally located to where we wanted to go-Cowboys Stadium, Galleria Mall(upscaled mall) and Downdown dining. Breakfast has good selection and the staff were friendly. The area is safe and close to other business building.Area for Improvement: 1) The TV should be in HD -Breakfast dining area and the guest rooms as other Residence Inns.2) Wireless Connection could be faster3) Local Newspaper besides USA today3) Please add green tea and brown sugar to the hot beverage selectionMore</t>
   </si>
   <si>
+    <t>amni23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r116263829-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2190,6 +2454,9 @@
     <t>I stayed there 2 nights for professional class in closed by Medical City. Stayed in one of the suites very roomy and home like. Full kitchen was great even just for warming food and eating in the room late at night. Very clean, bed covers very comfortable, with memory foam bed. First night could not find thermostat so was very cold, but next day I found it behind the lamp !?</t>
   </si>
   <si>
+    <t>MAXXDOGG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r115878503-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2472,9 @@
     <t>The most notable part of this Residence Inn was the fact that it straddles a major highway and to get around town just to get to a limited selection of restaurants and shopping was a headache.  The service was just fine and the room was very accommodating.  We enjoyed the pool and decided that this was the best night to order pizza delivery (Pizza Hut), because just getting to the hotel was tricky enough and to go out would chew up an hour easy just in travel.  I would not return on a family trip but I would have no problem returning for business.</t>
   </si>
   <si>
+    <t>Music_Is_Viva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r113318279-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2220,6 +2490,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>LostInAmerica2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r104239403-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2241,6 +2514,9 @@
     <t>WE LOVE THIS HOTEL! We are just wrapping up a 2 week stay. We are retired, travel full-time and visit Dallas often. The Residence Inn at Dallas Park Central has everything we are looking for. The Staff is quite good, especially Robert at the front desk...professional and helpful. Breakfast offerings provide something for everyone, fresh fruit, yogurt, waffles, eggs, bagels, muffins and more. Rooms are clean and quiet (especially at night,) comfortable beds, clean linens and nice pillows. Furnishings in the living area are great too...nice seating options, large flat panel TV, good TV programming, free Wi-Fi that is a breeze to access, comfortable desk and office chair if you need to work. Rate is a good value, especially with all the extras provided. We love staying here! As long as this locations keeps this level of cleanliness and staff, we'll be back!More</t>
   </si>
   <si>
+    <t>christmasMo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r104166129-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2259,6 +2535,9 @@
     <t>Residence Inn Dallas Park Central is a very well kept, guest friendly hotel located within ten to fifteen minutes of the Dallas Arboretum, White Rock Lake/Park, SMU, and the Gallaria Shopping area.  The apartment set up with kitchen and living area separate from the bedroom area was so much more comfortable for my husband and me than the typical one room hotel facility.  Everything was sparkling clean.   Breakfast buffet was more than adequate and superior , again, to the normal hotel continental breakfast with only one hot item menu.   All of this for the price of other hotels with fewer amenities.  Desk staff was very helpful with directions to restaurants and attractions. That said, I must add  the lack of restuarants within walking distance and the difficulty of the need to always maneuvere the large highway interchange when arriving or leaving the hotel proved to be more of a hassle than we expected.  We stayed three nights but two of those we chose to "snack" rather than get back on the interstate system to find a restaurant.  We prefer  Residence Inns to other chain hotels,  but the location of Parks Central does not promote coming and going throughout the day or evening.More</t>
   </si>
   <si>
+    <t>Anselrte66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r84378381-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2277,6 +2556,9 @@
     <t>Room 317 = 2 bedroom 2 bath suite, queen bed in each room. Full kitchen, small living room and fire place room located in the far back of the hotel on the top floor, faced outward.  stayed for 6 nights.Front Desk = Very nice, professional and accommodating.Pros: Free Breakfast, Soft yet very comfortable beds(did not expect that for soft beds), grocery service, nice friendly atmosphere, free internet.Cons:  Can hear just about everything outside, windows do little to block out noise.  Same goes for door inside, very little to block hall noise.  Living room had a strange couch that was not comfortable to sit on, and living room should have had an easy chair to sit on.  couch was only option.  Maid service was erratic and room was never cleaned before 3:00pm.  Overall we really did enjoy the hotel.More</t>
   </si>
   <si>
+    <t>2arizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r65905861-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2296,6 +2578,9 @@
   </si>
   <si>
     <t>I stayed here for 4 days with my wife, daughter and 4 year old granddaughter.  We stayed in a 2 bedroom suite which worked out great for us.  Each bedroom had its own full bathroom.  The living room had a nice sofa (which I believe was also a pull-out bed), and fireplace.  There was a nice sized dining table with 4 chairs and the kitchen was fully equipped with a range, microwave, dishwasher, stainless steel sink,  and full size refrigerator with icemaker.  Also included are all kitchen utensils, plates, glasses, etc.  The staff was very friendly and helpful.  The rooms and grounds were nice and clean.  The location is quiet and has easy access to freeways although not within walking distance to any restaurants.  It was also nice to have free internet access.  The only criticisms I would have are that the pool needed some immediate attention for the beginning stages of algae and while there were large flat screen tv's in the living room and 2 bedrooms, there was only one remote control which we had to keep sharing.More</t>
+  </si>
+  <si>
+    <t>bbgnana</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r63322201-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -2322,6 +2607,9 @@
 I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and...This place was awesome!! Me, hubby and 17 month old had a blast!! It was incredibly comfortable, very centrally located, and exceptional service. We decided to get a 2 bdrm suite, since my little one is use to sleeping in her own room...and we recently had experience sharing a room w/ her in a hotel made her extremely excited and hyper and she just refused to sleep in her own crib, she whined and cried till she was in our bed with us. Which is completely understandable, but not a restful nor relaxing vacation when you are sharing a bed w/ a restless toddler. So a 2 bdrm was perfect, that way she had her own room. The suite was very nice and clean. The kitchen was wonderful to have w/ a little one. They provided a crib and even accommodated my request for a high chair! So we had a home away from home! The hotel has a very tasty breakfast every morning and on some evenings they had a small dinner type food and beer and wine:).I truly had one of the best stays here. I was completely relaxed and I highly highly recommend this place. (To be honest, I was afraid it might be a bit run down and not up to my standard, we usually stay at 5 star hotels, but I felt this was a great place to have when traveling with children and still clean and classy!:) )More</t>
   </si>
   <si>
+    <t>pmoni25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r55671366-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2340,6 +2628,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>shadypines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r52181307-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2361,6 +2652,9 @@
     <t>We enjoyed our stay at this hotel.The mattress was a bit hard, not as comfy as at other RI hotels. Otherwise no gripes.Staff were very friendly and made us feel at home straight away.The room was great and the fireplace was a wonderful extra for December.The lady at reception could teach a few other RI receptionists especially in Florida how to greet and treat guests. 10/10 for her professionalism and the rest of the staff who went out of their way to help us when we needed something.They have also remodelled their aircon system so in summer you will not have that antiquated buzzing rattling wall unit.We will definitely return.More</t>
   </si>
   <si>
+    <t>daytriper99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r51764087-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2397,6 +2691,9 @@
     <t>This has been my home away from home for the past 4 years. My daughter regularly visits the hospital nearby. I have brought a bed egg crate with me in the past because the beds were too hard. The lobby and all the rooms have been completely redone. It is beautiful!!!! The beds have been replaced with awesome mattresses. New carpet, new paint, new flooring in kitchen, new sheets, new curtains, new shower curtain, new counter tops, all new furniture.   Beautiful... I love all the updates. The only down fall for me is they do not have any king sized bed rooms.  Oh did I mention flat screen tv's too?More</t>
   </si>
   <si>
+    <t>NewEnglandCamper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r23181457-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2418,6 +2715,9 @@
     <t>We stayed at this Marriott Residence Inn in Dallas TX area for 4 nights on a combined business/pleasure trip. We traveled with family and family pets. Random thoughts:* Checkin was easy but asked for low floor room for weeks in advance and the only one available at checkin was a handicap room. We took it but the bathroom area was not ideal (no tub)* Garbage disposal not working* Double beds vs. Queen beds. * Hot breakfast was mediocre (compared to a MRI we stayed in October 08)* Room was very clean* Pool / hot tub was closed the entire time we were there even though they advertise it as being open year round. * No oven (only stove top) There is plenty of other fine hotels in this area and I probably would go somewhere else if I was traveling again.More</t>
   </si>
   <si>
+    <t>hasabigrock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r22526339-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2436,6 +2736,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>smithdallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r7115820-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2454,6 +2757,9 @@
     <t>March 2007</t>
   </si>
   <si>
+    <t>Expatmomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r5011887-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2470,6 +2776,9 @@
   </si>
   <si>
     <t>This is a fantastic hotel with a warm friendly atmosphere.  I have two children under 3 and we were spaciously accommodated in one of their two bedroom suites.  The beds were very comfortable and the pillows were soft and fluffy and we had 3 TVs - one in each bedroom and one in the livingroom!!  The rooms were quiet and there was no traffic noise.  Our room was cleaned, towels were changed, new toiletries were left and our supplies of coffee/sugar were replenished daily.  We all loved the breakfast buffet which changed daily.  The swimming pool and out door hot tub were a fantastic place to retreat to after a long day of sight seeing.  This is a great place to stay and we will certainly stay with Residence Inn on our next vacation.Congratulations Residence Inn Dallas Park Central you have created a warm and comfortable environment for the weary travelling family.More</t>
+  </si>
+  <si>
+    <t>groovyvegan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223887-r4467528-Residence_Inn_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -2999,43 +3308,47 @@
       <c r="A2" t="n">
         <v>42552</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175784</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3053,56 +3366,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42552</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175785</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3114,56 +3431,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42552</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>111963</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3175,56 +3496,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42552</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175786</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3236,56 +3561,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42552</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3303,56 +3632,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42552</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175787</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3364,56 +3697,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42552</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175788</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3429,56 +3766,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42552</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3494,56 +3835,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42552</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175789</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3559,56 +3904,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42552</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3624,56 +3973,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42552</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3691,56 +4044,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42552</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3758,56 +4115,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42552</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3819,56 +4180,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42552</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4795</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3886,56 +4251,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42552</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175792</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3947,56 +4316,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42552</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>41161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -4016,50 +4389,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42552</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175793</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>180</v>
       </c>
-      <c r="K18" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>166</v>
-      </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4071,56 +4448,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42552</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>67205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4132,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42552</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175794</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4195,56 +4580,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42552</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175795</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4260,56 +4649,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42552</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175796</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4325,56 +4718,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42552</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>245</v>
+      </c>
+      <c r="J23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" t="s">
+        <v>247</v>
+      </c>
+      <c r="L23" t="s">
+        <v>248</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>223</v>
       </c>
-      <c r="J23" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" t="s">
-        <v>226</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>204</v>
-      </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4392,56 +4789,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42552</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>92354</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4457,56 +4858,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42552</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175797</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4518,56 +4923,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42552</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175798</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4585,56 +4994,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42552</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175799</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4646,56 +5059,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42552</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175800</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4707,56 +5124,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42552</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175801</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4774,56 +5195,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42552</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175802</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4835,56 +5260,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42552</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>15522</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4902,56 +5331,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="X31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="Y31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42552</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175803</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="O32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4967,56 +5400,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="X32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42552</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>82030</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5034,56 +5471,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42552</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175804</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5101,56 +5542,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42552</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>100481</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5162,56 +5607,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="X35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42552</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175805</v>
+      </c>
+      <c r="C36" t="s">
+        <v>363</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5223,56 +5672,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42552</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>93432</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5290,56 +5743,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42552</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>26696</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5357,56 +5814,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42552</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5418,56 +5879,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42552</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175806</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5483,56 +5948,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42552</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175807</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="O41" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5548,56 +6017,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="X41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42552</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175808</v>
+      </c>
+      <c r="C42" t="s">
+        <v>419</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5615,56 +6088,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42552</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>5794</v>
+      </c>
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5682,47 +6159,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42552</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175809</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
@@ -5739,56 +6220,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42552</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175810</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="O45" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5800,56 +6285,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X45" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42552</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>63059</v>
+      </c>
+      <c r="C46" t="s">
+        <v>454</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5861,56 +6350,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42552</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>139187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>461</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="J47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="K47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="L47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O47" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5928,50 +6421,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42552</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175811</v>
+      </c>
+      <c r="C48" t="s">
+        <v>469</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5985,50 +6482,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42552</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>5287</v>
+      </c>
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="J49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6046,50 +6547,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42552</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175812</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="J50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6109,50 +6614,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42552</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175813</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="J51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6166,41 +6675,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42552</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175814</v>
+      </c>
+      <c r="C52" t="s">
+        <v>495</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="K52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="L52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
@@ -6229,50 +6742,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42552</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>13372</v>
+      </c>
+      <c r="C53" t="s">
+        <v>501</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6290,41 +6807,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42552</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175815</v>
+      </c>
+      <c r="C54" t="s">
+        <v>509</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="J54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -6353,50 +6874,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42552</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>4843</v>
+      </c>
+      <c r="C55" t="s">
+        <v>516</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="J55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="K55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="L55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6414,56 +6939,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="X55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>42552</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>77197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>526</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="O56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6485,56 +7014,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="X56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="Y56" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>42552</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>107878</v>
+      </c>
+      <c r="C57" t="s">
+        <v>536</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="O57" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6556,56 +7089,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="Y57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>42552</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175816</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="O58" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6627,56 +7164,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="X58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="Y58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>42552</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175817</v>
+      </c>
+      <c r="C59" t="s">
+        <v>552</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="J59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="K59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="L59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6698,56 +7239,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X59" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y59" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>42552</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>99544</v>
+      </c>
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="L60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6759,47 +7304,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>42552</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>47576</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6826,56 +7375,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X61" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>42552</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C62" t="s">
+        <v>576</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6887,56 +7440,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X62" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>42552</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175818</v>
+      </c>
+      <c r="C63" t="s">
+        <v>584</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="J63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="K63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="L63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6948,56 +7505,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X63" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>42552</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175819</v>
+      </c>
+      <c r="C64" t="s">
+        <v>591</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="J64" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="K64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="L64" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="O64" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7009,56 +7570,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X64" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y64" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>42552</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175820</v>
+      </c>
+      <c r="C65" t="s">
+        <v>599</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="J65" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="K65" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="L65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="O65" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7070,56 +7635,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="X65" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="Y65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>42552</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175821</v>
+      </c>
+      <c r="C66" t="s">
+        <v>609</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="J66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="K66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="L66" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7141,56 +7710,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="X66" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="Y66" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>42552</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175822</v>
+      </c>
+      <c r="C67" t="s">
+        <v>616</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="J67" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="K67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="L67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O67" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7212,56 +7785,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="X67" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="Y67" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>42552</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>58578</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="J68" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K68" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -7285,50 +7862,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>42552</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175823</v>
+      </c>
+      <c r="C69" t="s">
+        <v>634</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="J69" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="K69" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="L69" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7352,50 +7933,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>42552</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>72566</v>
+      </c>
+      <c r="C70" t="s">
+        <v>641</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="J70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="K70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="L70" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O70" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7419,50 +8004,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>42552</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175824</v>
+      </c>
+      <c r="C71" t="s">
+        <v>648</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="J71" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="K71" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="O71" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7486,41 +8075,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>42552</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175825</v>
+      </c>
+      <c r="C72" t="s">
+        <v>656</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="J72" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="K72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="L72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
@@ -7549,50 +8142,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>42552</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175826</v>
+      </c>
+      <c r="C73" t="s">
+        <v>663</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="J73" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="K73" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="L73" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="O73" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7616,50 +8213,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>42552</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175827</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="O74" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7683,50 +8284,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>42552</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175828</v>
+      </c>
+      <c r="C75" t="s">
+        <v>679</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="J75" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="K75" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="L75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="O75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7750,50 +8355,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>42552</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175829</v>
+      </c>
+      <c r="C76" t="s">
+        <v>686</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="J76" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="K76" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="L76" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7817,50 +8426,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>42552</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175830</v>
+      </c>
+      <c r="C77" t="s">
+        <v>693</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="J77" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="K77" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="L77" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="O77" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7882,56 +8495,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="X77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="Y77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>42552</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>711</v>
+      </c>
+      <c r="C78" t="s">
+        <v>703</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="J78" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="K78" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="L78" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7953,56 +8570,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="X78" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="Y78" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>42552</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175831</v>
+      </c>
+      <c r="C79" t="s">
+        <v>711</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="J79" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="K79" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="L79" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8024,47 +8645,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="X79" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="Y79" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>42552</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175832</v>
+      </c>
+      <c r="C80" t="s">
+        <v>718</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="J80" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="K80" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="L80" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -8093,50 +8718,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>42552</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175833</v>
+      </c>
+      <c r="C81" t="s">
+        <v>724</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="J81" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="K81" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="L81" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8158,56 +8787,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="X81" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="Y81" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>42552</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>175834</v>
+      </c>
+      <c r="C82" t="s">
+        <v>734</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="J82" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="K82" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="L82" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8231,50 +8864,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>42552</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175835</v>
+      </c>
+      <c r="C83" t="s">
+        <v>741</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="J83" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="K83" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="L83" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="O83" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8298,50 +8935,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>42552</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175836</v>
+      </c>
+      <c r="C84" t="s">
+        <v>748</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="J84" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="K84" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="L84" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="O84" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8365,50 +9006,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>42552</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>175837</v>
+      </c>
+      <c r="C85" t="s">
+        <v>756</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="J85" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="K85" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="L85" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8432,50 +9077,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>42552</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>175838</v>
+      </c>
+      <c r="C86" t="s">
+        <v>763</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="J86" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="K86" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="L86" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="O86" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8499,50 +9148,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>42552</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>175839</v>
+      </c>
+      <c r="C87" t="s">
+        <v>770</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="J87" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="K87" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="L87" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8566,50 +9219,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>42552</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>175840</v>
+      </c>
+      <c r="C88" t="s">
+        <v>777</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="J88" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="K88" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="L88" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8631,56 +9288,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="X88" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="Y88" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>42552</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175841</v>
+      </c>
+      <c r="C89" t="s">
+        <v>786</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="J89" t="s">
-        <v>701</v>
+        <v>789</v>
       </c>
       <c r="K89" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="L89" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8700,50 +9361,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>42552</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>175818</v>
+      </c>
+      <c r="C90" t="s">
+        <v>591</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="J90" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="K90" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="L90" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="O90" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8763,50 +9428,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>42552</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>175842</v>
+      </c>
+      <c r="C91" t="s">
+        <v>798</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="J91" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="K91" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="L91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8826,50 +9495,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>42552</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175843</v>
+      </c>
+      <c r="C92" t="s">
+        <v>804</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="J92" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="K92" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L92" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="O92" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8889,50 +9562,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>42552</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>175844</v>
+      </c>
+      <c r="C93" t="s">
+        <v>810</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>720</v>
+        <v>811</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>721</v>
+        <v>812</v>
       </c>
       <c r="J93" t="s">
-        <v>722</v>
+        <v>813</v>
       </c>
       <c r="K93" t="s">
-        <v>723</v>
+        <v>814</v>
       </c>
       <c r="L93" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="O93" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8956,50 +9633,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>42552</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>175845</v>
+      </c>
+      <c r="C94" t="s">
+        <v>818</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>727</v>
+        <v>819</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>728</v>
+        <v>820</v>
       </c>
       <c r="J94" t="s">
-        <v>729</v>
+        <v>821</v>
       </c>
       <c r="K94" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="L94" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="O94" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9023,41 +9704,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>42552</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>175846</v>
+      </c>
+      <c r="C95" t="s">
+        <v>825</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>733</v>
+        <v>826</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
       <c r="J95" t="s">
-        <v>735</v>
+        <v>828</v>
       </c>
       <c r="K95" t="s">
-        <v>736</v>
+        <v>829</v>
       </c>
       <c r="L95" t="s">
-        <v>737</v>
+        <v>830</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
@@ -9086,50 +9771,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>42552</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>175847</v>
+      </c>
+      <c r="C96" t="s">
+        <v>832</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>739</v>
+        <v>833</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>740</v>
+        <v>834</v>
       </c>
       <c r="J96" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="K96" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="L96" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9153,50 +9842,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>42552</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>175848</v>
+      </c>
+      <c r="C97" t="s">
+        <v>840</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>747</v>
+        <v>842</v>
       </c>
       <c r="J97" t="s">
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="K97" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="L97" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9220,50 +9913,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>42552</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>175849</v>
+      </c>
+      <c r="C98" t="s">
+        <v>847</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>752</v>
+        <v>848</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>753</v>
+        <v>849</v>
       </c>
       <c r="J98" t="s">
-        <v>754</v>
+        <v>850</v>
       </c>
       <c r="K98" t="s">
-        <v>755</v>
+        <v>851</v>
       </c>
       <c r="L98" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="O98" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9287,50 +9984,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>42552</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>175850</v>
+      </c>
+      <c r="C99" t="s">
+        <v>854</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>758</v>
+        <v>855</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>759</v>
+        <v>856</v>
       </c>
       <c r="J99" t="s">
-        <v>760</v>
+        <v>857</v>
       </c>
       <c r="K99" t="s">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="L99" t="s">
-        <v>762</v>
+        <v>859</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9354,50 +10055,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>42552</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>175851</v>
+      </c>
+      <c r="C100" t="s">
+        <v>862</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>765</v>
+        <v>863</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>766</v>
+        <v>864</v>
       </c>
       <c r="J100" t="s">
-        <v>767</v>
+        <v>865</v>
       </c>
       <c r="K100" t="s">
-        <v>768</v>
+        <v>866</v>
       </c>
       <c r="L100" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9421,50 +10126,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>42552</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>111963</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="J101" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="K101" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
       <c r="L101" t="s">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>775</v>
+        <v>873</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9488,50 +10197,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>776</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>42552</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>175852</v>
+      </c>
+      <c r="C102" t="s">
+        <v>875</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="J102" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="K102" t="s">
-        <v>780</v>
+        <v>879</v>
       </c>
       <c r="L102" t="s">
-        <v>781</v>
+        <v>880</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>782</v>
+        <v>881</v>
       </c>
       <c r="O102" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9555,50 +10268,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>783</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>42552</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>175853</v>
+      </c>
+      <c r="C103" t="s">
+        <v>883</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="J103" t="s">
-        <v>786</v>
+        <v>886</v>
       </c>
       <c r="K103" t="s">
-        <v>787</v>
+        <v>887</v>
       </c>
       <c r="L103" t="s">
-        <v>788</v>
+        <v>888</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>789</v>
+        <v>889</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9620,50 +10337,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>788</v>
+        <v>888</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>42552</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>175854</v>
+      </c>
+      <c r="C104" t="s">
+        <v>890</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>791</v>
+        <v>892</v>
       </c>
       <c r="J104" t="s">
-        <v>792</v>
+        <v>893</v>
       </c>
       <c r="K104" t="s">
-        <v>793</v>
+        <v>894</v>
       </c>
       <c r="L104" t="s">
-        <v>794</v>
+        <v>895</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>795</v>
+        <v>896</v>
       </c>
       <c r="O104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9687,41 +10408,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>794</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>42552</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>175855</v>
+      </c>
+      <c r="C105" t="s">
+        <v>897</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>797</v>
+        <v>899</v>
       </c>
       <c r="J105" t="s">
-        <v>798</v>
+        <v>900</v>
       </c>
       <c r="K105" t="s">
-        <v>799</v>
+        <v>901</v>
       </c>
       <c r="L105" t="s">
-        <v>800</v>
+        <v>902</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
@@ -9748,50 +10473,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>42552</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>175856</v>
+      </c>
+      <c r="C106" t="s">
+        <v>904</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>803</v>
+        <v>906</v>
       </c>
       <c r="J106" t="s">
-        <v>804</v>
+        <v>907</v>
       </c>
       <c r="K106" t="s">
-        <v>805</v>
+        <v>908</v>
       </c>
       <c r="L106" t="s">
-        <v>806</v>
+        <v>909</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>807</v>
+        <v>910</v>
       </c>
       <c r="O106" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9813,7 +10542,7 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
